--- a/Run Tank/Critical_RT_Calcs_IR-3.25.xlsx
+++ b/Run Tank/Critical_RT_Calcs_IR-3.25.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danzanko/Documents/GitHub/Propulsion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Propulsion\Run Tank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3E904E-A9AE-884F-BFC1-B71DCF08E3F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD688838-8022-43A2-8E65-E68F01F714E9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{838B0196-D158-479E-A7C6-911A07F6EFB7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="854" firstSheet="4" activeTab="7" xr2:uid="{838B0196-D158-479E-A7C6-911A07F6EFB7}"/>
   </bookViews>
   <sheets>
     <sheet name="BPV Calcs - T6" sheetId="1" r:id="rId1"/>
     <sheet name="BPV Calcs - T51" sheetId="7" r:id="rId2"/>
-    <sheet name="N2O Pressure Calcs" sheetId="2" r:id="rId3"/>
-    <sheet name="N2O Ullage Calcs" sheetId="3" r:id="rId4"/>
-    <sheet name="Max Mass 4 a set Diptube length" sheetId="11" r:id="rId5"/>
-    <sheet name="RT Mounting Bolt Calcs" sheetId="5" r:id="rId6"/>
-    <sheet name="Min Yield Strength Allow -Shell" sheetId="9" r:id="rId7"/>
-    <sheet name="Min Yield Strength Allow - Head" sheetId="10" r:id="rId8"/>
-    <sheet name="BPV Calcs for No PWHT" sheetId="6" r:id="rId9"/>
+    <sheet name="BPV Calcs for No PWHT" sheetId="6" r:id="rId3"/>
+    <sheet name="N2O Pressure Calcs" sheetId="2" r:id="rId4"/>
+    <sheet name="N2O Ullage Calcs" sheetId="3" r:id="rId5"/>
+    <sheet name="Max Mass 4 a set Diptube length" sheetId="11" r:id="rId6"/>
+    <sheet name="RT Mounting Bolt Calcs" sheetId="5" r:id="rId7"/>
+    <sheet name="Min Yield Strength Allow -Shell" sheetId="9" r:id="rId8"/>
+    <sheet name="Min Yield Strength Allow - Head" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_MailAutoSig" localSheetId="4">'Max Mass 4 a set Diptube length'!$N$14</definedName>
-    <definedName name="_MailAutoSig" localSheetId="3">'N2O Ullage Calcs'!$N$14</definedName>
+    <definedName name="_MailAutoSig" localSheetId="5">'Max Mass 4 a set Diptube length'!$N$14</definedName>
+    <definedName name="_MailAutoSig" localSheetId="4">'N2O Ullage Calcs'!$N$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1403,7 +1403,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="9" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="242">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1799,90 +1799,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1989,6 +1905,93 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="28" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -4678,67 +4681,67 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView zoomScale="132" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.1640625" customWidth="1"/>
-    <col min="2" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+    <col min="1" max="1" width="45.140625" customWidth="1"/>
+    <col min="2" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16">
-      <c r="A1" s="173" t="s">
+    <row r="1" spans="1:7" ht="15.75">
+      <c r="A1" s="213" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-    </row>
-    <row r="2" spans="1:7" ht="16">
-      <c r="A2" s="174" t="s">
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="G1" s="213"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75">
+      <c r="A2" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-    </row>
-    <row r="3" spans="1:7" ht="16" thickBot="1">
-      <c r="A3" s="176" t="s">
+      <c r="B2" s="214"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="214"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A3" s="216" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="176"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-    </row>
-    <row r="4" spans="1:7" ht="17" thickBot="1">
+      <c r="B3" s="216"/>
+      <c r="C3" s="216"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="216"/>
+      <c r="G3" s="216"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" thickBot="1">
       <c r="C4" s="155" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="175" t="s">
+      <c r="A5" s="215" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="175"/>
+      <c r="B5" s="215"/>
       <c r="C5" s="147"/>
-      <c r="E5" s="175" t="s">
+      <c r="E5" s="215" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="175"/>
+      <c r="F5" s="215"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -4790,7 +4793,7 @@
         <v>8.7434315746075519E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16">
+    <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
@@ -4815,7 +4818,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:7" ht="16" thickBot="1">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -4830,7 +4833,7 @@
         <v>8.8868811198063807E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17" thickBot="1">
+    <row r="13" spans="1:7" ht="16.5" thickBot="1">
       <c r="A13" s="120" t="s">
         <v>66</v>
       </c>
@@ -4850,7 +4853,7 @@
         <v>8.8868811198063807E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17" thickBot="1">
+    <row r="14" spans="1:7" ht="16.5" thickBot="1">
       <c r="A14" s="120" t="s">
         <v>67</v>
       </c>
@@ -4868,7 +4871,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:7" ht="32">
+    <row r="16" spans="1:7" ht="30">
       <c r="A16" s="56" t="s">
         <v>41</v>
       </c>
@@ -4880,7 +4883,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" ht="16">
+    <row r="17" spans="1:6">
       <c r="A17" s="55" t="s">
         <v>42</v>
       </c>
@@ -4971,49 +4974,49 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.1640625" customWidth="1"/>
-    <col min="2" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+    <col min="1" max="1" width="45.140625" customWidth="1"/>
+    <col min="2" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16">
-      <c r="A1" s="173" t="s">
+    <row r="1" spans="1:7" ht="15.75">
+      <c r="A1" s="213" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-    </row>
-    <row r="2" spans="1:7" ht="16">
-      <c r="A2" s="174" t="s">
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="G1" s="213"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75">
+      <c r="A2" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-    </row>
-    <row r="3" spans="1:7" ht="16" thickBot="1">
-      <c r="A3" s="176" t="s">
+      <c r="B2" s="214"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="214"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A3" s="216" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="176"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-    </row>
-    <row r="4" spans="1:7" ht="17" thickBot="1">
+      <c r="B3" s="216"/>
+      <c r="C3" s="216"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="216"/>
+      <c r="G3" s="216"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" thickBot="1">
       <c r="C4" s="156" t="s">
         <v>104</v>
       </c>
@@ -5022,15 +5025,15 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="175" t="s">
+      <c r="A5" s="215" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="175"/>
+      <c r="B5" s="215"/>
       <c r="C5" s="147"/>
-      <c r="E5" s="175" t="s">
+      <c r="E5" s="215" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="175"/>
+      <c r="F5" s="215"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -5082,7 +5085,7 @@
         <v>9.6074360293569097E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16">
+    <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
@@ -5107,7 +5110,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:7" ht="16" thickBot="1">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -5122,7 +5125,7 @@
         <v>9.7809182691963037E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17" thickBot="1">
+    <row r="13" spans="1:7" ht="16.5" thickBot="1">
       <c r="A13" s="120" t="s">
         <v>66</v>
       </c>
@@ -5142,7 +5145,7 @@
         <v>9.7809182691963037E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16" thickBot="1">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1">
       <c r="A14" s="120" t="s">
         <v>67</v>
       </c>
@@ -5160,7 +5163,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:7" ht="32">
+    <row r="16" spans="1:7" ht="30">
       <c r="A16" s="56" t="s">
         <v>41</v>
       </c>
@@ -5172,7 +5175,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" ht="16">
+    <row r="17" spans="1:6">
       <c r="A17" s="55" t="s">
         <v>42</v>
       </c>
@@ -5259,46 +5262,335 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4CC0F4-5ED0-0840-90E0-925922EF4438}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView zoomScale="132" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="45.140625" customWidth="1"/>
+    <col min="2" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75">
+      <c r="A1" s="213" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="G1" s="213"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75">
+      <c r="A2" s="214" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="214"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="214"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A3" s="216" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="216"/>
+      <c r="C3" s="216"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="216"/>
+      <c r="G3" s="216"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1">
+      <c r="C4" s="157" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="215" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="215"/>
+      <c r="C5" s="147"/>
+      <c r="E5" s="215" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="215"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>825</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="58"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>3.25</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="9">
+        <f>B17*B8/((B11*B9)-(0.6*B17))</f>
+        <v>0.36635171282138734</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="C9" s="58"/>
+      <c r="E9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="11">
+        <f>B17*B8/((2*B11*B9)+(0.4*B17))</f>
+        <v>0.16802366954715292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="13">
+        <f>MAX(F8:F9)</f>
+        <v>0.36635171282138734</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>17000</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="E12" s="108" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="109">
+        <f>(B17*B8)/((2*B11*B9)-(0.2*B17))</f>
+        <v>0.17340257482678134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A13" s="120" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="144">
+        <f>0.25-0.025</f>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C13" s="153">
+        <f>B13/F10</f>
+        <v>0.61416390895843154</v>
+      </c>
+      <c r="E13" s="110" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="111">
+        <f>F12</f>
+        <v>0.17340257482678134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A14" s="120" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="144">
+        <v>0.15</v>
+      </c>
+      <c r="C14" s="153">
+        <f>B14/F13</f>
+        <v>0.86503905809842152</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" ht="30">
+      <c r="A16" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="123">
+        <f>'N2O Pressure Calcs'!H53</f>
+        <v>807.70698482306932</v>
+      </c>
+      <c r="C16" s="150"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="125">
+        <f>B10*B16</f>
+        <v>1615.4139696461386</v>
+      </c>
+      <c r="C17" s="151"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="59"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" ht="46.5" customHeight="1">
+      <c r="A19" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="124">
+        <f>'N2O Pressure Calcs'!J53</f>
+        <v>810.73685002846571</v>
+      </c>
+      <c r="C19" s="152"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="24" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A24" s="52"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1">
+      <c r="A25" s="53"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="51"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1">
+      <c r="A28" s="54"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="54"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="54"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E5:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2381E3-ED84-DB4C-A4E2-7857F2E34756}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P819"/>
   <sheetViews>
-    <sheetView zoomScale="135" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M7" sqref="M7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="24"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="24"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="4.5" customWidth="1"/>
+    <col min="5" max="6" width="4.42578125" customWidth="1"/>
     <col min="7" max="7" width="14" style="36" customWidth="1"/>
     <col min="8" max="8" width="16" style="35" customWidth="1"/>
     <col min="9" max="9" width="22" style="37" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="35" customWidth="1"/>
     <col min="11" max="11" width="11" style="46" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="23.25" customHeight="1">
       <c r="A1" s="65"/>
-      <c r="B1" s="183" t="s">
+      <c r="B1" s="223" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="184"/>
-      <c r="D1" s="185"/>
+      <c r="C1" s="224"/>
+      <c r="D1" s="225"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
-      <c r="G1" s="180" t="s">
+      <c r="G1" s="220" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="182"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="221"/>
+      <c r="J1" s="222"/>
       <c r="K1" s="44"/>
       <c r="L1" t="s">
         <v>26</v>
@@ -5329,14 +5621,14 @@
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
-      <c r="G2" s="177" t="s">
+      <c r="G2" s="217" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178" t="s">
+      <c r="H2" s="218"/>
+      <c r="I2" s="218" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="179"/>
+      <c r="J2" s="219"/>
       <c r="K2" s="43"/>
       <c r="L2" t="s">
         <v>14</v>
@@ -10109,7 +10401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA32C0C-ED9A-4805-89D4-96E4CF8ECC22}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O819"/>
@@ -10119,38 +10411,38 @@
       <selection pane="topRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="24"/>
-    <col min="3" max="3" width="11.83203125" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="23"/>
-    <col min="5" max="5" width="11.5" style="58"/>
-    <col min="6" max="6" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="24"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="23"/>
+    <col min="5" max="5" width="11.42578125" style="58"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
     <col min="7" max="8" width="13" style="24" customWidth="1"/>
     <col min="9" max="9" width="11" style="24" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" customWidth="1"/>
-    <col min="11" max="11" width="9.83203125" customWidth="1"/>
-    <col min="12" max="12" width="12.5" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="190"/>
+      <c r="B1" s="229"/>
+      <c r="C1" s="229"/>
+      <c r="D1" s="230"/>
       <c r="E1" s="62"/>
-      <c r="F1" s="191" t="s">
+      <c r="F1" s="231" t="s">
         <v>100</v>
       </c>
       <c r="G1" s="107"/>
       <c r="H1" s="107"/>
       <c r="I1" s="107"/>
-      <c r="J1" s="194" t="s">
+      <c r="J1" s="234" t="s">
         <v>49</v>
       </c>
       <c r="K1" s="98"/>
@@ -10163,7 +10455,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="28" customHeight="1">
+    <row r="2" spans="1:15" ht="27.95" customHeight="1">
       <c r="A2" s="79" t="s">
         <v>18</v>
       </c>
@@ -10177,7 +10469,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="50"/>
-      <c r="F2" s="192"/>
+      <c r="F2" s="232"/>
       <c r="G2" s="103" t="s">
         <v>39</v>
       </c>
@@ -10187,11 +10479,11 @@
       <c r="I2" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="195"/>
-      <c r="K2" s="196" t="s">
+      <c r="J2" s="235"/>
+      <c r="K2" s="236" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="197"/>
+      <c r="L2" s="237"/>
       <c r="M2" s="63"/>
       <c r="N2" t="s">
         <v>14</v>
@@ -10201,7 +10493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="16" thickBot="1">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1">
       <c r="A3" s="94" t="s">
         <v>16</v>
       </c>
@@ -10215,7 +10507,7 @@
         <v>23</v>
       </c>
       <c r="E3" s="20"/>
-      <c r="F3" s="193"/>
+      <c r="F3" s="233"/>
       <c r="G3" s="99" t="s">
         <v>40</v>
       </c>
@@ -12037,7 +12329,7 @@
         <f t="shared" si="4"/>
         <v>5.3376723619410775</v>
       </c>
-      <c r="M42" s="186" t="s">
+      <c r="M42" s="226" t="s">
         <v>53</v>
       </c>
     </row>
@@ -12085,7 +12377,7 @@
         <f t="shared" si="4"/>
         <v>5.1411415209405424</v>
       </c>
-      <c r="M43" s="186"/>
+      <c r="M43" s="226"/>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="79">
@@ -12523,7 +12815,7 @@
         <v>-3.7408018391000608E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="16" thickBot="1">
+    <row r="53" spans="1:14" ht="15.75" thickBot="1">
       <c r="A53" s="84">
         <v>75</v>
       </c>
@@ -12575,7 +12867,7 @@
       </c>
       <c r="N53" s="40"/>
     </row>
-    <row r="54" spans="1:14" ht="16" thickBot="1">
+    <row r="54" spans="1:14" ht="15.75" thickBot="1">
       <c r="A54" s="79">
         <v>75.2</v>
       </c>
@@ -12687,7 +12979,7 @@
       <c r="L57" s="17"/>
       <c r="M57" s="17"/>
     </row>
-    <row r="58" spans="1:14" ht="16" thickBot="1">
+    <row r="58" spans="1:14" ht="15.75" thickBot="1">
       <c r="A58" s="79">
         <v>78.8</v>
       </c>
@@ -12752,8 +13044,8 @@
         <v>0.3961002815536</v>
       </c>
       <c r="E60" s="50"/>
-      <c r="F60" s="187"/>
-      <c r="G60" s="187"/>
+      <c r="F60" s="227"/>
+      <c r="G60" s="227"/>
       <c r="H60" s="143"/>
       <c r="I60" s="38"/>
       <c r="J60" s="17"/>
@@ -13175,7 +13467,7 @@
       <c r="L78" s="17"/>
       <c r="M78" s="17"/>
     </row>
-    <row r="79" spans="1:14" ht="16" thickBot="1">
+    <row r="79" spans="1:14" ht="15.75" thickBot="1">
       <c r="A79" s="88">
         <v>97.47</v>
       </c>
@@ -15434,40 +15726,40 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05AE5418-5133-5D48-95A7-2111471E9D33}">
   <dimension ref="A1:R819"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O4" sqref="O4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="24"/>
-    <col min="3" max="3" width="11.83203125" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="23"/>
-    <col min="5" max="5" width="11.5" style="58"/>
-    <col min="6" max="6" width="16" style="58" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.6640625" style="58" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" style="58" customWidth="1"/>
-    <col min="10" max="11" width="13.5" style="58" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5" style="58" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="24"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="23"/>
+    <col min="5" max="5" width="11.42578125" style="58"/>
+    <col min="6" max="6" width="17.5703125" style="58" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.28515625" style="58" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="58" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.42578125" style="58" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="58" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.1640625" customWidth="1"/>
-    <col min="17" max="17" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.140625" customWidth="1"/>
+    <col min="17" max="17" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="190"/>
+      <c r="B1" s="229"/>
+      <c r="C1" s="229"/>
+      <c r="D1" s="230"/>
       <c r="E1" s="62"/>
       <c r="F1" s="62"/>
       <c r="G1" s="62"/>
@@ -15477,10 +15769,10 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
       <c r="M1" s="14"/>
-      <c r="N1" s="204" t="s">
+      <c r="N1" s="176" t="s">
         <v>102</v>
       </c>
-      <c r="O1" s="201"/>
+      <c r="O1" s="173"/>
       <c r="P1" s="58"/>
       <c r="Q1" t="s">
         <v>56</v>
@@ -15489,7 +15781,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="28" customHeight="1" thickBot="1">
+    <row r="2" spans="1:18" ht="27.95" customHeight="1" thickBot="1">
       <c r="A2" s="79" t="s">
         <v>18</v>
       </c>
@@ -15503,32 +15795,32 @@
         <v>22</v>
       </c>
       <c r="E2" s="50"/>
-      <c r="F2" s="207" t="s">
+      <c r="F2" s="179" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="208" t="s">
+      <c r="G2" s="180" t="s">
         <v>128</v>
       </c>
-      <c r="H2" s="208" t="s">
+      <c r="H2" s="180" t="s">
         <v>128</v>
       </c>
-      <c r="I2" s="208" t="s">
+      <c r="I2" s="180" t="s">
         <v>126</v>
       </c>
-      <c r="J2" s="208" t="s">
+      <c r="J2" s="180" t="s">
         <v>127</v>
       </c>
-      <c r="K2" s="208" t="s">
+      <c r="K2" s="180" t="s">
         <v>127</v>
       </c>
-      <c r="L2" s="213" t="s">
+      <c r="L2" s="185" t="s">
         <v>134</v>
       </c>
       <c r="M2" s="63"/>
-      <c r="N2" s="202" t="s">
+      <c r="N2" s="174" t="s">
         <v>132</v>
       </c>
-      <c r="O2" s="203">
+      <c r="O2" s="175">
         <v>12</v>
       </c>
       <c r="P2" s="49"/>
@@ -15539,7 +15831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="16" thickBot="1">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1">
       <c r="A3" s="94" t="s">
         <v>16</v>
       </c>
@@ -15553,29 +15845,29 @@
         <v>23</v>
       </c>
       <c r="E3" s="71"/>
-      <c r="F3" s="209" t="s">
+      <c r="F3" s="181" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="210" t="s">
+      <c r="G3" s="182" t="s">
         <v>129</v>
       </c>
-      <c r="H3" s="210" t="s">
+      <c r="H3" s="182" t="s">
         <v>130</v>
       </c>
-      <c r="I3" s="210" t="s">
+      <c r="I3" s="182" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="210" t="s">
+      <c r="J3" s="182" t="s">
         <v>129</v>
       </c>
-      <c r="K3" s="210" t="s">
+      <c r="K3" s="182" t="s">
         <v>130</v>
       </c>
-      <c r="L3" s="214" t="s">
+      <c r="L3" s="186" t="s">
         <v>130</v>
       </c>
       <c r="M3" s="17"/>
-      <c r="N3" s="211"/>
+      <c r="N3" s="183"/>
       <c r="Q3" t="s">
         <v>13</v>
       </c>
@@ -15584,52 +15876,52 @@
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="215">
+      <c r="A4" s="187">
         <v>32</v>
       </c>
-      <c r="B4" s="216">
+      <c r="B4" s="188">
         <v>452.82023903999999</v>
       </c>
-      <c r="C4" s="217">
+      <c r="C4" s="189">
         <v>1.75999830112</v>
       </c>
-      <c r="D4" s="218">
+      <c r="D4" s="190">
         <v>0.16525852904319999</v>
       </c>
       <c r="E4" s="50"/>
-      <c r="F4" s="231">
+      <c r="F4" s="203">
         <f>$R$11 + (PI()*(($R$10/2)^2)*(($O$2/12)-($R$10/2)))</f>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G4" s="232">
+      <c r="G4" s="204">
         <f>F4*D4</f>
         <v>3.4643901004300891E-2</v>
       </c>
-      <c r="H4" s="232">
+      <c r="H4" s="204">
         <f>G4*$O$4</f>
         <v>1.1146328709123769</v>
       </c>
-      <c r="I4" s="232">
+      <c r="I4" s="204">
         <f>$R$15-$F$4</f>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J4" s="232">
+      <c r="J4" s="204">
         <f>C4*I4</f>
         <v>0.95365395194932778</v>
       </c>
-      <c r="K4" s="232">
+      <c r="K4" s="204">
         <f>J4*$O$4</f>
         <v>30.682862250017671</v>
       </c>
-      <c r="L4" s="233">
+      <c r="L4" s="205">
         <f>H4+K4</f>
         <v>31.797495120930048</v>
       </c>
       <c r="M4" s="17"/>
-      <c r="N4" s="240" t="s">
+      <c r="N4" s="212" t="s">
         <v>133</v>
       </c>
-      <c r="O4" s="240">
+      <c r="O4" s="212">
         <v>32.173999999999999</v>
       </c>
       <c r="Q4" t="s">
@@ -15640,44 +15932,44 @@
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="219">
+      <c r="A5" s="191">
         <v>32.9</v>
       </c>
-      <c r="B5" s="220">
+      <c r="B5" s="192">
         <v>458.65366740000002</v>
       </c>
-      <c r="C5" s="221">
+      <c r="C5" s="193">
         <v>1.7550485447999999</v>
       </c>
-      <c r="D5" s="222">
+      <c r="D5" s="194">
         <v>0.16772615040639999</v>
       </c>
       <c r="E5" s="50"/>
-      <c r="F5" s="234">
+      <c r="F5" s="206">
         <f t="shared" ref="F5:F53" si="0">$R$11 + (PI()*(($R$10/2)^2)*(($O$2/12)-($R$10/2)))</f>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G5" s="235">
+      <c r="G5" s="207">
         <f t="shared" ref="G5:G53" si="1">F5*D5</f>
         <v>3.5161199752618152E-2</v>
       </c>
-      <c r="H5" s="235">
+      <c r="H5" s="207">
         <f t="shared" ref="H5:H53" si="2">G5*$O$4</f>
         <v>1.1312764408407363</v>
       </c>
-      <c r="I5" s="235">
+      <c r="I5" s="207">
         <f t="shared" ref="I5:I53" si="3">$R$15-$F$4</f>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J5" s="235">
+      <c r="J5" s="207">
         <f t="shared" ref="J5:J53" si="4">C5*I5</f>
         <v>0.95097192965831168</v>
       </c>
-      <c r="K5" s="235">
+      <c r="K5" s="207">
         <f t="shared" ref="K5:K53" si="5">J5*$O$4</f>
         <v>30.596570864826518</v>
       </c>
-      <c r="L5" s="236">
+      <c r="L5" s="208">
         <f t="shared" ref="L5:L53" si="6">H5+K5</f>
         <v>31.727847305667254</v>
       </c>
@@ -15690,44 +15982,44 @@
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="219">
+      <c r="A6" s="191">
         <v>33.799999999999997</v>
       </c>
-      <c r="B6" s="220">
+      <c r="B6" s="192">
         <v>464.54366057999999</v>
       </c>
-      <c r="C6" s="221">
+      <c r="C6" s="193">
         <v>1.7500619224</v>
       </c>
-      <c r="D6" s="222">
+      <c r="D6" s="194">
         <v>0.1702317244288</v>
       </c>
       <c r="E6" s="50"/>
-      <c r="F6" s="234">
+      <c r="F6" s="206">
         <f t="shared" si="0"/>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G6" s="235">
+      <c r="G6" s="207">
         <f t="shared" si="1"/>
         <v>3.5686454690402832E-2</v>
       </c>
-      <c r="H6" s="235">
+      <c r="H6" s="207">
         <f t="shared" si="2"/>
         <v>1.1481759932090208</v>
       </c>
-      <c r="I6" s="235">
+      <c r="I6" s="207">
         <f t="shared" si="3"/>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J6" s="235">
+      <c r="J6" s="207">
         <f t="shared" si="4"/>
         <v>0.94826993150546535</v>
       </c>
-      <c r="K6" s="235">
+      <c r="K6" s="207">
         <f t="shared" si="5"/>
         <v>30.509636776256841</v>
       </c>
-      <c r="L6" s="236">
+      <c r="L6" s="208">
         <f t="shared" si="6"/>
         <v>31.65781276946586</v>
       </c>
@@ -15740,44 +16032,44 @@
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="219">
+      <c r="A7" s="191">
         <v>34.700000000000003</v>
       </c>
-      <c r="B7" s="220">
+      <c r="B7" s="192">
         <v>470.48731781999993</v>
       </c>
-      <c r="C7" s="221">
+      <c r="C7" s="193">
         <v>1.7450423145599998</v>
       </c>
-      <c r="D7" s="222">
+      <c r="D7" s="194">
         <v>0.17277604664159998</v>
       </c>
       <c r="E7" s="50"/>
-      <c r="F7" s="234">
+      <c r="F7" s="206">
         <f t="shared" si="0"/>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G7" s="235">
+      <c r="G7" s="207">
         <f t="shared" si="1"/>
         <v>3.621983258849755E-2</v>
       </c>
-      <c r="H7" s="235">
+      <c r="H7" s="207">
         <f t="shared" si="2"/>
         <v>1.1653368937023201</v>
       </c>
-      <c r="I7" s="235">
+      <c r="I7" s="207">
         <f t="shared" si="3"/>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J7" s="235">
+      <c r="J7" s="207">
         <f t="shared" si="4"/>
         <v>0.94555006021308641</v>
       </c>
-      <c r="K7" s="235">
+      <c r="K7" s="207">
         <f t="shared" si="5"/>
         <v>30.422127637295841</v>
       </c>
-      <c r="L7" s="236">
+      <c r="L7" s="208">
         <f t="shared" si="6"/>
         <v>31.587464530998162</v>
       </c>
@@ -15793,92 +16085,92 @@
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="219">
+      <c r="A8" s="191">
         <v>35.6</v>
       </c>
-      <c r="B8" s="220">
+      <c r="B8" s="192">
         <v>476.48608949999999</v>
       </c>
-      <c r="C8" s="221">
+      <c r="C8" s="193">
         <v>1.73998778096</v>
       </c>
-      <c r="D8" s="222">
+      <c r="D8" s="194">
         <v>0.17536002899519998</v>
       </c>
       <c r="E8" s="50"/>
-      <c r="F8" s="234">
+      <c r="F8" s="206">
         <f t="shared" si="0"/>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G8" s="235">
+      <c r="G8" s="207">
         <f t="shared" si="1"/>
         <v>3.6761524623234093E-2</v>
       </c>
-      <c r="H8" s="235">
+      <c r="H8" s="207">
         <f t="shared" si="2"/>
         <v>1.1827652932279338</v>
       </c>
-      <c r="I8" s="235">
+      <c r="I8" s="207">
         <f t="shared" si="3"/>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J8" s="235">
+      <c r="J8" s="207">
         <f t="shared" si="4"/>
         <v>0.94281126442002616</v>
       </c>
-      <c r="K8" s="235">
+      <c r="K8" s="207">
         <f t="shared" si="5"/>
         <v>30.334009621449923</v>
       </c>
-      <c r="L8" s="236">
+      <c r="L8" s="208">
         <f t="shared" si="6"/>
         <v>31.516774914677857</v>
       </c>
       <c r="M8" s="17"/>
-      <c r="N8" s="205"/>
+      <c r="N8" s="177"/>
       <c r="O8" s="58"/>
       <c r="P8" s="58"/>
       <c r="Q8" s="58"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="219">
+      <c r="A9" s="191">
         <v>36.5</v>
       </c>
-      <c r="B9" s="220">
+      <c r="B9" s="192">
         <v>482.54142600000006</v>
       </c>
-      <c r="C9" s="221">
+      <c r="C9" s="193">
         <v>1.73489638128</v>
       </c>
-      <c r="D9" s="222">
+      <c r="D9" s="194">
         <v>0.17798456403679999</v>
       </c>
       <c r="E9" s="50"/>
-      <c r="F9" s="234">
+      <c r="F9" s="206">
         <f t="shared" si="0"/>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G9" s="235">
+      <c r="G9" s="207">
         <f t="shared" si="1"/>
         <v>3.7311717903362712E-2</v>
       </c>
-      <c r="H9" s="235">
+      <c r="H9" s="207">
         <f t="shared" si="2"/>
         <v>1.2004672118227919</v>
       </c>
-      <c r="I9" s="235">
+      <c r="I9" s="207">
         <f t="shared" si="3"/>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J9" s="235">
+      <c r="J9" s="207">
         <f t="shared" si="4"/>
         <v>0.94005249276513558</v>
       </c>
-      <c r="K9" s="235">
+      <c r="K9" s="207">
         <f t="shared" si="5"/>
         <v>30.245248902225473</v>
       </c>
-      <c r="L9" s="236">
+      <c r="L9" s="208">
         <f t="shared" si="6"/>
         <v>31.445716114048267</v>
       </c>
@@ -15894,44 +16186,44 @@
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="219">
+      <c r="A10" s="191">
         <v>37.4</v>
       </c>
-      <c r="B10" s="220">
+      <c r="B10" s="192">
         <v>488.65187693999997</v>
       </c>
-      <c r="C10" s="221">
+      <c r="C10" s="193">
         <v>1.7297661752</v>
       </c>
-      <c r="D10" s="222">
+      <c r="D10" s="194">
         <v>0.18065056371679999</v>
       </c>
       <c r="E10" s="50"/>
-      <c r="F10" s="234">
+      <c r="F10" s="206">
         <f t="shared" si="0"/>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G10" s="235">
+      <c r="G10" s="207">
         <f t="shared" si="1"/>
         <v>3.78706036052152E-2</v>
       </c>
-      <c r="H10" s="235">
+      <c r="H10" s="207">
         <f t="shared" si="2"/>
         <v>1.2184488003941938</v>
       </c>
-      <c r="I10" s="235">
+      <c r="I10" s="207">
         <f t="shared" si="3"/>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J10" s="235">
+      <c r="J10" s="207">
         <f t="shared" si="4"/>
         <v>0.93727269388726553</v>
       </c>
-      <c r="K10" s="235">
+      <c r="K10" s="207">
         <f t="shared" si="5"/>
         <v>30.155811653128879</v>
       </c>
-      <c r="L10" s="236">
+      <c r="L10" s="208">
         <f t="shared" si="6"/>
         <v>31.374260453523071</v>
       </c>
@@ -15948,44 +16240,44 @@
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="219">
+      <c r="A11" s="191">
         <v>38.299999999999997</v>
       </c>
-      <c r="B11" s="220">
+      <c r="B11" s="192">
         <v>494.82034307999999</v>
       </c>
-      <c r="C11" s="221">
+      <c r="C11" s="193">
         <v>1.7246010433599999</v>
       </c>
-      <c r="D11" s="222">
+      <c r="D11" s="194">
         <v>0.18335905640479999</v>
       </c>
       <c r="E11" s="50"/>
-      <c r="F11" s="234">
+      <c r="F11" s="206">
         <f t="shared" si="0"/>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G11" s="235">
+      <c r="G11" s="207">
         <f t="shared" si="1"/>
         <v>3.8438397310612493E-2</v>
       </c>
-      <c r="H11" s="235">
+      <c r="H11" s="207">
         <f t="shared" si="2"/>
         <v>1.2367169950716463</v>
       </c>
-      <c r="I11" s="235">
+      <c r="I11" s="207">
         <f t="shared" si="3"/>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J11" s="235">
+      <c r="J11" s="207">
         <f t="shared" si="4"/>
         <v>0.93447397050871406</v>
       </c>
-      <c r="K11" s="235">
+      <c r="K11" s="207">
         <f t="shared" si="5"/>
         <v>30.065765527147366</v>
       </c>
-      <c r="L11" s="236">
+      <c r="L11" s="208">
         <f t="shared" si="6"/>
         <v>31.302482522219012</v>
       </c>
@@ -16002,44 +16294,44 @@
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="219">
+      <c r="A12" s="191">
         <v>39.200000000000003</v>
       </c>
-      <c r="B12" s="220">
+      <c r="B12" s="192">
         <v>501.04537404000001</v>
       </c>
-      <c r="C12" s="221">
+      <c r="C12" s="193">
         <v>1.7193932244799999</v>
       </c>
-      <c r="D12" s="222">
+      <c r="D12" s="194">
         <v>0.18611099285759999</v>
       </c>
       <c r="E12" s="50"/>
-      <c r="F12" s="234">
+      <c r="F12" s="206">
         <f t="shared" si="0"/>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G12" s="235">
+      <c r="G12" s="207">
         <f t="shared" si="1"/>
         <v>3.9015298331049435E-2</v>
       </c>
-      <c r="H12" s="235">
+      <c r="H12" s="207">
         <f t="shared" si="2"/>
         <v>1.2552782085031844</v>
       </c>
-      <c r="I12" s="235">
+      <c r="I12" s="207">
         <f t="shared" si="3"/>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J12" s="235">
+      <c r="J12" s="207">
         <f t="shared" si="4"/>
         <v>0.93165211718488539</v>
       </c>
-      <c r="K12" s="235">
+      <c r="K12" s="207">
         <f t="shared" si="5"/>
         <v>29.974975218306501</v>
       </c>
-      <c r="L12" s="236">
+      <c r="L12" s="208">
         <f t="shared" si="6"/>
         <v>31.230253426809686</v>
       </c>
@@ -16055,44 +16347,44 @@
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="219">
+      <c r="A13" s="191">
         <v>40.1</v>
       </c>
-      <c r="B13" s="220">
+      <c r="B13" s="192">
         <v>507.32696982000004</v>
       </c>
-      <c r="C13" s="221">
+      <c r="C13" s="193">
         <v>1.71414853952</v>
       </c>
-      <c r="D13" s="222">
+      <c r="D13" s="194">
         <v>0.1889074790576</v>
       </c>
       <c r="E13" s="50"/>
-      <c r="F13" s="234">
+      <c r="F13" s="206">
         <f t="shared" si="0"/>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G13" s="235">
+      <c r="G13" s="207">
         <f t="shared" si="1"/>
         <v>3.9601538518673082E-2</v>
       </c>
-      <c r="H13" s="235">
+      <c r="H13" s="207">
         <f t="shared" si="2"/>
         <v>1.2741399002997877</v>
       </c>
-      <c r="I13" s="235">
+      <c r="I13" s="207">
         <f t="shared" si="3"/>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J13" s="235">
+      <c r="J13" s="207">
         <f t="shared" si="4"/>
         <v>0.92881028799922638</v>
       </c>
-      <c r="K13" s="235">
+      <c r="K13" s="207">
         <f t="shared" si="5"/>
         <v>29.88354220608711</v>
       </c>
-      <c r="L13" s="236">
+      <c r="L13" s="208">
         <f t="shared" si="6"/>
         <v>31.157682106386897</v>
       </c>
@@ -16109,44 +16401,44 @@
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="219">
+      <c r="A14" s="191">
         <v>41</v>
       </c>
-      <c r="B14" s="220">
+      <c r="B14" s="192">
         <v>513.66803117999996</v>
       </c>
-      <c r="C14" s="221">
+      <c r="C14" s="193">
         <v>1.7088611675200001</v>
       </c>
-      <c r="D14" s="222">
+      <c r="D14" s="194">
         <v>0.19174958218079999</v>
       </c>
       <c r="E14" s="50"/>
-      <c r="F14" s="234">
+      <c r="F14" s="206">
         <f t="shared" si="0"/>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G14" s="235">
+      <c r="G14" s="207">
         <f t="shared" si="1"/>
         <v>4.0197341590467436E-2</v>
       </c>
-      <c r="H14" s="235">
+      <c r="H14" s="207">
         <f t="shared" si="2"/>
         <v>1.2933092683316993</v>
       </c>
-      <c r="I14" s="235">
+      <c r="I14" s="207">
         <f t="shared" si="3"/>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J14" s="235">
+      <c r="J14" s="207">
         <f t="shared" si="4"/>
         <v>0.92594532886829006</v>
       </c>
-      <c r="K14" s="235">
+      <c r="K14" s="207">
         <f t="shared" si="5"/>
         <v>29.791365011008363</v>
       </c>
-      <c r="L14" s="236">
+      <c r="L14" s="208">
         <f t="shared" si="6"/>
         <v>31.084674279340064</v>
       </c>
@@ -16163,44 +16455,44 @@
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="219">
+      <c r="A15" s="191">
         <v>41.9</v>
       </c>
-      <c r="B15" s="220">
+      <c r="B15" s="192">
         <v>520.06565735999993</v>
       </c>
-      <c r="C15" s="221">
+      <c r="C15" s="193">
         <v>1.7035330488</v>
       </c>
-      <c r="D15" s="222">
+      <c r="D15" s="194">
         <v>0.19463846641919999</v>
       </c>
       <c r="E15" s="50"/>
-      <c r="F15" s="234">
+      <c r="F15" s="206">
         <f t="shared" si="0"/>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G15" s="235">
+      <c r="G15" s="207">
         <f t="shared" si="1"/>
         <v>4.080295160132414E-2</v>
       </c>
-      <c r="H15" s="235">
+      <c r="H15" s="207">
         <f t="shared" si="2"/>
         <v>1.3127941648210029</v>
       </c>
-      <c r="I15" s="235">
+      <c r="I15" s="207">
         <f t="shared" si="3"/>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J15" s="235">
+      <c r="J15" s="207">
         <f t="shared" si="4"/>
         <v>0.92305829115322535</v>
       </c>
-      <c r="K15" s="235">
+      <c r="K15" s="207">
         <f t="shared" si="5"/>
         <v>29.698477459563872</v>
       </c>
-      <c r="L15" s="236">
+      <c r="L15" s="208">
         <f t="shared" si="6"/>
         <v>31.011271624384875</v>
       </c>
@@ -16217,44 +16509,44 @@
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="219">
+      <c r="A16" s="191">
         <v>42.8</v>
       </c>
-      <c r="B16" s="220">
+      <c r="B16" s="192">
         <v>526.52129874000002</v>
       </c>
-      <c r="C16" s="221">
+      <c r="C16" s="193">
         <v>1.6981603027200001</v>
       </c>
-      <c r="D16" s="222">
+      <c r="D16" s="194">
         <v>0.19757531536799999</v>
       </c>
       <c r="E16" s="50"/>
-      <c r="F16" s="234">
+      <c r="F16" s="206">
         <f t="shared" si="0"/>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G16" s="235">
+      <c r="G16" s="207">
         <f t="shared" si="1"/>
         <v>4.1418616673716352E-2</v>
       </c>
-      <c r="H16" s="235">
+      <c r="H16" s="207">
         <f t="shared" si="2"/>
         <v>1.3326025728601498</v>
       </c>
-      <c r="I16" s="235">
+      <c r="I16" s="207">
         <f t="shared" si="3"/>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J16" s="235">
+      <c r="J16" s="207">
         <f t="shared" si="4"/>
         <v>0.92014707213173452</v>
       </c>
-      <c r="K16" s="235">
+      <c r="K16" s="207">
         <f t="shared" si="5"/>
         <v>29.604811898766425</v>
       </c>
-      <c r="L16" s="236">
+      <c r="L16" s="208">
         <f t="shared" si="6"/>
         <v>30.937414471626575</v>
       </c>
@@ -16265,44 +16557,44 @@
       <c r="Q16" s="58"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="219">
+      <c r="A17" s="191">
         <v>43.7</v>
       </c>
-      <c r="B17" s="220">
+      <c r="B17" s="192">
         <v>533.03640570000005</v>
       </c>
-      <c r="C17" s="221">
+      <c r="C17" s="193">
         <v>1.69274292928</v>
       </c>
-      <c r="D17" s="222">
+      <c r="D17" s="194">
         <v>0.20056135142879999</v>
       </c>
       <c r="E17" s="50"/>
-      <c r="F17" s="234">
+      <c r="F17" s="206">
         <f t="shared" si="0"/>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G17" s="235">
+      <c r="G17" s="207">
         <f t="shared" si="1"/>
         <v>4.2044593065280293E-2</v>
       </c>
-      <c r="H17" s="235">
+      <c r="H17" s="207">
         <f t="shared" si="2"/>
         <v>1.3527427372823282</v>
       </c>
-      <c r="I17" s="235">
+      <c r="I17" s="207">
         <f t="shared" si="3"/>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J17" s="235">
+      <c r="J17" s="207">
         <f t="shared" si="4"/>
         <v>0.91721167180381735</v>
       </c>
-      <c r="K17" s="235">
+      <c r="K17" s="207">
         <f t="shared" si="5"/>
         <v>29.510368328616018</v>
       </c>
-      <c r="L17" s="236">
+      <c r="L17" s="208">
         <f t="shared" si="6"/>
         <v>30.863111065898345</v>
       </c>
@@ -16313,92 +16605,92 @@
       <c r="Q17" s="58"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="219">
+      <c r="A18" s="191">
         <v>44.6</v>
       </c>
-      <c r="B18" s="220">
+      <c r="B18" s="192">
         <v>539.61097824000001</v>
       </c>
-      <c r="C18" s="221">
+      <c r="C18" s="193">
         <v>1.6872809284800001</v>
       </c>
-      <c r="D18" s="222">
+      <c r="D18" s="194">
         <v>0.20359789401919998</v>
       </c>
       <c r="E18" s="50"/>
-      <c r="F18" s="234">
+      <c r="F18" s="206">
         <f t="shared" si="0"/>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G18" s="235">
+      <c r="G18" s="207">
         <f t="shared" si="1"/>
         <v>4.2681157371559829E-2</v>
       </c>
-      <c r="H18" s="235">
+      <c r="H18" s="207">
         <f t="shared" si="2"/>
         <v>1.373223557272566</v>
       </c>
-      <c r="I18" s="235">
+      <c r="I18" s="207">
         <f t="shared" si="3"/>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J18" s="235">
+      <c r="J18" s="207">
         <f t="shared" si="4"/>
         <v>0.91425209016947395</v>
       </c>
-      <c r="K18" s="235">
+      <c r="K18" s="207">
         <f t="shared" si="5"/>
         <v>29.415146749112655</v>
       </c>
-      <c r="L18" s="236">
+      <c r="L18" s="208">
         <f t="shared" si="6"/>
         <v>30.788370306385222</v>
       </c>
       <c r="M18" s="17"/>
-      <c r="N18" s="206"/>
+      <c r="N18" s="178"/>
       <c r="O18" s="58"/>
       <c r="P18" s="58"/>
       <c r="Q18" s="58"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="219">
+      <c r="A19" s="191">
         <v>45.5</v>
       </c>
-      <c r="B19" s="220">
+      <c r="B19" s="192">
         <v>546.24646674000007</v>
       </c>
-      <c r="C19" s="221">
+      <c r="C19" s="193">
         <v>1.6817723599999999</v>
       </c>
-      <c r="D19" s="222">
+      <c r="D19" s="194">
         <v>0.20668630136319999</v>
       </c>
       <c r="E19" s="50"/>
-      <c r="F19" s="234">
+      <c r="F19" s="206">
         <f t="shared" si="0"/>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G19" s="235">
+      <c r="G19" s="207">
         <f t="shared" si="1"/>
         <v>4.3328594323261867E-2</v>
       </c>
-      <c r="H19" s="235">
+      <c r="H19" s="207">
         <f t="shared" si="2"/>
         <v>1.3940541937566273</v>
       </c>
-      <c r="I19" s="235">
+      <c r="I19" s="207">
         <f t="shared" si="3"/>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J19" s="235">
+      <c r="J19" s="207">
         <f t="shared" si="4"/>
         <v>0.91126727586755518</v>
       </c>
-      <c r="K19" s="235">
+      <c r="K19" s="207">
         <f t="shared" si="5"/>
         <v>29.319113333762719</v>
       </c>
-      <c r="L19" s="236">
+      <c r="L19" s="208">
         <f t="shared" si="6"/>
         <v>30.713167527519346</v>
       </c>
@@ -16409,44 +16701,44 @@
       <c r="Q19" s="58"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="219">
+      <c r="A20" s="191">
         <v>46.4</v>
       </c>
-      <c r="B20" s="220">
+      <c r="B20" s="192">
         <v>552.93997044000002</v>
       </c>
-      <c r="C20" s="221">
+      <c r="C20" s="193">
         <v>1.6762152835199999</v>
       </c>
-      <c r="D20" s="222">
+      <c r="D20" s="194">
         <v>0.2098279704912</v>
       </c>
       <c r="E20" s="50"/>
-      <c r="F20" s="234">
+      <c r="F20" s="206">
         <f t="shared" si="0"/>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G20" s="235">
+      <c r="G20" s="207">
         <f t="shared" si="1"/>
         <v>4.3987196786256372E-2</v>
       </c>
-      <c r="H20" s="235">
+      <c r="H20" s="207">
         <f t="shared" si="2"/>
         <v>1.4152440694010124</v>
       </c>
-      <c r="I20" s="235">
+      <c r="I20" s="207">
         <f t="shared" si="3"/>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J20" s="235">
+      <c r="J20" s="207">
         <f t="shared" si="4"/>
         <v>0.90825617753691235</v>
       </c>
-      <c r="K20" s="235">
+      <c r="K20" s="207">
         <f t="shared" si="5"/>
         <v>29.222234256072618</v>
       </c>
-      <c r="L20" s="236">
+      <c r="L20" s="208">
         <f t="shared" si="6"/>
         <v>30.63747832547363</v>
       </c>
@@ -16457,44 +16749,44 @@
       <c r="Q20" s="58"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="219">
+      <c r="A21" s="191">
         <v>47.3</v>
       </c>
-      <c r="B21" s="220">
+      <c r="B21" s="192">
         <v>559.69439009999996</v>
       </c>
-      <c r="C21" s="221">
+      <c r="C21" s="193">
         <v>1.6706096990399999</v>
       </c>
-      <c r="D21" s="222">
+      <c r="D21" s="194">
         <v>0.21302437604639998</v>
       </c>
       <c r="E21" s="50"/>
-      <c r="F21" s="234">
+      <c r="F21" s="206">
         <f t="shared" si="0"/>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G21" s="235">
+      <c r="G21" s="207">
         <f t="shared" si="1"/>
         <v>4.4657273896739416E-2</v>
       </c>
-      <c r="H21" s="235">
+      <c r="H21" s="207">
         <f t="shared" si="2"/>
         <v>1.4368031303536939</v>
       </c>
-      <c r="I21" s="235">
+      <c r="I21" s="207">
         <f t="shared" si="3"/>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J21" s="235">
+      <c r="J21" s="207">
         <f t="shared" si="4"/>
         <v>0.90521879517754533</v>
       </c>
-      <c r="K21" s="235">
+      <c r="K21" s="207">
         <f t="shared" si="5"/>
         <v>29.124509516042345</v>
       </c>
-      <c r="L21" s="236">
+      <c r="L21" s="208">
         <f t="shared" si="6"/>
         <v>30.56131264639604</v>
       </c>
@@ -16505,44 +16797,44 @@
       <c r="Q21" s="58"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="219">
+      <c r="A22" s="191">
         <v>48.2</v>
       </c>
-      <c r="B22" s="220">
+      <c r="B22" s="192">
         <v>566.51117609999994</v>
       </c>
-      <c r="C22" s="221">
+      <c r="C22" s="193">
         <v>1.66495172592</v>
       </c>
-      <c r="D22" s="222">
+      <c r="D22" s="194">
         <v>0.21627710909119999</v>
       </c>
       <c r="E22" s="50"/>
-      <c r="F22" s="234">
+      <c r="F22" s="206">
         <f t="shared" si="0"/>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G22" s="235">
+      <c r="G22" s="207">
         <f t="shared" si="1"/>
         <v>4.533915919639625E-2</v>
       </c>
-      <c r="H22" s="235">
+      <c r="H22" s="207">
         <f t="shared" si="2"/>
         <v>1.458742107984853</v>
       </c>
-      <c r="I22" s="235">
+      <c r="I22" s="207">
         <f t="shared" si="3"/>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J22" s="235">
+      <c r="J22" s="207">
         <f t="shared" si="4"/>
         <v>0.90215302606715619</v>
       </c>
-      <c r="K22" s="235">
+      <c r="K22" s="207">
         <f t="shared" si="5"/>
         <v>29.025871460684684</v>
       </c>
-      <c r="L22" s="236">
+      <c r="L22" s="208">
         <f t="shared" si="6"/>
         <v>30.484613568669538</v>
       </c>
@@ -16553,44 +16845,44 @@
       <c r="Q22" s="58"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="219">
+      <c r="A23" s="191">
         <v>49.1</v>
       </c>
-      <c r="B23" s="220">
+      <c r="B23" s="192">
         <v>573.38742767999997</v>
       </c>
-      <c r="C23" s="221">
+      <c r="C23" s="193">
         <v>1.6592413641600001</v>
       </c>
-      <c r="D23" s="222">
+      <c r="D23" s="194">
         <v>0.21958774128479999</v>
       </c>
       <c r="E23" s="50"/>
-      <c r="F23" s="234">
+      <c r="F23" s="206">
         <f t="shared" si="0"/>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G23" s="235">
+      <c r="G23" s="207">
         <f t="shared" si="1"/>
         <v>4.6033182159330575E-2</v>
       </c>
-      <c r="H23" s="235">
+      <c r="H23" s="207">
         <f t="shared" si="2"/>
         <v>1.4810716027943018</v>
       </c>
-      <c r="I23" s="235">
+      <c r="I23" s="207">
         <f t="shared" si="3"/>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J23" s="235">
+      <c r="J23" s="207">
         <f t="shared" si="4"/>
         <v>0.89905887020574504</v>
       </c>
-      <c r="K23" s="235">
+      <c r="K23" s="207">
         <f t="shared" si="5"/>
         <v>28.926320089999642</v>
       </c>
-      <c r="L23" s="236">
+      <c r="L23" s="208">
         <f t="shared" si="6"/>
         <v>30.407391692793944</v>
       </c>
@@ -16601,44 +16893,44 @@
       <c r="Q23" s="58"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="219">
+      <c r="A24" s="191">
         <v>50</v>
       </c>
-      <c r="B24" s="220">
+      <c r="B24" s="192">
         <v>580.32604560000004</v>
       </c>
-      <c r="C24" s="221">
+      <c r="C24" s="193">
         <v>1.6534766734399999</v>
       </c>
-      <c r="D24" s="222">
+      <c r="D24" s="194">
         <v>0.22295801891519998</v>
       </c>
       <c r="E24" s="50"/>
-      <c r="F24" s="234">
+      <c r="F24" s="206">
         <f t="shared" si="0"/>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G24" s="235">
+      <c r="G24" s="207">
         <f t="shared" si="1"/>
         <v>4.6739708867879849E-2</v>
       </c>
-      <c r="H24" s="235">
+      <c r="H24" s="207">
         <f t="shared" si="2"/>
         <v>1.5038033931151662</v>
       </c>
-      <c r="I24" s="235">
+      <c r="I24" s="207">
         <f t="shared" si="3"/>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J24" s="235">
+      <c r="J24" s="207">
         <f t="shared" si="4"/>
         <v>0.89593527623216251</v>
       </c>
-      <c r="K24" s="235">
+      <c r="K24" s="207">
         <f t="shared" si="5"/>
         <v>28.825821577493596</v>
       </c>
-      <c r="L24" s="236">
+      <c r="L24" s="208">
         <f t="shared" si="6"/>
         <v>30.329624970608762</v>
       </c>
@@ -16649,1015 +16941,1015 @@
       <c r="Q24" s="58"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="219">
+      <c r="A25" s="191">
         <v>50.9</v>
       </c>
-      <c r="B25" s="220">
+      <c r="B25" s="192">
         <v>587.32702986000004</v>
       </c>
-      <c r="C25" s="221">
+      <c r="C25" s="193">
         <v>1.6476576537600001</v>
       </c>
-      <c r="D25" s="222">
+      <c r="D25" s="194">
         <v>0.22638970767359998</v>
       </c>
       <c r="E25" s="50"/>
-      <c r="F25" s="234">
+      <c r="F25" s="206">
         <f t="shared" si="0"/>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G25" s="235">
+      <c r="G25" s="207">
         <f t="shared" si="1"/>
         <v>4.7459109471963065E-2</v>
       </c>
-      <c r="H25" s="235">
+      <c r="H25" s="207">
         <f t="shared" si="2"/>
         <v>1.5269493881509397</v>
       </c>
-      <c r="I25" s="235">
+      <c r="I25" s="207">
         <f t="shared" si="3"/>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J25" s="235">
+      <c r="J25" s="207">
         <f t="shared" si="4"/>
         <v>0.89278224414640917</v>
       </c>
-      <c r="K25" s="235">
+      <c r="K25" s="207">
         <f t="shared" si="5"/>
         <v>28.724375923166569</v>
       </c>
-      <c r="L25" s="236">
+      <c r="L25" s="208">
         <f t="shared" si="6"/>
         <v>30.251325311317508</v>
       </c>
       <c r="M25" s="17"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="219">
+      <c r="A26" s="191">
         <v>51.8</v>
       </c>
-      <c r="B26" s="220">
+      <c r="B26" s="192">
         <v>594.39038045999996</v>
       </c>
-      <c r="C26" s="221">
+      <c r="C26" s="193">
         <v>1.6417804244800001</v>
       </c>
-      <c r="D26" s="222">
+      <c r="D26" s="194">
         <v>0.22988470907359998</v>
       </c>
       <c r="E26" s="50"/>
-      <c r="F26" s="234">
+      <c r="F26" s="206">
         <f t="shared" si="0"/>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G26" s="235">
+      <c r="G26" s="207">
         <f t="shared" si="1"/>
         <v>4.8191782594569896E-2</v>
       </c>
-      <c r="H26" s="235">
+      <c r="H26" s="207">
         <f t="shared" si="2"/>
         <v>1.5505224131976918</v>
       </c>
-      <c r="I26" s="235">
+      <c r="I26" s="207">
         <f t="shared" si="3"/>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J26" s="235">
+      <c r="J26" s="207">
         <f t="shared" si="4"/>
         <v>0.88959767122618671</v>
       </c>
-      <c r="K26" s="235">
+      <c r="K26" s="207">
         <f t="shared" si="5"/>
         <v>28.621915474031329</v>
       </c>
-      <c r="L26" s="236">
+      <c r="L26" s="208">
         <f t="shared" si="6"/>
         <v>30.17243788722902</v>
       </c>
       <c r="M26" s="17"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="219">
+      <c r="A27" s="191">
         <v>52.7</v>
       </c>
-      <c r="B27" s="220">
+      <c r="B27" s="192">
         <v>601.51754778000009</v>
       </c>
-      <c r="C27" s="221">
+      <c r="C27" s="193">
         <v>1.6358430452799999</v>
       </c>
-      <c r="D27" s="222">
+      <c r="D27" s="194">
         <v>0.23344498283839998</v>
       </c>
       <c r="E27" s="50"/>
-      <c r="F27" s="234">
+      <c r="F27" s="206">
         <f t="shared" si="0"/>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G27" s="235">
+      <c r="G27" s="207">
         <f t="shared" si="1"/>
         <v>4.8938139061434606E-2</v>
       </c>
-      <c r="H27" s="235">
+      <c r="H27" s="207">
         <f t="shared" si="2"/>
         <v>1.574535686162597</v>
       </c>
-      <c r="I27" s="235">
+      <c r="I27" s="207">
         <f t="shared" si="3"/>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J27" s="235">
+      <c r="J27" s="207">
         <f t="shared" si="4"/>
         <v>0.88638050611034613</v>
       </c>
-      <c r="K27" s="235">
+      <c r="K27" s="207">
         <f t="shared" si="5"/>
         <v>28.518406403594277</v>
       </c>
-      <c r="L27" s="236">
+      <c r="L27" s="208">
         <f t="shared" si="6"/>
         <v>30.092942089756875</v>
       </c>
       <c r="M27" s="17"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="219">
+      <c r="A28" s="191">
         <v>53.6</v>
       </c>
-      <c r="B28" s="220">
+      <c r="B28" s="192">
         <v>608.70708144000002</v>
       </c>
-      <c r="C28" s="221">
+      <c r="C28" s="193">
         <v>1.6298455161600001</v>
       </c>
-      <c r="D28" s="222">
+      <c r="D28" s="194">
         <v>0.23707262451360001</v>
       </c>
       <c r="E28" s="50"/>
-      <c r="F28" s="234">
+      <c r="F28" s="206">
         <f t="shared" si="0"/>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G28" s="235">
+      <c r="G28" s="207">
         <f t="shared" si="1"/>
         <v>4.9698618171362133E-2</v>
       </c>
-      <c r="H28" s="235">
+      <c r="H28" s="207">
         <f t="shared" si="2"/>
         <v>1.5990033410454052</v>
       </c>
-      <c r="I28" s="235">
+      <c r="I28" s="207">
         <f t="shared" si="3"/>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J28" s="235">
+      <c r="J28" s="207">
         <f t="shared" si="4"/>
         <v>0.88313074879888775</v>
       </c>
-      <c r="K28" s="235">
+      <c r="K28" s="207">
         <f t="shared" si="5"/>
         <v>28.413848711855415</v>
       </c>
-      <c r="L28" s="236">
+      <c r="L28" s="208">
         <f t="shared" si="6"/>
         <v>30.012852052900822</v>
       </c>
       <c r="M28" s="17"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="219">
+      <c r="A29" s="191">
         <v>54.5</v>
       </c>
-      <c r="B29" s="220">
+      <c r="B29" s="192">
         <v>615.96188219999999</v>
       </c>
-      <c r="C29" s="221">
+      <c r="C29" s="193">
         <v>1.6237820161600001</v>
       </c>
-      <c r="D29" s="222">
+      <c r="D29" s="194">
         <v>0.2407698072576</v>
       </c>
       <c r="E29" s="50"/>
-      <c r="F29" s="234">
+      <c r="F29" s="206">
         <f t="shared" si="0"/>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G29" s="235">
+      <c r="G29" s="207">
         <f t="shared" si="1"/>
         <v>5.0473675493483541E-2</v>
       </c>
-      <c r="H29" s="235">
+      <c r="H29" s="207">
         <f t="shared" si="2"/>
         <v>1.6239400353273394</v>
       </c>
-      <c r="I29" s="235">
+      <c r="I29" s="207">
         <f t="shared" si="3"/>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J29" s="235">
+      <c r="J29" s="207">
         <f t="shared" si="4"/>
         <v>0.87984524520836449</v>
       </c>
-      <c r="K29" s="235">
+      <c r="K29" s="207">
         <f t="shared" si="5"/>
         <v>28.308140919333919</v>
       </c>
-      <c r="L29" s="236">
+      <c r="L29" s="208">
         <f t="shared" si="6"/>
         <v>29.932080954661259</v>
       </c>
       <c r="M29" s="17"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="219">
+      <c r="A30" s="191">
         <v>55.4</v>
       </c>
-      <c r="B30" s="220">
+      <c r="B30" s="192">
         <v>623.28049967999993</v>
       </c>
-      <c r="C30" s="221">
+      <c r="C30" s="193">
         <v>1.6176544856000001</v>
       </c>
-      <c r="D30" s="222">
+      <c r="D30" s="194">
         <v>0.24453885945439999</v>
       </c>
       <c r="E30" s="50"/>
-      <c r="F30" s="234">
+      <c r="F30" s="206">
         <f t="shared" si="0"/>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G30" s="235">
+      <c r="G30" s="207">
         <f t="shared" si="1"/>
         <v>5.1263799137582104E-2</v>
       </c>
-      <c r="H30" s="235">
+      <c r="H30" s="207">
         <f t="shared" si="2"/>
         <v>1.6493614734525666</v>
       </c>
-      <c r="I30" s="235">
+      <c r="I30" s="207">
         <f t="shared" si="3"/>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J30" s="235">
+      <c r="J30" s="207">
         <f t="shared" si="4"/>
         <v>0.87652504669992526</v>
       </c>
-      <c r="K30" s="235">
+      <c r="K30" s="207">
         <f t="shared" si="5"/>
         <v>28.201316852523394</v>
       </c>
-      <c r="L30" s="236">
+      <c r="L30" s="208">
         <f t="shared" si="6"/>
         <v>29.850678325975959</v>
       </c>
       <c r="M30" s="17"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="219">
+      <c r="A31" s="191">
         <v>56.3</v>
       </c>
-      <c r="B31" s="220">
+      <c r="B31" s="192">
         <v>630.66438426000002</v>
       </c>
-      <c r="C31" s="221">
+      <c r="C31" s="193">
         <v>1.6114590438399998</v>
       </c>
-      <c r="D31" s="222">
+      <c r="D31" s="194">
         <v>0.24838222590720002</v>
       </c>
       <c r="E31" s="50"/>
-      <c r="F31" s="234">
+      <c r="F31" s="206">
         <f t="shared" si="0"/>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G31" s="235">
+      <c r="G31" s="207">
         <f t="shared" si="1"/>
         <v>5.2069501618930279E-2</v>
       </c>
-      <c r="H31" s="235">
+      <c r="H31" s="207">
         <f t="shared" si="2"/>
         <v>1.6752841450874627</v>
       </c>
-      <c r="I31" s="235">
+      <c r="I31" s="207">
         <f t="shared" si="3"/>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J31" s="235">
+      <c r="J31" s="207">
         <f t="shared" si="4"/>
         <v>0.87316805055127189</v>
       </c>
-      <c r="K31" s="235">
+      <c r="K31" s="207">
         <f t="shared" si="5"/>
         <v>28.093308858436622</v>
       </c>
-      <c r="L31" s="236">
+      <c r="L31" s="208">
         <f t="shared" si="6"/>
         <v>29.768593003524085</v>
       </c>
       <c r="M31" s="17"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="219">
+      <c r="A32" s="191">
         <v>57.2</v>
       </c>
-      <c r="B32" s="220">
+      <c r="B32" s="192">
         <v>638.11353594000002</v>
       </c>
-      <c r="C32" s="221">
+      <c r="C32" s="193">
         <v>1.60519375056</v>
       </c>
-      <c r="D32" s="222">
+      <c r="D32" s="194">
         <v>0.25230250664479997</v>
       </c>
       <c r="E32" s="50"/>
-      <c r="F32" s="234">
+      <c r="F32" s="206">
         <f t="shared" si="0"/>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G32" s="235">
+      <c r="G32" s="207">
         <f t="shared" si="1"/>
         <v>5.2891327993452697E-2</v>
       </c>
-      <c r="H32" s="235">
+      <c r="H32" s="207">
         <f t="shared" si="2"/>
         <v>1.701725586861347</v>
       </c>
-      <c r="I32" s="235">
+      <c r="I32" s="207">
         <f t="shared" si="3"/>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J32" s="235">
+      <c r="J32" s="207">
         <f t="shared" si="4"/>
         <v>0.86977320540125602</v>
       </c>
-      <c r="K32" s="235">
+      <c r="K32" s="207">
         <f t="shared" si="5"/>
         <v>27.984083110580009</v>
       </c>
-      <c r="L32" s="236">
+      <c r="L32" s="208">
         <f t="shared" si="6"/>
         <v>29.685808697441356</v>
       </c>
       <c r="M32" s="17"/>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="219">
+      <c r="A33" s="191">
         <v>58.1</v>
       </c>
-      <c r="B33" s="220">
+      <c r="B33" s="192">
         <v>645.62795472000005</v>
       </c>
-      <c r="C33" s="221">
+      <c r="C33" s="193">
         <v>1.5988547251199998</v>
       </c>
-      <c r="D33" s="222">
+      <c r="D33" s="194">
         <v>0.25630243751839998</v>
       </c>
       <c r="E33" s="50"/>
-      <c r="F33" s="234">
+      <c r="F33" s="206">
         <f t="shared" si="0"/>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G33" s="235">
+      <c r="G33" s="207">
         <f t="shared" si="1"/>
         <v>5.3729851790144736E-2</v>
       </c>
-      <c r="H33" s="235">
+      <c r="H33" s="207">
         <f t="shared" si="2"/>
         <v>1.7287042514961166</v>
       </c>
-      <c r="I33" s="235">
+      <c r="I33" s="207">
         <f t="shared" si="3"/>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J33" s="235">
+      <c r="J33" s="207">
         <f t="shared" si="4"/>
         <v>0.86633840852757926</v>
       </c>
-      <c r="K33" s="235">
+      <c r="K33" s="207">
         <f t="shared" si="5"/>
         <v>27.873571955966334</v>
       </c>
-      <c r="L33" s="236">
+      <c r="L33" s="208">
         <f t="shared" si="6"/>
         <v>29.602276207462449</v>
       </c>
       <c r="M33" s="17"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="219">
+      <c r="A34" s="191">
         <v>59</v>
       </c>
-      <c r="B34" s="220">
+      <c r="B34" s="192">
         <v>653.21054135999998</v>
       </c>
-      <c r="C34" s="221">
+      <c r="C34" s="193">
         <v>1.5924400272000001</v>
       </c>
-      <c r="D34" s="222">
+      <c r="D34" s="194">
         <v>0.26038490960479999</v>
       </c>
       <c r="E34" s="50"/>
-      <c r="F34" s="234">
+      <c r="F34" s="206">
         <f t="shared" si="0"/>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G34" s="235">
+      <c r="G34" s="207">
         <f t="shared" si="1"/>
         <v>5.4585679078653949E-2</v>
       </c>
-      <c r="H34" s="235">
+      <c r="H34" s="207">
         <f t="shared" si="2"/>
         <v>1.7562396386766121</v>
       </c>
-      <c r="I34" s="235">
+      <c r="I34" s="207">
         <f t="shared" si="3"/>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J34" s="235">
+      <c r="J34" s="207">
         <f t="shared" si="4"/>
         <v>0.86286260856909291</v>
       </c>
-      <c r="K34" s="235">
+      <c r="K34" s="207">
         <f t="shared" si="5"/>
         <v>27.761741568101996</v>
       </c>
-      <c r="L34" s="236">
+      <c r="L34" s="208">
         <f t="shared" si="6"/>
         <v>29.517981206778607</v>
       </c>
       <c r="M34" s="17"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="219">
+      <c r="A35" s="191">
         <v>59.9</v>
       </c>
-      <c r="B35" s="220">
+      <c r="B35" s="192">
         <v>660.85839510000005</v>
       </c>
-      <c r="C35" s="221">
+      <c r="C35" s="193">
         <v>1.58594577616</v>
       </c>
-      <c r="D35" s="222">
+      <c r="D35" s="194">
         <v>0.26455302741599995</v>
       </c>
       <c r="E35" s="50"/>
-      <c r="F35" s="234">
+      <c r="F35" s="206">
         <f t="shared" si="0"/>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G35" s="235">
+      <c r="G35" s="207">
         <f t="shared" si="1"/>
         <v>5.5459460672024709E-2</v>
       </c>
-      <c r="H35" s="235">
+      <c r="H35" s="207">
         <f t="shared" si="2"/>
         <v>1.7843526876617231</v>
       </c>
-      <c r="I35" s="235">
+      <c r="I35" s="207">
         <f t="shared" si="3"/>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J35" s="235">
+      <c r="J35" s="207">
         <f t="shared" si="4"/>
         <v>0.8593437028034987</v>
       </c>
-      <c r="K35" s="235">
+      <c r="K35" s="207">
         <f t="shared" si="5"/>
         <v>27.648524293999767</v>
       </c>
-      <c r="L35" s="236">
+      <c r="L35" s="208">
         <f t="shared" si="6"/>
         <v>29.43287698166149</v>
       </c>
       <c r="M35" s="17"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="219">
+      <c r="A36" s="191">
         <v>60.8</v>
       </c>
-      <c r="B36" s="220">
+      <c r="B36" s="192">
         <v>668.57586708000008</v>
       </c>
-      <c r="C36" s="221">
+      <c r="C36" s="193">
         <v>1.5793700316800001</v>
       </c>
-      <c r="D36" s="222">
+      <c r="D36" s="194">
         <v>0.2688100700928</v>
       </c>
       <c r="E36" s="50"/>
-      <c r="F36" s="234">
+      <c r="F36" s="206">
         <f t="shared" si="0"/>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G36" s="235">
+      <c r="G36" s="207">
         <f t="shared" si="1"/>
         <v>5.6351883991535151E-2</v>
       </c>
-      <c r="H36" s="235">
+      <c r="H36" s="207">
         <f t="shared" si="2"/>
         <v>1.8130655155436519</v>
       </c>
-      <c r="I36" s="235">
+      <c r="I36" s="207">
         <f t="shared" si="3"/>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J36" s="235">
+      <c r="J36" s="207">
         <f t="shared" si="4"/>
         <v>0.85578063986964803</v>
       </c>
-      <c r="K36" s="235">
+      <c r="K36" s="207">
         <f t="shared" si="5"/>
         <v>27.533886307166057</v>
       </c>
-      <c r="L36" s="236">
+      <c r="L36" s="208">
         <f t="shared" si="6"/>
         <v>29.346951822709709</v>
       </c>
       <c r="M36" s="17"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="219">
+      <c r="A37" s="191">
         <v>61.7</v>
       </c>
-      <c r="B37" s="220">
+      <c r="B37" s="192">
         <v>676.36005653999996</v>
       </c>
-      <c r="C37" s="221">
+      <c r="C37" s="193">
         <v>1.5727089131200001</v>
       </c>
-      <c r="D37" s="222">
+      <c r="D37" s="194">
         <v>0.27315953021120004</v>
       </c>
       <c r="E37" s="50"/>
-      <c r="F37" s="234">
+      <c r="F37" s="206">
         <f t="shared" si="0"/>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G37" s="235">
+      <c r="G37" s="207">
         <f t="shared" si="1"/>
         <v>5.7263681201860164E-2</v>
       </c>
-      <c r="H37" s="235">
+      <c r="H37" s="207">
         <f t="shared" si="2"/>
         <v>1.8424016789886488</v>
       </c>
-      <c r="I37" s="235">
+      <c r="I37" s="207">
         <f t="shared" si="3"/>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J37" s="235">
+      <c r="J37" s="207">
         <f t="shared" si="4"/>
         <v>0.85217131704524263</v>
       </c>
-      <c r="K37" s="235">
+      <c r="K37" s="207">
         <f t="shared" si="5"/>
         <v>27.417759954613636</v>
       </c>
-      <c r="L37" s="236">
+      <c r="L37" s="208">
         <f t="shared" si="6"/>
         <v>29.260161633602284</v>
       </c>
       <c r="M37" s="17"/>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="219">
+      <c r="A38" s="191">
         <v>62.6</v>
       </c>
-      <c r="B38" s="220">
+      <c r="B38" s="192">
         <v>684.21241385999997</v>
       </c>
-      <c r="C38" s="221">
+      <c r="C38" s="193">
         <v>1.56595853984</v>
       </c>
-      <c r="D38" s="222">
+      <c r="D38" s="194">
         <v>0.27760515258880003</v>
       </c>
       <c r="E38" s="50"/>
-      <c r="F38" s="234">
+      <c r="F38" s="206">
         <f t="shared" si="0"/>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G38" s="235">
+      <c r="G38" s="207">
         <f t="shared" si="1"/>
         <v>5.8195637346234529E-2</v>
       </c>
-      <c r="H38" s="235">
+      <c r="H38" s="207">
         <f t="shared" si="2"/>
         <v>1.8723864359777498</v>
       </c>
-      <c r="I38" s="235">
+      <c r="I38" s="207">
         <f t="shared" si="3"/>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J38" s="235">
+      <c r="J38" s="207">
         <f t="shared" si="4"/>
         <v>0.84851363160798476</v>
       </c>
-      <c r="K38" s="235">
+      <c r="K38" s="207">
         <f t="shared" si="5"/>
         <v>27.3000775833553</v>
       </c>
-      <c r="L38" s="236">
+      <c r="L38" s="208">
         <f t="shared" si="6"/>
         <v>29.172464019333049</v>
       </c>
       <c r="M38" s="50"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="219">
+      <c r="A39" s="191">
         <v>63.5</v>
       </c>
-      <c r="B39" s="220">
+      <c r="B39" s="192">
         <v>692.13438942000005</v>
       </c>
-      <c r="C39" s="221">
+      <c r="C39" s="193">
         <v>1.5591150311999999</v>
       </c>
-      <c r="D39" s="222">
+      <c r="D39" s="194">
         <v>0.28215091488159999</v>
       </c>
       <c r="E39" s="50"/>
-      <c r="F39" s="234">
+      <c r="F39" s="206">
         <f t="shared" si="0"/>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G39" s="235">
+      <c r="G39" s="207">
         <f t="shared" si="1"/>
         <v>5.9148586278871332E-2</v>
       </c>
-      <c r="H39" s="235">
+      <c r="H39" s="207">
         <f t="shared" si="2"/>
         <v>1.9030466149364063</v>
       </c>
-      <c r="I39" s="235">
+      <c r="I39" s="207">
         <f t="shared" si="3"/>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J39" s="235">
+      <c r="J39" s="207">
         <f t="shared" si="4"/>
         <v>0.84480548083557649</v>
       </c>
-      <c r="K39" s="235">
+      <c r="K39" s="207">
         <f t="shared" si="5"/>
         <v>27.180771540403839</v>
       </c>
-      <c r="L39" s="236">
+      <c r="L39" s="208">
         <f t="shared" si="6"/>
         <v>29.083818155340246</v>
       </c>
       <c r="M39" s="50"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="219">
+      <c r="A40" s="191">
         <v>64.400000000000006</v>
       </c>
-      <c r="B40" s="220">
+      <c r="B40" s="192">
         <v>700.12743360000002</v>
       </c>
-      <c r="C40" s="221">
+      <c r="C40" s="193">
         <v>1.5521764468799999</v>
       </c>
-      <c r="D40" s="222">
+      <c r="D40" s="194">
         <v>0.28680106639039998</v>
       </c>
       <c r="E40" s="50"/>
-      <c r="F40" s="234">
+      <c r="F40" s="206">
         <f t="shared" si="0"/>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G40" s="235">
+      <c r="G40" s="207">
         <f t="shared" si="1"/>
         <v>6.0123418800125075E-2</v>
       </c>
-      <c r="H40" s="235">
+      <c r="H40" s="207">
         <f t="shared" si="2"/>
         <v>1.9344108764752241</v>
       </c>
-      <c r="I40" s="235">
+      <c r="I40" s="207">
         <f t="shared" si="3"/>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J40" s="235">
+      <c r="J40" s="207">
         <f t="shared" si="4"/>
         <v>0.84104581336686879</v>
       </c>
-      <c r="K40" s="235">
+      <c r="K40" s="207">
         <f t="shared" si="5"/>
         <v>27.059807999265637</v>
       </c>
-      <c r="L40" s="236">
+      <c r="L40" s="208">
         <f t="shared" si="6"/>
         <v>28.994218875740859</v>
       </c>
       <c r="M40" s="50"/>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="219">
+      <c r="A41" s="191">
         <v>65.3</v>
       </c>
-      <c r="B41" s="220">
+      <c r="B41" s="192">
         <v>708.18864564</v>
       </c>
-      <c r="C41" s="221">
+      <c r="C41" s="193">
         <v>1.5451350256</v>
       </c>
-      <c r="D41" s="222">
+      <c r="D41" s="194">
         <v>0.29156020567359997</v>
       </c>
       <c r="E41" s="50"/>
-      <c r="F41" s="234">
+      <c r="F41" s="206">
         <f t="shared" si="0"/>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G41" s="235">
+      <c r="G41" s="207">
         <f t="shared" si="1"/>
         <v>6.1121098926817718E-2</v>
       </c>
-      <c r="H41" s="235">
+      <c r="H41" s="207">
         <f t="shared" si="2"/>
         <v>1.9665102368714333</v>
       </c>
-      <c r="I41" s="235">
+      <c r="I41" s="207">
         <f t="shared" si="3"/>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J41" s="235">
+      <c r="J41" s="207">
         <f t="shared" si="4"/>
         <v>0.83723042375726597</v>
       </c>
-      <c r="K41" s="235">
+      <c r="K41" s="207">
         <f t="shared" si="5"/>
         <v>26.937051653966275</v>
       </c>
-      <c r="L41" s="236">
+      <c r="L41" s="208">
         <f t="shared" si="6"/>
         <v>28.903561890837707</v>
       </c>
       <c r="M41" s="50"/>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="219">
+      <c r="A42" s="191">
         <v>66.2</v>
       </c>
-      <c r="B42" s="220">
+      <c r="B42" s="192">
         <v>716.32237667999993</v>
       </c>
-      <c r="C42" s="221">
+      <c r="C42" s="193">
         <v>1.5379868867199999</v>
       </c>
-      <c r="D42" s="222">
+      <c r="D42" s="194">
         <v>0.29643326114399998</v>
       </c>
       <c r="E42" s="50"/>
-      <c r="F42" s="234">
+      <c r="F42" s="206">
         <f t="shared" si="0"/>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G42" s="235">
+      <c r="G42" s="207">
         <f t="shared" si="1"/>
         <v>6.2142659824657207E-2</v>
       </c>
-      <c r="H42" s="235">
+      <c r="H42" s="207">
         <f t="shared" si="2"/>
         <v>1.999377937198521</v>
       </c>
-      <c r="I42" s="235">
+      <c r="I42" s="207">
         <f t="shared" si="3"/>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J42" s="235">
+      <c r="J42" s="207">
         <f t="shared" si="4"/>
         <v>0.83335720928446977</v>
       </c>
-      <c r="K42" s="235">
+      <c r="K42" s="207">
         <f t="shared" si="5"/>
         <v>26.812434851518528</v>
       </c>
-      <c r="L42" s="236">
+      <c r="L42" s="208">
         <f t="shared" si="6"/>
         <v>28.811812788717049</v>
       </c>
-      <c r="M42" s="212"/>
+      <c r="M42" s="184"/>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="219">
+      <c r="A43" s="191">
         <v>67.099999999999994</v>
       </c>
-      <c r="B43" s="220">
+      <c r="B43" s="192">
         <v>724.52862672000003</v>
       </c>
-      <c r="C43" s="221">
+      <c r="C43" s="193">
         <v>1.5307281495999998</v>
       </c>
-      <c r="D43" s="222">
+      <c r="D43" s="194">
         <v>0.301425510472</v>
       </c>
       <c r="E43" s="50"/>
-      <c r="F43" s="234">
+      <c r="F43" s="206">
         <f t="shared" si="0"/>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G43" s="235">
+      <c r="G43" s="207">
         <f t="shared" si="1"/>
         <v>6.318920787581897E-2</v>
       </c>
-      <c r="H43" s="235">
+      <c r="H43" s="207">
         <f t="shared" si="2"/>
         <v>2.0330495741965997</v>
       </c>
-      <c r="I43" s="235">
+      <c r="I43" s="207">
         <f t="shared" si="3"/>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J43" s="235">
+      <c r="J43" s="207">
         <f t="shared" si="4"/>
         <v>0.82942406722618234</v>
       </c>
-      <c r="K43" s="235">
+      <c r="K43" s="207">
         <f t="shared" si="5"/>
         <v>26.68588993893519</v>
       </c>
-      <c r="L43" s="236">
+      <c r="L43" s="208">
         <f t="shared" si="6"/>
         <v>28.71893951313179</v>
       </c>
-      <c r="M43" s="212"/>
+      <c r="M43" s="184"/>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="219">
+      <c r="A44" s="191">
         <v>68</v>
       </c>
-      <c r="B44" s="220">
+      <c r="B44" s="192">
         <v>732.80594538000003</v>
       </c>
-      <c r="C44" s="221">
+      <c r="C44" s="193">
         <v>1.5233529932800001</v>
       </c>
-      <c r="D44" s="222">
+      <c r="D44" s="194">
         <v>0.30654265819839999</v>
       </c>
       <c r="E44" s="50"/>
-      <c r="F44" s="234">
+      <c r="F44" s="206">
         <f t="shared" si="0"/>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G44" s="235">
+      <c r="G44" s="207">
         <f t="shared" si="1"/>
         <v>6.4261938949272027E-2</v>
       </c>
-      <c r="H44" s="235">
+      <c r="H44" s="207">
         <f t="shared" si="2"/>
         <v>2.0675636237538781</v>
       </c>
-      <c r="I44" s="235">
+      <c r="I44" s="207">
         <f t="shared" si="3"/>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J44" s="235">
+      <c r="J44" s="207">
         <f t="shared" si="4"/>
         <v>0.82542784349895715</v>
       </c>
-      <c r="K44" s="235">
+      <c r="K44" s="207">
         <f t="shared" si="5"/>
         <v>26.557315436735447</v>
       </c>
-      <c r="L44" s="236">
+      <c r="L44" s="208">
         <f t="shared" si="6"/>
         <v>28.624879060489324</v>
       </c>
       <c r="M44" s="50"/>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="219">
+      <c r="A45" s="191">
         <v>68.900000000000006</v>
       </c>
-      <c r="B45" s="220">
+      <c r="B45" s="192">
         <v>741.15723342000001</v>
       </c>
-      <c r="C45" s="221">
+      <c r="C45" s="193">
         <v>1.51585365648</v>
       </c>
-      <c r="D45" s="222">
+      <c r="D45" s="194">
         <v>0.31179093275039999</v>
       </c>
       <c r="E45" s="50"/>
-      <c r="F45" s="234">
+      <c r="F45" s="206">
         <f t="shared" si="0"/>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G45" s="235">
+      <c r="G45" s="207">
         <f t="shared" si="1"/>
         <v>6.5362158738686643E-2</v>
       </c>
-      <c r="H45" s="235">
+      <c r="H45" s="207">
         <f t="shared" si="2"/>
         <v>2.102962095258504</v>
       </c>
-      <c r="I45" s="235">
+      <c r="I45" s="207">
         <f t="shared" si="3"/>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J45" s="235">
+      <c r="J45" s="207">
         <f t="shared" si="4"/>
         <v>0.82136433265819786</v>
       </c>
-      <c r="K45" s="235">
+      <c r="K45" s="207">
         <f t="shared" si="5"/>
         <v>26.426576038944859</v>
       </c>
-      <c r="L45" s="236">
+      <c r="L45" s="208">
         <f t="shared" si="6"/>
         <v>28.529538134203364</v>
       </c>
       <c r="M45" s="50"/>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="219">
+      <c r="A46" s="191">
         <v>69.8</v>
       </c>
-      <c r="B46" s="220">
+      <c r="B46" s="192">
         <v>749.58104045999994</v>
       </c>
-      <c r="C46" s="221">
+      <c r="C46" s="193">
         <v>1.5082262585599999</v>
       </c>
-      <c r="D46" s="222">
+      <c r="D46" s="194">
         <v>0.31717698942559996</v>
       </c>
       <c r="E46" s="50"/>
-      <c r="F46" s="234">
+      <c r="F46" s="206">
         <f t="shared" si="0"/>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G46" s="235">
+      <c r="G46" s="207">
         <f t="shared" si="1"/>
         <v>6.6491262424526687E-2</v>
       </c>
-      <c r="H46" s="235">
+      <c r="H46" s="207">
         <f t="shared" si="2"/>
         <v>2.1392898772467217</v>
       </c>
-      <c r="I46" s="235">
+      <c r="I46" s="207">
         <f t="shared" si="3"/>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J46" s="235">
+      <c r="J46" s="207">
         <f t="shared" si="4"/>
         <v>0.81723143198160664</v>
       </c>
-      <c r="K46" s="235">
+      <c r="K46" s="207">
         <f t="shared" si="5"/>
         <v>26.29360409257621</v>
       </c>
-      <c r="L46" s="236">
+      <c r="L46" s="208">
         <f t="shared" si="6"/>
         <v>28.432893969822931</v>
       </c>
       <c r="M46" s="50"/>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="223">
+      <c r="A47" s="195">
         <v>70</v>
       </c>
-      <c r="B47" s="224">
+      <c r="B47" s="196">
         <f>B46+(((B48-B46)/($A$48-$A$46))*($A$47-$A$46))</f>
         <v>751.46975752666663</v>
       </c>
-      <c r="C47" s="225">
+      <c r="C47" s="197">
         <f>C46+(((C48-C46)/($A$48-$A$46))*($A$47-$A$46))</f>
         <v>1.5065010984888887</v>
       </c>
-      <c r="D47" s="226">
+      <c r="D47" s="198">
         <f>D46+(((D48-D46)/($A$48-$A$46))*($A$47-$A$46))</f>
         <v>0.31840613902737774</v>
       </c>
       <c r="E47" s="47"/>
-      <c r="F47" s="234">
+      <c r="F47" s="206">
         <f t="shared" si="0"/>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G47" s="235">
+      <c r="G47" s="207">
         <f t="shared" si="1"/>
         <v>6.6748934675211757E-2</v>
       </c>
-      <c r="H47" s="235">
+      <c r="H47" s="207">
         <f t="shared" si="2"/>
         <v>2.1475802242402628</v>
       </c>
-      <c r="I47" s="235">
+      <c r="I47" s="207">
         <f t="shared" si="3"/>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J47" s="235">
+      <c r="J47" s="207">
         <f t="shared" si="4"/>
         <v>0.81629665510226901</v>
       </c>
-      <c r="K47" s="235">
+      <c r="K47" s="207">
         <f t="shared" si="5"/>
         <v>26.263528581260402</v>
       </c>
-      <c r="L47" s="236">
+      <c r="L47" s="208">
         <f t="shared" si="6"/>
         <v>28.411108805500664</v>
       </c>
@@ -17665,267 +17957,267 @@
       <c r="N47" s="49"/>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="219">
+      <c r="A48" s="191">
         <v>70.7</v>
       </c>
-      <c r="B48" s="220">
+      <c r="B48" s="192">
         <v>758.08026725999991</v>
       </c>
-      <c r="C48" s="221">
+      <c r="C48" s="193">
         <v>1.5004630382399999</v>
       </c>
-      <c r="D48" s="222">
+      <c r="D48" s="194">
         <v>0.32270816263359997</v>
       </c>
       <c r="E48" s="50"/>
-      <c r="F48" s="234">
+      <c r="F48" s="206">
         <f t="shared" si="0"/>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G48" s="235">
+      <c r="G48" s="207">
         <f t="shared" si="1"/>
         <v>6.7650787552609504E-2</v>
       </c>
-      <c r="H48" s="235">
+      <c r="H48" s="207">
         <f t="shared" si="2"/>
         <v>2.1765964387176582</v>
       </c>
-      <c r="I48" s="235">
+      <c r="I48" s="207">
         <f t="shared" si="3"/>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J48" s="235">
+      <c r="J48" s="207">
         <f t="shared" si="4"/>
         <v>0.81302493602458781</v>
       </c>
-      <c r="K48" s="235">
+      <c r="K48" s="207">
         <f t="shared" si="5"/>
         <v>26.158264291655087</v>
       </c>
-      <c r="L48" s="236">
+      <c r="L48" s="208">
         <f t="shared" si="6"/>
         <v>28.334860730372746</v>
       </c>
       <c r="M48" s="50"/>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="219">
+      <c r="A49" s="191">
         <v>71.599999999999994</v>
       </c>
-      <c r="B49" s="220">
+      <c r="B49" s="192">
         <v>766.65491381999993</v>
       </c>
-      <c r="C49" s="221">
+      <c r="C49" s="193">
         <v>1.4925542939199998</v>
       </c>
-      <c r="D49" s="222">
+      <c r="D49" s="194">
         <v>0.32839236888000001</v>
       </c>
       <c r="E49" s="50"/>
-      <c r="F49" s="234">
+      <c r="F49" s="206">
         <f t="shared" si="0"/>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G49" s="235">
+      <c r="G49" s="207">
         <f t="shared" si="1"/>
         <v>6.8842393696198226E-2</v>
       </c>
-      <c r="H49" s="235">
+      <c r="H49" s="207">
         <f t="shared" si="2"/>
         <v>2.2149351747814818</v>
       </c>
-      <c r="I49" s="235">
+      <c r="I49" s="207">
         <f t="shared" si="3"/>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J49" s="235">
+      <c r="J49" s="207">
         <f t="shared" si="4"/>
         <v>0.80873958798139634</v>
       </c>
-      <c r="K49" s="235">
+      <c r="K49" s="207">
         <f t="shared" si="5"/>
         <v>26.020387503713444</v>
       </c>
-      <c r="L49" s="236">
+      <c r="L49" s="208">
         <f t="shared" si="6"/>
         <v>28.235322678494924</v>
       </c>
       <c r="M49" s="50"/>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="219">
+      <c r="A50" s="191">
         <v>72.5</v>
       </c>
-      <c r="B50" s="220">
+      <c r="B50" s="192">
         <v>775.30498014</v>
       </c>
-      <c r="C50" s="221">
+      <c r="C50" s="193">
         <v>1.48449226432</v>
       </c>
-      <c r="D50" s="222">
+      <c r="D50" s="194">
         <v>0.33423830079839995</v>
       </c>
       <c r="E50" s="50"/>
-      <c r="F50" s="234">
+      <c r="F50" s="206">
         <f t="shared" si="0"/>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G50" s="235">
+      <c r="G50" s="207">
         <f t="shared" si="1"/>
         <v>7.0067903131817058E-2</v>
       </c>
-      <c r="H50" s="235">
+      <c r="H50" s="207">
         <f t="shared" si="2"/>
         <v>2.2543647153630819</v>
       </c>
-      <c r="I50" s="235">
+      <c r="I50" s="207">
         <f t="shared" si="3"/>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J50" s="235">
+      <c r="J50" s="207">
         <f t="shared" si="4"/>
         <v>0.80437118240743666</v>
       </c>
-      <c r="K50" s="235">
+      <c r="K50" s="207">
         <f t="shared" si="5"/>
         <v>25.879838422776867</v>
       </c>
-      <c r="L50" s="236">
+      <c r="L50" s="208">
         <f t="shared" si="6"/>
         <v>28.134203138139949</v>
       </c>
       <c r="M50" s="50"/>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="219">
+      <c r="A51" s="191">
         <v>73.400000000000006</v>
       </c>
-      <c r="B51" s="220">
+      <c r="B51" s="192">
         <v>784.03191660000005</v>
       </c>
-      <c r="C51" s="221">
+      <c r="C51" s="193">
         <v>1.4762691881599999</v>
       </c>
-      <c r="D51" s="222">
+      <c r="D51" s="194">
         <v>0.34025552416639998</v>
       </c>
       <c r="E51" s="50"/>
-      <c r="F51" s="234">
+      <c r="F51" s="206">
         <f t="shared" si="0"/>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G51" s="235">
+      <c r="G51" s="207">
         <f t="shared" si="1"/>
         <v>7.1329321177159011E-2</v>
       </c>
-      <c r="H51" s="235">
+      <c r="H51" s="207">
         <f t="shared" si="2"/>
         <v>2.2949495795539141</v>
       </c>
-      <c r="I51" s="235">
+      <c r="I51" s="207">
         <f t="shared" si="3"/>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J51" s="235">
+      <c r="J51" s="207">
         <f t="shared" si="4"/>
         <v>0.79991551385811233</v>
       </c>
-      <c r="K51" s="235">
+      <c r="K51" s="207">
         <f t="shared" si="5"/>
         <v>25.736481742870904</v>
       </c>
-      <c r="L51" s="236">
+      <c r="L51" s="208">
         <f t="shared" si="6"/>
         <v>28.031431322424819</v>
       </c>
       <c r="M51" s="50"/>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="219">
+      <c r="A52" s="191">
         <v>74.3</v>
       </c>
-      <c r="B52" s="220">
+      <c r="B52" s="192">
         <v>792.83572320000007</v>
       </c>
-      <c r="C52" s="221">
+      <c r="C52" s="193">
         <v>1.4678734235199999</v>
       </c>
-      <c r="D52" s="222">
+      <c r="D52" s="194">
         <v>0.34645449730880001</v>
       </c>
       <c r="E52" s="50"/>
-      <c r="F52" s="234">
+      <c r="F52" s="206">
         <f t="shared" si="0"/>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G52" s="235">
+      <c r="G52" s="207">
         <f t="shared" si="1"/>
         <v>7.2628840258667268E-2</v>
       </c>
-      <c r="H52" s="235">
+      <c r="H52" s="207">
         <f t="shared" si="2"/>
         <v>2.3367603064823608</v>
       </c>
-      <c r="I52" s="235">
+      <c r="I52" s="207">
         <f t="shared" si="3"/>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J52" s="235">
+      <c r="J52" s="207">
         <f t="shared" si="4"/>
         <v>0.79536627416653016</v>
       </c>
-      <c r="K52" s="235">
+      <c r="K52" s="207">
         <f t="shared" si="5"/>
         <v>25.590114505033942</v>
       </c>
-      <c r="L52" s="236">
+      <c r="L52" s="208">
         <f t="shared" si="6"/>
         <v>27.926874811516303</v>
       </c>
       <c r="M52" s="50"/>
     </row>
-    <row r="53" spans="1:14" ht="16" thickBot="1">
-      <c r="A53" s="223">
+    <row r="53" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A53" s="195">
         <v>75</v>
       </c>
-      <c r="B53" s="224">
+      <c r="B53" s="196">
         <f>B52+(((B54-B52)/($A$54-$A$52))*($A$53-$A$52))</f>
         <v>799.74517236666668</v>
       </c>
-      <c r="C53" s="225">
+      <c r="C53" s="197">
         <f t="shared" ref="C53:D53" si="7">C52+(((C54-C52)/($A$54-$A$52))*($A$53-$A$52))</f>
         <v>1.4612000162666667</v>
       </c>
-      <c r="D53" s="226">
+      <c r="D53" s="198">
         <f t="shared" si="7"/>
         <v>0.35142632153493331</v>
       </c>
       <c r="E53" s="47"/>
-      <c r="F53" s="237">
+      <c r="F53" s="209">
         <f t="shared" si="0"/>
         <v>0.20963457199382843</v>
       </c>
-      <c r="G53" s="238">
+      <c r="G53" s="210">
         <f t="shared" si="1"/>
         <v>7.367110650234128E-2</v>
       </c>
-      <c r="H53" s="238">
+      <c r="H53" s="210">
         <f t="shared" si="2"/>
         <v>2.3702941806063285</v>
       </c>
-      <c r="I53" s="238">
+      <c r="I53" s="210">
         <f t="shared" si="3"/>
         <v>0.5418493593672542</v>
       </c>
-      <c r="J53" s="238">
+      <c r="J53" s="210">
         <f t="shared" si="4"/>
         <v>0.79175029272151476</v>
       </c>
-      <c r="K53" s="238">
+      <c r="K53" s="210">
         <f t="shared" si="5"/>
         <v>25.473773918022015</v>
       </c>
-      <c r="L53" s="239">
+      <c r="L53" s="211">
         <f t="shared" si="6"/>
         <v>27.844068098628345</v>
       </c>
@@ -17933,16 +18225,16 @@
       <c r="N53" s="40"/>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="219">
+      <c r="A54" s="191">
         <v>75.2</v>
       </c>
-      <c r="B54" s="220">
+      <c r="B54" s="192">
         <v>801.71930069999996</v>
       </c>
-      <c r="C54" s="221">
+      <c r="C54" s="193">
         <v>1.45929332848</v>
       </c>
-      <c r="D54" s="222">
+      <c r="D54" s="194">
         <v>0.35284684274239997</v>
       </c>
       <c r="E54" s="50"/>
@@ -17956,16 +18248,16 @@
       <c r="M54" s="17"/>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="219">
+      <c r="A55" s="191">
         <v>76.099999999999994</v>
       </c>
-      <c r="B55" s="220">
+      <c r="B55" s="192">
         <v>810.68264910000005</v>
       </c>
-      <c r="C55" s="221">
+      <c r="C55" s="193">
         <v>1.4505153208000001</v>
       </c>
-      <c r="D55" s="222">
+      <c r="D55" s="194">
         <v>0.35944542478879998</v>
       </c>
       <c r="E55" s="50"/>
@@ -17979,16 +18271,16 @@
       <c r="M55" s="17"/>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="219">
+      <c r="A56" s="191">
         <v>77</v>
       </c>
-      <c r="B56" s="220">
+      <c r="B56" s="192">
         <v>819.72576839999999</v>
       </c>
-      <c r="C56" s="221">
+      <c r="C56" s="193">
         <v>1.4415277585599999</v>
       </c>
-      <c r="D56" s="222">
+      <c r="D56" s="194">
         <v>0.36626458241279997</v>
       </c>
       <c r="E56" s="50"/>
@@ -18002,16 +18294,16 @@
       <c r="M56" s="17"/>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="219">
+      <c r="A57" s="191">
         <v>77.900000000000006</v>
       </c>
-      <c r="B57" s="220">
+      <c r="B57" s="192">
         <v>828.85010898000007</v>
       </c>
-      <c r="C57" s="221">
+      <c r="C57" s="193">
         <v>1.4323131788799999</v>
       </c>
-      <c r="D57" s="222">
+      <c r="D57" s="194">
         <v>0.37332036206079999</v>
       </c>
       <c r="E57" s="50"/>
@@ -18025,16 +18317,16 @@
       <c r="M57" s="17"/>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="219">
+      <c r="A58" s="191">
         <v>78.8</v>
       </c>
-      <c r="B58" s="220">
+      <c r="B58" s="192">
         <v>838.05712122</v>
       </c>
-      <c r="C58" s="221">
+      <c r="C58" s="193">
         <v>1.4228541188799999</v>
       </c>
-      <c r="D58" s="222">
+      <c r="D58" s="194">
         <v>0.38063080870880001</v>
       </c>
       <c r="E58" s="50"/>
@@ -18048,16 +18340,16 @@
       <c r="M58" s="17"/>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="219">
+      <c r="A59" s="191">
         <v>79.7</v>
       </c>
-      <c r="B59" s="220">
+      <c r="B59" s="192">
         <v>847.34825549999994</v>
       </c>
-      <c r="C59" s="221">
+      <c r="C59" s="193">
         <v>1.41312923504</v>
       </c>
-      <c r="D59" s="222">
+      <c r="D59" s="194">
         <v>0.38821637332959996</v>
       </c>
       <c r="E59" s="50"/>
@@ -18071,16 +18363,16 @@
       <c r="M59" s="17"/>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="219">
+      <c r="A60" s="191">
         <v>80.599999999999994</v>
       </c>
-      <c r="B60" s="220">
+      <c r="B60" s="192">
         <v>856.72351182</v>
       </c>
-      <c r="C60" s="221">
+      <c r="C60" s="193">
         <v>1.4031171838399998</v>
       </c>
-      <c r="D60" s="222">
+      <c r="D60" s="194">
         <v>0.3961002815536</v>
       </c>
       <c r="E60" s="50"/>
@@ -18094,16 +18386,16 @@
       <c r="M60" s="17"/>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="219">
+      <c r="A61" s="191">
         <v>81.5</v>
       </c>
-      <c r="B61" s="220">
+      <c r="B61" s="192">
         <v>866.18579093999995</v>
       </c>
-      <c r="C61" s="221">
+      <c r="C61" s="193">
         <v>1.3927888604799998</v>
       </c>
-      <c r="D61" s="222">
+      <c r="D61" s="194">
         <v>0.40430919337760002</v>
       </c>
       <c r="E61" s="50"/>
@@ -18117,16 +18409,16 @@
       <c r="M61" s="17"/>
     </row>
     <row r="62" spans="1:14">
-      <c r="A62" s="219">
+      <c r="A62" s="191">
         <v>82.4</v>
       </c>
-      <c r="B62" s="220">
+      <c r="B62" s="192">
         <v>875.73364248000007</v>
       </c>
-      <c r="C62" s="221">
+      <c r="C62" s="193">
         <v>1.3821171004799999</v>
       </c>
-      <c r="D62" s="222">
+      <c r="D62" s="194">
         <v>0.41287390167999999</v>
       </c>
       <c r="E62" s="50"/>
@@ -18140,16 +18432,16 @@
       <c r="M62" s="17"/>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="219">
+      <c r="A63" s="191">
         <v>83.3</v>
       </c>
-      <c r="B63" s="220">
+      <c r="B63" s="192">
         <v>885.37141757999996</v>
       </c>
-      <c r="C63" s="221">
+      <c r="C63" s="193">
         <v>1.37106309744</v>
       </c>
-      <c r="D63" s="222">
+      <c r="D63" s="194">
         <v>0.42183024417120002</v>
       </c>
       <c r="E63" s="50"/>
@@ -18163,16 +18455,16 @@
       <c r="M63" s="17"/>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="219">
+      <c r="A64" s="191">
         <v>84.2</v>
       </c>
-      <c r="B64" s="220">
+      <c r="B64" s="192">
         <v>895.10056662</v>
       </c>
-      <c r="C64" s="221">
+      <c r="C64" s="193">
         <v>1.35958416432</v>
       </c>
-      <c r="D64" s="222">
+      <c r="D64" s="194">
         <v>0.43122034519840002</v>
       </c>
       <c r="E64" s="50"/>
@@ -18186,16 +18478,16 @@
       <c r="M64" s="17"/>
     </row>
     <row r="65" spans="1:14">
-      <c r="A65" s="219">
+      <c r="A65" s="191">
         <v>85.1</v>
       </c>
-      <c r="B65" s="220">
+      <c r="B65" s="192">
         <v>904.91963922000002</v>
       </c>
-      <c r="C65" s="221">
+      <c r="C65" s="193">
         <v>1.3476317931200001</v>
       </c>
-      <c r="D65" s="222">
+      <c r="D65" s="194">
         <v>0.44109424561439997</v>
       </c>
       <c r="E65" s="50"/>
@@ -18209,16 +18501,16 @@
       <c r="M65" s="17"/>
     </row>
     <row r="66" spans="1:14">
-      <c r="A66" s="219">
+      <c r="A66" s="191">
         <v>86</v>
       </c>
-      <c r="B66" s="220">
+      <c r="B66" s="192">
         <v>914.83443690000001</v>
       </c>
-      <c r="C66" s="221">
+      <c r="C66" s="193">
         <v>1.33514583392</v>
       </c>
-      <c r="D66" s="222">
+      <c r="D66" s="194">
         <v>0.45151211474239994</v>
       </c>
       <c r="E66" s="50"/>
@@ -18232,16 +18524,16 @@
       <c r="M66" s="17"/>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67" s="219">
+      <c r="A67" s="191">
         <v>86.9</v>
       </c>
-      <c r="B67" s="220">
+      <c r="B67" s="192">
         <v>924.84350928000003</v>
       </c>
-      <c r="C67" s="221">
+      <c r="C67" s="193">
         <v>1.3220506142399999</v>
       </c>
-      <c r="D67" s="222">
+      <c r="D67" s="194">
         <v>0.4625472966784</v>
       </c>
       <c r="E67" s="50"/>
@@ -18255,16 +18547,16 @@
       <c r="M67" s="17"/>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" s="219">
+      <c r="A68" s="191">
         <v>87.8</v>
       </c>
-      <c r="B68" s="220">
+      <c r="B68" s="192">
         <v>934.95120750000012</v>
       </c>
-      <c r="C68" s="221">
+      <c r="C68" s="193">
         <v>1.30825687936</v>
       </c>
-      <c r="D68" s="222">
+      <c r="D68" s="194">
         <v>0.47429065660800002</v>
       </c>
       <c r="E68" s="50"/>
@@ -18278,16 +18570,16 @@
       <c r="M68" s="17"/>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" s="219">
+      <c r="A69" s="191">
         <v>88.7</v>
       </c>
-      <c r="B69" s="220">
+      <c r="B69" s="192">
         <v>945.16043231999993</v>
       </c>
-      <c r="C69" s="221">
+      <c r="C69" s="193">
         <v>1.29364626976</v>
       </c>
-      <c r="D69" s="222">
+      <c r="D69" s="194">
         <v>0.48685690624959999</v>
       </c>
       <c r="E69" s="50"/>
@@ -18301,16 +18593,16 @@
       <c r="M69" s="17"/>
     </row>
     <row r="70" spans="1:14">
-      <c r="A70" s="219">
+      <c r="A70" s="191">
         <v>89.6</v>
       </c>
-      <c r="B70" s="220">
+      <c r="B70" s="192">
         <v>955.47118374000013</v>
       </c>
-      <c r="C70" s="221">
+      <c r="C70" s="193">
         <v>1.2780693808000001</v>
       </c>
-      <c r="D70" s="222">
+      <c r="D70" s="194">
         <v>0.50039415022879996</v>
       </c>
       <c r="E70" s="50"/>
@@ -18324,16 +18616,16 @@
       <c r="M70" s="17"/>
     </row>
     <row r="71" spans="1:14">
-      <c r="A71" s="219">
+      <c r="A71" s="191">
         <v>90.5</v>
       </c>
-      <c r="B71" s="220">
+      <c r="B71" s="192">
         <v>965.88781289999997</v>
       </c>
-      <c r="C71" s="221">
+      <c r="C71" s="193">
         <v>1.2613302401599999</v>
       </c>
-      <c r="D71" s="222">
+      <c r="D71" s="194">
         <v>0.51509886534880001</v>
       </c>
       <c r="E71" s="50"/>
@@ -18347,16 +18639,16 @@
       <c r="M71" s="17"/>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="219">
+      <c r="A72" s="191">
         <v>91.4</v>
       </c>
-      <c r="B72" s="220">
+      <c r="B72" s="192">
         <v>976.41612132</v>
       </c>
-      <c r="C72" s="221">
+      <c r="C72" s="193">
         <v>1.24315138208</v>
       </c>
-      <c r="D72" s="222">
+      <c r="D72" s="194">
         <v>0.53124065907359996</v>
       </c>
       <c r="E72" s="50"/>
@@ -18370,16 +18662,16 @@
       <c r="M72" s="17"/>
     </row>
     <row r="73" spans="1:14">
-      <c r="A73" s="219">
+      <c r="A73" s="191">
         <v>92.3</v>
       </c>
-      <c r="B73" s="220">
+      <c r="B73" s="192">
         <v>987.05610900000011</v>
       </c>
-      <c r="C73" s="221">
+      <c r="C73" s="193">
         <v>1.2231428022399999</v>
       </c>
-      <c r="D73" s="222">
+      <c r="D73" s="194">
         <v>0.54920555806720006</v>
       </c>
       <c r="E73" s="50"/>
@@ -18393,16 +18685,16 @@
       <c r="M73" s="17"/>
     </row>
     <row r="74" spans="1:14">
-      <c r="A74" s="219">
+      <c r="A74" s="191">
         <v>93.2</v>
       </c>
-      <c r="B74" s="220">
+      <c r="B74" s="192">
         <v>997.81792859999996</v>
       </c>
-      <c r="C74" s="221">
+      <c r="C74" s="193">
         <v>1.20071076272</v>
       </c>
-      <c r="D74" s="222">
+      <c r="D74" s="194">
         <v>0.56957841358399997</v>
       </c>
       <c r="E74" s="50"/>
@@ -18416,16 +18708,16 @@
       <c r="M74" s="17"/>
     </row>
     <row r="75" spans="1:14">
-      <c r="A75" s="219">
+      <c r="A75" s="191">
         <v>94.1</v>
       </c>
-      <c r="B75" s="220">
+      <c r="B75" s="192">
         <v>1008.70448088</v>
       </c>
-      <c r="C75" s="221">
+      <c r="C75" s="193">
         <v>1.1748812228800001</v>
       </c>
-      <c r="D75" s="222">
+      <c r="D75" s="194">
         <v>0.59331624965759999</v>
       </c>
       <c r="E75" s="50"/>
@@ -18439,16 +18731,16 @@
       <c r="M75" s="17"/>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="219">
+      <c r="A76" s="191">
         <v>95</v>
       </c>
-      <c r="B76" s="220">
+      <c r="B76" s="192">
         <v>1019.7259185</v>
       </c>
-      <c r="C76" s="221">
+      <c r="C76" s="193">
         <v>1.143867148</v>
       </c>
-      <c r="D76" s="222">
+      <c r="D76" s="194">
         <v>0.6221741633408</v>
       </c>
       <c r="E76" s="50"/>
@@ -18462,16 +18754,16 @@
       <c r="M76" s="17"/>
     </row>
     <row r="77" spans="1:14">
-      <c r="A77" s="219">
+      <c r="A77" s="191">
         <v>95.9</v>
       </c>
-      <c r="B77" s="220">
+      <c r="B77" s="192">
         <v>1030.8938445000001</v>
       </c>
-      <c r="C77" s="221">
+      <c r="C77" s="193">
         <v>1.1037122256</v>
       </c>
-      <c r="D77" s="222">
+      <c r="D77" s="194">
         <v>0.66003374539039994</v>
       </c>
       <c r="E77" s="50"/>
@@ -18485,16 +18777,16 @@
       <c r="M77" s="17"/>
     </row>
     <row r="78" spans="1:14">
-      <c r="A78" s="219">
+      <c r="A78" s="191">
         <v>96.8</v>
       </c>
-      <c r="B78" s="220">
+      <c r="B78" s="192">
         <v>1042.23146496</v>
       </c>
-      <c r="C78" s="221">
+      <c r="C78" s="193">
         <v>1.04153273088</v>
       </c>
-      <c r="D78" s="222">
+      <c r="D78" s="194">
         <v>0.7195324357888</v>
       </c>
       <c r="E78" s="50"/>
@@ -18507,17 +18799,17 @@
       <c r="L78" s="50"/>
       <c r="M78" s="17"/>
     </row>
-    <row r="79" spans="1:14" ht="16" thickBot="1">
-      <c r="A79" s="227">
+    <row r="79" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A79" s="199">
         <v>97.47</v>
       </c>
-      <c r="B79" s="228">
+      <c r="B79" s="200">
         <v>1050.8003100000001</v>
       </c>
-      <c r="C79" s="229">
+      <c r="C79" s="201">
         <v>0.87704598352000007</v>
       </c>
-      <c r="D79" s="230">
+      <c r="D79" s="202">
         <v>0.8770468760672</v>
       </c>
       <c r="E79" s="64"/>
@@ -20760,7 +21052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD2FB6F-B5B6-45D0-A077-A1579B76EE79}">
   <dimension ref="A1:M28"/>
   <sheetViews>
@@ -20768,12 +21060,12 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.5" customWidth="1"/>
-    <col min="8" max="8" width="27.5" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" customWidth="1"/>
-    <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" customHeight="1">
@@ -20958,7 +21250,7 @@
         <v>1.0537823421600361</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="16" thickBot="1">
+    <row r="15" spans="1:13" ht="15.75" thickBot="1">
       <c r="A15" t="s">
         <v>87</v>
       </c>
@@ -20967,7 +21259,7 @@
         <v>2016.627989234772</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="16">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>89</v>
       </c>
@@ -20985,7 +21277,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="17" thickBot="1">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1">
       <c r="A17" s="40" t="s">
         <v>5</v>
       </c>
@@ -21000,7 +21292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="16" thickBot="1">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="H18" s="130" t="s">
         <v>72</v>
       </c>
@@ -21008,7 +21300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="17" thickBot="1">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1">
       <c r="H19" s="132" t="s">
         <v>73</v>
       </c>
@@ -21090,76 +21382,77 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65062AE-B621-E545-B314-3586194DA631}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView zoomScale="132" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="49.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+    <col min="1" max="1" width="62" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16">
-      <c r="A1" s="173" t="s">
+    <row r="1" spans="1:7" ht="15.75">
+      <c r="A1" s="213" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-    </row>
-    <row r="2" spans="1:7" ht="16">
-      <c r="A2" s="174" t="s">
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="G1" s="213"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75">
+      <c r="A2" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-    </row>
-    <row r="3" spans="1:7" ht="16" thickBot="1">
-      <c r="A3" s="176" t="s">
+      <c r="B2" s="214"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="214"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A3" s="216" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="176"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-    </row>
-    <row r="4" spans="1:7" ht="25" thickBot="1">
-      <c r="A4" s="198" t="s">
+      <c r="B3" s="216"/>
+      <c r="C3" s="216"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="216"/>
+      <c r="G3" s="216"/>
+    </row>
+    <row r="4" spans="1:7" ht="24" thickBot="1">
+      <c r="A4" s="238" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="199"/>
-      <c r="C4" s="199"/>
-      <c r="D4" s="199"/>
-      <c r="E4" s="199"/>
-      <c r="F4" s="200"/>
+      <c r="B4" s="239"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="239"/>
+      <c r="E4" s="239"/>
+      <c r="F4" s="240"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="175" t="s">
+      <c r="A5" s="215" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="175"/>
+      <c r="B5" s="215"/>
       <c r="C5" s="147"/>
-      <c r="E5" s="175" t="s">
+      <c r="E5" s="215" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="175"/>
+      <c r="F5" s="215"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -21211,7 +21504,7 @@
         <v>0.10660922203137681</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16">
+    <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
@@ -21226,8 +21519,8 @@
         <v>0.22502898694663789</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="29" customHeight="1">
-      <c r="A11" s="164" t="s">
+    <row r="11" spans="1:7" ht="29.1" customHeight="1">
+      <c r="A11" s="241" t="s">
         <v>109</v>
       </c>
       <c r="B11" s="165">
@@ -21239,7 +21532,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:7" ht="16" thickBot="1">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -21255,7 +21548,7 @@
         <v>0.10874959929483145</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17" thickBot="1">
+    <row r="13" spans="1:7" ht="16.5" thickBot="1">
       <c r="A13" s="120" t="s">
         <v>66</v>
       </c>
@@ -21275,7 +21568,7 @@
         <v>0.10874959929483145</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16" thickBot="1">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1">
       <c r="A14" s="120" t="s">
         <v>67</v>
       </c>
@@ -21296,7 +21589,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:7" ht="32">
+    <row r="16" spans="1:7" ht="30">
       <c r="A16" s="56" t="s">
         <v>41</v>
       </c>
@@ -21308,7 +21601,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" ht="16">
+    <row r="17" spans="1:6">
       <c r="A17" s="55" t="s">
         <v>42</v>
       </c>
@@ -21392,7 +21685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16077167-0C48-364A-BC9D-17A312718497}">
   <dimension ref="A1:G31"/>
   <sheetViews>
@@ -21400,69 +21693,69 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="49.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+    <col min="1" max="1" width="62" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16">
-      <c r="A1" s="173" t="s">
+    <row r="1" spans="1:7" ht="15.75">
+      <c r="A1" s="213" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-    </row>
-    <row r="2" spans="1:7" ht="16">
-      <c r="A2" s="174" t="s">
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="G1" s="213"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75">
+      <c r="A2" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-    </row>
-    <row r="3" spans="1:7" ht="16" thickBot="1">
-      <c r="A3" s="176" t="s">
+      <c r="B2" s="214"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="214"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A3" s="216" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="176"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-    </row>
-    <row r="4" spans="1:7" ht="25" thickBot="1">
-      <c r="A4" s="198" t="s">
+      <c r="B3" s="216"/>
+      <c r="C3" s="216"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="216"/>
+      <c r="G3" s="216"/>
+    </row>
+    <row r="4" spans="1:7" ht="24" thickBot="1">
+      <c r="A4" s="238" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="199"/>
-      <c r="C4" s="199"/>
-      <c r="D4" s="199"/>
-      <c r="E4" s="199"/>
-      <c r="F4" s="200"/>
+      <c r="B4" s="239"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="239"/>
+      <c r="E4" s="239"/>
+      <c r="F4" s="240"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="175" t="s">
+      <c r="A5" s="215" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="175"/>
+      <c r="B5" s="215"/>
       <c r="C5" s="147"/>
-      <c r="E5" s="175" t="s">
+      <c r="E5" s="215" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="175"/>
+      <c r="F5" s="215"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -21514,7 +21807,7 @@
         <v>0.14613570124845895</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16">
+    <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
@@ -21529,7 +21822,7 @@
         <v>0.31492853601239978</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="29" customHeight="1">
+    <row r="11" spans="1:7" ht="29.1" customHeight="1">
       <c r="A11" s="164" t="s">
         <v>109</v>
       </c>
@@ -21542,7 +21835,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:7" ht="16" thickBot="1">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -21558,7 +21851,7 @@
         <v>0.15018759721861846</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17" thickBot="1">
+    <row r="13" spans="1:7" ht="16.5" thickBot="1">
       <c r="A13" s="120" t="s">
         <v>66</v>
       </c>
@@ -21578,7 +21871,7 @@
         <v>0.15018759721861846</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16" thickBot="1">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1">
       <c r="A14" s="120" t="s">
         <v>67</v>
       </c>
@@ -21599,7 +21892,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:7" ht="32">
+    <row r="16" spans="1:7" ht="30">
       <c r="A16" s="56" t="s">
         <v>41</v>
       </c>
@@ -21611,7 +21904,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" ht="16">
+    <row r="17" spans="1:6">
       <c r="A17" s="55" t="s">
         <v>42</v>
       </c>
@@ -21696,293 +21989,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4CC0F4-5ED0-0840-90E0-925922EF4438}">
-  <dimension ref="A1:G31"/>
-  <sheetViews>
-    <sheetView zoomScale="132" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="45.1640625" customWidth="1"/>
-    <col min="2" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="16">
-      <c r="A1" s="173" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-    </row>
-    <row r="2" spans="1:7" ht="16">
-      <c r="A2" s="174" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-    </row>
-    <row r="3" spans="1:7" ht="16" thickBot="1">
-      <c r="A3" s="176" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="176"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-    </row>
-    <row r="4" spans="1:7" ht="16" thickBot="1">
-      <c r="C4" s="157" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="175" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="175"/>
-      <c r="C5" s="147"/>
-      <c r="E5" s="175" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="175"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>825</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="58"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>3.25</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="9">
-        <f>B17*B8/((B11*B9)-(0.6*B17))</f>
-        <v>0.36635171282138734</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="C9" s="58"/>
-      <c r="E9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="11">
-        <f>B17*B8/((2*B11*B9)+(0.4*B17))</f>
-        <v>0.16802366954715292</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16">
-      <c r="A10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="13">
-        <f>MAX(F8:F9)</f>
-        <v>0.36635171282138734</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>17000</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" ht="16" thickBot="1">
-      <c r="A12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12">
-        <v>7</v>
-      </c>
-      <c r="E12" s="108" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="109">
-        <f>(B17*B8)/((2*B11*B9)-(0.2*B17))</f>
-        <v>0.17340257482678134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="17" thickBot="1">
-      <c r="A13" s="120" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="144">
-        <f>0.25-0.025</f>
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="C13" s="153">
-        <f>B13/F10</f>
-        <v>0.61416390895843154</v>
-      </c>
-      <c r="E13" s="110" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="111">
-        <f>F12</f>
-        <v>0.17340257482678134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="17" thickBot="1">
-      <c r="A14" s="120" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="144">
-        <v>0.15</v>
-      </c>
-      <c r="C14" s="153">
-        <f>B14/F13</f>
-        <v>0.86503905809842152</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" ht="32">
-      <c r="A16" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="123">
-        <f>'N2O Pressure Calcs'!H53</f>
-        <v>807.70698482306932</v>
-      </c>
-      <c r="C16" s="150"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" ht="16">
-      <c r="A17" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="125">
-        <f>B10*B16</f>
-        <v>1615.4139696461386</v>
-      </c>
-      <c r="C17" s="151"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="59"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" ht="46.5" customHeight="1">
-      <c r="A19" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="124">
-        <f>'N2O Pressure Calcs'!J53</f>
-        <v>810.73685002846571</v>
-      </c>
-      <c r="C19" s="152"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="24" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A24" s="52"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1">
-      <c r="A25" s="53"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="51"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1">
-      <c r="A28" s="54"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="54"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="54"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="51"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="E5:F5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Run Tank/Critical_RT_Calcs_IR-3.25.xlsx
+++ b/Run Tank/Critical_RT_Calcs_IR-3.25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Propulsion\Run Tank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F8C620-FDD4-42C2-B6F3-8C0445B76B23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFAA38D-43C0-4FCA-AEAC-A16BEA624B9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="854" xr2:uid="{838B0196-D158-479E-A7C6-911A07F6EFB7}"/>
+    <workbookView xWindow="1050" yWindow="0" windowWidth="18465" windowHeight="13365" tabRatio="854" xr2:uid="{838B0196-D158-479E-A7C6-911A07F6EFB7}"/>
   </bookViews>
   <sheets>
     <sheet name="BPV Calcs - T6" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="150">
   <si>
     <t>Inner Radius (in)</t>
   </si>
@@ -566,6 +566,201 @@
   <si>
     <t>TOTAL OX MASS</t>
   </si>
+  <si>
+    <t>6061-</t>
+  </si>
+  <si>
+    <t>High-Pressure N2O Flight Tank</t>
+  </si>
+  <si>
+    <t>Margin of Safety</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Shell Thickness Used (min. based on tol) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(in.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cap Thickness Used (min. in component) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(in.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Outer Diameter of RT</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (in)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Max. Allowable Tensile Stress </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(psi)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Inner Radius </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(in)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">External Pressure </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(psi)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Internal Pressure </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(psi)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UG-27.c.1 ---- t_min </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(in.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UG-27.c.2 ---- t_min </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(in.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UG-32.e ---- t_min </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(in.)</t>
+    </r>
+  </si>
+  <si>
+    <t>Min. Shell Thickness (in)</t>
+  </si>
+  <si>
+    <r>
+      <t>Min Hemi-Head Thickness</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (in.)</t>
+    </r>
+  </si>
+  <si>
+    <t>Worst case RT-inj. Plumbing pressure (just above injector) (psi)</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
 </sst>
 </file>
 
@@ -577,7 +772,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -828,6 +1023,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -887,7 +1088,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1388,6 +1589,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1397,7 +1609,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="9" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="244">
+  <cellXfs count="261">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1740,18 +1952,15 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="25" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="7" borderId="25" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="25" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="27" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="5" borderId="27" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="4"/>
@@ -1890,6 +2099,19 @@
     <xf numFmtId="0" fontId="29" fillId="9" borderId="28" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1956,6 +2178,12 @@
     <xf numFmtId="166" fontId="9" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1971,20 +2199,53 @@
     <xf numFmtId="0" fontId="28" fillId="9" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="29" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="5" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="5" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -4675,71 +4936,77 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.140625" customWidth="1"/>
+    <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="3" width="9.42578125" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="1.85546875" customWidth="1"/>
+    <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="214"/>
     </row>
     <row r="2" spans="1:7" ht="15.75">
-      <c r="A2" s="211" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="211"/>
-      <c r="C2" s="211"/>
-      <c r="D2" s="211"/>
-      <c r="E2" s="211"/>
-      <c r="F2" s="211"/>
-      <c r="G2" s="211"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A3" s="213" t="s">
+      <c r="A2" s="215" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="215"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="213"/>
-      <c r="C3" s="213"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="213"/>
-      <c r="F3" s="213"/>
-      <c r="G3" s="213"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" thickBot="1">
-      <c r="C4" s="151" t="s">
+      <c r="B3" s="217"/>
+      <c r="C3" s="217"/>
+      <c r="D3" s="217"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="217"/>
+      <c r="G3" s="217"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75">
+      <c r="A4" s="260" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="213" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="212" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="212" t="s">
+      <c r="A5" s="216" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="212"/>
-      <c r="C5" s="143"/>
-      <c r="E5" s="212" t="s">
+      <c r="B5" s="216"/>
+      <c r="C5" s="142"/>
+      <c r="E5" s="216" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="212"/>
+      <c r="F5" s="216"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>142</v>
       </c>
       <c r="B6">
         <v>825</v>
@@ -4749,7 +5016,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -4758,15 +5025,15 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="B8">
         <v>3.25</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="9">
+      <c r="E8" s="250" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" s="258">
         <f>B17*B8/((B11*B9)-(0.6*B17))</f>
         <v>0.18273435624364015</v>
       </c>
@@ -4779,84 +5046,88 @@
         <v>0.9</v>
       </c>
       <c r="C9" s="58"/>
-      <c r="E9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="11">
+      <c r="E9" s="251" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" s="259">
         <f>B17*B8/((2*B11*B9)+(0.4*B17))</f>
         <v>8.7434315746075519E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="13">
+      <c r="E10" s="248" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="257">
         <f>MAX(F8:F9)</f>
         <v>0.18273435624364015</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>139</v>
       </c>
       <c r="B11">
         <v>33000</v>
       </c>
+      <c r="C11" s="244" t="s">
+        <v>135</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="B12">
         <v>7</v>
       </c>
+      <c r="C12" s="245"/>
       <c r="E12" s="106" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="107">
+        <v>145</v>
+      </c>
+      <c r="F12" s="255">
         <f>(B17*B8)/((2*B11*B9)-(0.2*B17))</f>
         <v>8.8868811198063807E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" thickBot="1">
       <c r="A13" s="118" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="142">
+        <v>136</v>
+      </c>
+      <c r="B13" s="243">
         <f>0.25-0.025</f>
         <v>0.22500000000000001</v>
       </c>
-      <c r="C13" s="144">
-        <f>B13/F10</f>
-        <v>1.2312955517790369</v>
-      </c>
-      <c r="E13" s="108" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="109">
+      <c r="C13" s="246">
+        <f>(B13/F10)-1</f>
+        <v>0.23129555177903693</v>
+      </c>
+      <c r="E13" s="249" t="s">
+        <v>147</v>
+      </c>
+      <c r="F13" s="256">
         <f>F12</f>
         <v>8.8868811198063807E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickBot="1">
       <c r="A14" s="118" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="142">
+        <v>137</v>
+      </c>
+      <c r="B14" s="243">
         <v>0.15</v>
       </c>
-      <c r="C14" s="144">
-        <f>B14/F13</f>
-        <v>1.6878812485258952</v>
+      <c r="C14" s="247">
+        <f>(B14/F13)-1</f>
+        <v>0.68788124852589516</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -4869,11 +5140,11 @@
       <c r="A16" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="121">
+      <c r="B16" s="252">
         <f>'N2O Pressure Calcs'!H53</f>
         <v>807.70698482306932</v>
       </c>
-      <c r="C16" s="146"/>
+      <c r="C16" s="144"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
@@ -4881,11 +5152,11 @@
       <c r="A17" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="123">
+      <c r="B17" s="253">
         <f>B10*B16</f>
         <v>1615.4139696461386</v>
       </c>
-      <c r="C17" s="147"/>
+      <c r="C17" s="145"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
@@ -4899,13 +5170,13 @@
     </row>
     <row r="19" spans="1:6" ht="46.5" customHeight="1">
       <c r="A19" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="122">
+        <v>148</v>
+      </c>
+      <c r="B19" s="254">
         <f>'N2O Pressure Calcs'!J53</f>
         <v>810.73685002846571</v>
       </c>
-      <c r="C19" s="148"/>
+      <c r="C19" s="146"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
@@ -4948,7 +5219,8 @@
       <c r="A31" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="E5:F5"/>
@@ -4978,56 +5250,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="214"/>
     </row>
     <row r="2" spans="1:7" ht="15.75">
-      <c r="A2" s="211" t="s">
+      <c r="A2" s="215" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="211"/>
-      <c r="C2" s="211"/>
-      <c r="D2" s="211"/>
-      <c r="E2" s="211"/>
-      <c r="F2" s="211"/>
-      <c r="G2" s="211"/>
+      <c r="B2" s="215"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A3" s="213" t="s">
+      <c r="A3" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="213"/>
-      <c r="C3" s="213"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="213"/>
-      <c r="F3" s="213"/>
-      <c r="G3" s="213"/>
+      <c r="B3" s="217"/>
+      <c r="C3" s="217"/>
+      <c r="D3" s="217"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="217"/>
+      <c r="G3" s="217"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1">
-      <c r="C4" s="152" t="s">
+      <c r="C4" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="154" t="s">
+      <c r="E4" s="151" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="212" t="s">
+      <c r="A5" s="216" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="212"/>
-      <c r="C5" s="143"/>
-      <c r="E5" s="212" t="s">
+      <c r="B5" s="216"/>
+      <c r="C5" s="142"/>
+      <c r="E5" s="216" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="212"/>
+      <c r="F5" s="216"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -5127,7 +5399,7 @@
         <f>0.25-0.025</f>
         <v>0.22500000000000001</v>
       </c>
-      <c r="C13" s="150">
+      <c r="C13" s="148">
         <f>B13/F10</f>
         <v>1.1155833687501735</v>
       </c>
@@ -5146,7 +5418,7 @@
       <c r="B14" s="119">
         <v>0.15</v>
       </c>
-      <c r="C14" s="145">
+      <c r="C14" s="143">
         <f>B14/F13</f>
         <v>1.5335983378207441</v>
       </c>
@@ -5165,7 +5437,7 @@
         <f>'N2O Pressure Calcs'!H53</f>
         <v>807.70698482306932</v>
       </c>
-      <c r="C16" s="146"/>
+      <c r="C16" s="144"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
@@ -5177,7 +5449,7 @@
         <f>B10*B16</f>
         <v>1615.4139696461386</v>
       </c>
-      <c r="C17" s="147"/>
+      <c r="C17" s="145"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
@@ -5197,7 +5469,7 @@
         <f>'N2O Pressure Calcs'!J53</f>
         <v>810.73685002846571</v>
       </c>
-      <c r="C19" s="148"/>
+      <c r="C19" s="146"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
@@ -5273,53 +5545,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="214"/>
     </row>
     <row r="2" spans="1:7" ht="15.75">
-      <c r="A2" s="211" t="s">
+      <c r="A2" s="215" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="211"/>
-      <c r="C2" s="211"/>
-      <c r="D2" s="211"/>
-      <c r="E2" s="211"/>
-      <c r="F2" s="211"/>
-      <c r="G2" s="211"/>
+      <c r="B2" s="215"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A3" s="213" t="s">
+      <c r="A3" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="213"/>
-      <c r="C3" s="213"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="213"/>
-      <c r="F3" s="213"/>
-      <c r="G3" s="213"/>
+      <c r="B3" s="217"/>
+      <c r="C3" s="217"/>
+      <c r="D3" s="217"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="217"/>
+      <c r="G3" s="217"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1">
-      <c r="C4" s="153" t="s">
+      <c r="C4" s="150" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="212" t="s">
+      <c r="A5" s="216" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="212"/>
-      <c r="C5" s="143"/>
-      <c r="E5" s="212" t="s">
+      <c r="B5" s="216"/>
+      <c r="C5" s="142"/>
+      <c r="E5" s="216" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="212"/>
+      <c r="F5" s="216"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -5419,7 +5691,7 @@
         <f>0.25-0.025</f>
         <v>0.22500000000000001</v>
       </c>
-      <c r="C13" s="149">
+      <c r="C13" s="147">
         <f>B13/F10</f>
         <v>0.61416390895843154</v>
       </c>
@@ -5438,7 +5710,7 @@
       <c r="B14" s="140">
         <v>0.15</v>
       </c>
-      <c r="C14" s="149">
+      <c r="C14" s="147">
         <f>B14/F13</f>
         <v>0.86503905809842152</v>
       </c>
@@ -5457,7 +5729,7 @@
         <f>'N2O Pressure Calcs'!H53</f>
         <v>807.70698482306932</v>
       </c>
-      <c r="C16" s="146"/>
+      <c r="C16" s="144"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
@@ -5469,7 +5741,7 @@
         <f>B10*B16</f>
         <v>1615.4139696461386</v>
       </c>
-      <c r="C17" s="147"/>
+      <c r="C17" s="145"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
@@ -5489,7 +5761,7 @@
         <f>'N2O Pressure Calcs'!J53</f>
         <v>810.73685002846571</v>
       </c>
-      <c r="C19" s="148"/>
+      <c r="C19" s="146"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
@@ -5572,19 +5844,19 @@
   <sheetData>
     <row r="1" spans="1:16" ht="23.25" customHeight="1">
       <c r="A1" s="65"/>
-      <c r="B1" s="220" t="s">
+      <c r="B1" s="224" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="221"/>
-      <c r="D1" s="222"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="226"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
-      <c r="G1" s="217" t="s">
+      <c r="G1" s="221" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="218"/>
-      <c r="I1" s="218"/>
-      <c r="J1" s="219"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="222"/>
+      <c r="J1" s="223"/>
       <c r="K1" s="44"/>
       <c r="L1" t="s">
         <v>26</v>
@@ -5615,14 +5887,14 @@
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
-      <c r="G2" s="214" t="s">
+      <c r="G2" s="218" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="215"/>
-      <c r="I2" s="215" t="s">
+      <c r="H2" s="219"/>
+      <c r="I2" s="219" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="216"/>
+      <c r="J2" s="220"/>
       <c r="K2" s="43"/>
       <c r="L2" t="s">
         <v>14</v>
@@ -10423,26 +10695,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A1" s="224" t="s">
+      <c r="A1" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="225"/>
-      <c r="C1" s="225"/>
-      <c r="D1" s="226"/>
+      <c r="B1" s="229"/>
+      <c r="C1" s="229"/>
+      <c r="D1" s="230"/>
       <c r="E1" s="62"/>
-      <c r="F1" s="227" t="s">
+      <c r="F1" s="231" t="s">
         <v>98</v>
       </c>
       <c r="G1" s="105"/>
       <c r="H1" s="105"/>
       <c r="I1" s="105"/>
-      <c r="J1" s="230" t="s">
+      <c r="J1" s="234" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="242" t="s">
+      <c r="K1" s="236" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="243"/>
+      <c r="L1" s="237"/>
       <c r="M1" s="14"/>
       <c r="N1" t="s">
         <v>56</v>
@@ -10465,7 +10737,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="50"/>
-      <c r="F2" s="228"/>
+      <c r="F2" s="232"/>
       <c r="G2" s="101" t="s">
         <v>39</v>
       </c>
@@ -10475,9 +10747,9 @@
       <c r="I2" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="231"/>
-      <c r="K2" s="232"/>
-      <c r="L2" s="233"/>
+      <c r="J2" s="235"/>
+      <c r="K2" s="238"/>
+      <c r="L2" s="239"/>
       <c r="M2" s="63"/>
       <c r="N2" t="s">
         <v>14</v>
@@ -10501,7 +10773,7 @@
         <v>23</v>
       </c>
       <c r="E3" s="20"/>
-      <c r="F3" s="229"/>
+      <c r="F3" s="233"/>
       <c r="G3" s="97" t="s">
         <v>40</v>
       </c>
@@ -10951,10 +11223,10 @@
         <v>9.297166771467186</v>
       </c>
       <c r="M12" s="17"/>
-      <c r="N12" s="167" t="s">
+      <c r="N12" s="164" t="s">
         <v>114</v>
       </c>
-      <c r="O12" s="167"/>
+      <c r="O12" s="164"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="78">
@@ -10998,10 +11270,10 @@
         <v>9.2023716955895267</v>
       </c>
       <c r="M13" s="17"/>
-      <c r="N13" s="167">
+      <c r="N13" s="164">
         <v>3.25638777478314</v>
       </c>
-      <c r="O13" s="167" t="s">
+      <c r="O13" s="164" t="s">
         <v>115</v>
       </c>
     </row>
@@ -11047,11 +11319,11 @@
         <v>9.1058792938194415</v>
       </c>
       <c r="M14" s="17"/>
-      <c r="N14" s="167">
+      <c r="N14" s="164">
         <f>N13/12</f>
         <v>0.27136564789859502</v>
       </c>
-      <c r="O14" s="167" t="s">
+      <c r="O14" s="164" t="s">
         <v>116</v>
       </c>
     </row>
@@ -11097,8 +11369,8 @@
         <v>9.007689909468084</v>
       </c>
       <c r="M15" s="17"/>
-      <c r="N15" s="167"/>
-      <c r="O15" s="167"/>
+      <c r="N15" s="164"/>
+      <c r="O15" s="164"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="78">
@@ -11142,11 +11414,11 @@
         <v>8.9076821829879194</v>
       </c>
       <c r="M16" s="17"/>
-      <c r="N16" s="167">
+      <c r="N16" s="164">
         <f>(2/3)*PI()*(_MailAutoSig^3)</f>
         <v>4.1852675134105212E-2</v>
       </c>
-      <c r="O16" s="167" t="s">
+      <c r="O16" s="164" t="s">
         <v>117</v>
       </c>
     </row>
@@ -11192,11 +11464,11 @@
         <v>8.8058118438068966</v>
       </c>
       <c r="M17" s="17"/>
-      <c r="N17" s="167">
+      <c r="N17" s="164">
         <f>G57*PI()*_MailAutoSig^2</f>
         <v>0.67089971867548348</v>
       </c>
-      <c r="O17" s="167" t="s">
+      <c r="O17" s="164" t="s">
         <v>118</v>
       </c>
     </row>
@@ -11242,11 +11514,11 @@
         <v>8.7020329548855635</v>
       </c>
       <c r="M18" s="17"/>
-      <c r="N18" s="167">
+      <c r="N18" s="164">
         <f>N17+(2*N16)</f>
         <v>0.75460506894369395</v>
       </c>
-      <c r="O18" s="167" t="s">
+      <c r="O18" s="164" t="s">
         <v>112</v>
       </c>
     </row>
@@ -11292,11 +11564,11 @@
         <v>8.5962559923399677</v>
       </c>
       <c r="M19" s="17"/>
-      <c r="N19" s="168">
+      <c r="N19" s="165">
         <f>N18-H4</f>
         <v>3.4050689436939674E-3</v>
       </c>
-      <c r="O19" s="167" t="s">
+      <c r="O19" s="164" t="s">
         <v>113</v>
       </c>
     </row>
@@ -12323,7 +12595,7 @@
         <f t="shared" si="4"/>
         <v>5.3376723619410775</v>
       </c>
-      <c r="M42" s="223" t="s">
+      <c r="M42" s="227" t="s">
         <v>53</v>
       </c>
     </row>
@@ -12371,7 +12643,7 @@
         <f t="shared" si="4"/>
         <v>5.1411415209405424</v>
       </c>
-      <c r="M43" s="223"/>
+      <c r="M43" s="227"/>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="78">
@@ -12829,18 +13101,18 @@
         <f>D53/C53</f>
         <v>0.24050528170183003</v>
       </c>
-      <c r="F53" s="164">
+      <c r="F53" s="161">
         <f>(($C$53*(1-$O$11))+(D53*$O$11)-C53)/(D53-C53)</f>
         <v>5.0000000000000072E-2</v>
       </c>
-      <c r="G53" s="165">
+      <c r="G53" s="162">
         <f t="shared" si="1"/>
         <v>0.74964348548931559</v>
       </c>
-      <c r="H53" s="165">
+      <c r="H53" s="162">
         <v>0.75119999999999998</v>
       </c>
-      <c r="I53" s="166">
+      <c r="I53" s="163">
         <f t="shared" si="2"/>
         <v>3.7560000000000052E-2</v>
       </c>
@@ -13038,9 +13310,9 @@
         <v>0.3961002815536</v>
       </c>
       <c r="E60" s="50"/>
-      <c r="F60" s="241"/>
-      <c r="G60" s="241"/>
-      <c r="H60" s="239"/>
+      <c r="F60" s="211"/>
+      <c r="G60" s="211"/>
+      <c r="H60" s="209"/>
       <c r="I60" s="50"/>
       <c r="J60" s="50"/>
       <c r="K60" s="50"/>
@@ -13506,7 +13778,7 @@
       <c r="K81" s="58"/>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="240"/>
+      <c r="A82" s="210"/>
       <c r="B82" s="58"/>
       <c r="C82" s="58"/>
       <c r="D82" s="58"/>
@@ -13518,7 +13790,7 @@
       <c r="K82" s="58"/>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" s="240"/>
+      <c r="A83" s="210"/>
       <c r="B83" s="58"/>
       <c r="C83" s="58"/>
       <c r="D83" s="58"/>
@@ -13530,7 +13802,7 @@
       <c r="K83" s="58"/>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="240"/>
+      <c r="A84" s="210"/>
       <c r="B84" s="58"/>
       <c r="C84" s="58"/>
       <c r="D84" s="58"/>
@@ -13542,7 +13814,7 @@
       <c r="K84" s="58"/>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="240"/>
+      <c r="A85" s="210"/>
       <c r="B85" s="58"/>
       <c r="C85" s="58"/>
       <c r="D85" s="58"/>
@@ -13554,7 +13826,7 @@
       <c r="K85" s="58"/>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="240"/>
+      <c r="A86" s="210"/>
       <c r="B86" s="58"/>
       <c r="C86" s="58"/>
       <c r="D86" s="58"/>
@@ -13566,7 +13838,7 @@
       <c r="K86" s="58"/>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="240"/>
+      <c r="A87" s="210"/>
       <c r="B87" s="58"/>
       <c r="C87" s="58"/>
       <c r="D87" s="58"/>
@@ -13578,7 +13850,7 @@
       <c r="K87" s="58"/>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="240"/>
+      <c r="A88" s="210"/>
       <c r="B88" s="58"/>
       <c r="C88" s="58"/>
       <c r="D88" s="58"/>
@@ -13590,7 +13862,7 @@
       <c r="K88" s="58"/>
     </row>
     <row r="89" spans="1:11">
-      <c r="A89" s="240"/>
+      <c r="A89" s="210"/>
       <c r="B89" s="58"/>
       <c r="C89" s="58"/>
       <c r="D89" s="58"/>
@@ -13602,7 +13874,7 @@
       <c r="K89" s="58"/>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" s="240"/>
+      <c r="A90" s="210"/>
       <c r="B90" s="58"/>
       <c r="C90" s="58"/>
       <c r="D90" s="58"/>
@@ -13614,7 +13886,7 @@
       <c r="K90" s="58"/>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="240"/>
+      <c r="A91" s="210"/>
       <c r="B91" s="58"/>
       <c r="C91" s="58"/>
       <c r="D91" s="58"/>
@@ -13626,7 +13898,7 @@
       <c r="K91" s="58"/>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="240"/>
+      <c r="A92" s="210"/>
       <c r="B92" s="58"/>
       <c r="C92" s="58"/>
       <c r="D92" s="58"/>
@@ -13638,7 +13910,7 @@
       <c r="K92" s="58"/>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="240"/>
+      <c r="A93" s="210"/>
       <c r="B93" s="58"/>
       <c r="C93" s="58"/>
       <c r="D93" s="58"/>
@@ -13650,7 +13922,7 @@
       <c r="K93" s="58"/>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" s="240"/>
+      <c r="A94" s="210"/>
       <c r="B94" s="58"/>
       <c r="C94" s="58"/>
       <c r="D94" s="58"/>
@@ -13662,7 +13934,7 @@
       <c r="K94" s="58"/>
     </row>
     <row r="95" spans="1:11">
-      <c r="A95" s="240"/>
+      <c r="A95" s="210"/>
       <c r="B95" s="58"/>
       <c r="C95" s="58"/>
       <c r="D95" s="58"/>
@@ -13674,7 +13946,7 @@
       <c r="K95" s="58"/>
     </row>
     <row r="96" spans="1:11">
-      <c r="A96" s="240"/>
+      <c r="A96" s="210"/>
       <c r="B96" s="58"/>
       <c r="C96" s="58"/>
       <c r="D96" s="58"/>
@@ -13686,7 +13958,7 @@
       <c r="K96" s="58"/>
     </row>
     <row r="97" spans="1:11">
-      <c r="A97" s="240"/>
+      <c r="A97" s="210"/>
       <c r="B97" s="58"/>
       <c r="C97" s="58"/>
       <c r="D97" s="58"/>
@@ -13698,7 +13970,7 @@
       <c r="K97" s="58"/>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" s="240"/>
+      <c r="A98" s="210"/>
       <c r="B98" s="58"/>
       <c r="C98" s="58"/>
       <c r="D98" s="58"/>
@@ -13710,7 +13982,7 @@
       <c r="K98" s="58"/>
     </row>
     <row r="99" spans="1:11">
-      <c r="A99" s="240"/>
+      <c r="A99" s="210"/>
       <c r="B99" s="58"/>
       <c r="C99" s="58"/>
       <c r="D99" s="58"/>
@@ -13722,7 +13994,7 @@
       <c r="K99" s="58"/>
     </row>
     <row r="100" spans="1:11">
-      <c r="A100" s="240"/>
+      <c r="A100" s="210"/>
       <c r="B100" s="58"/>
       <c r="C100" s="58"/>
       <c r="D100" s="58"/>
@@ -13734,7 +14006,7 @@
       <c r="K100" s="58"/>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" s="240"/>
+      <c r="A101" s="210"/>
       <c r="B101" s="58"/>
       <c r="C101" s="58"/>
       <c r="D101" s="58"/>
@@ -13746,7 +14018,7 @@
       <c r="K101" s="58"/>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" s="240"/>
+      <c r="A102" s="210"/>
       <c r="B102" s="58"/>
       <c r="C102" s="58"/>
       <c r="D102" s="58"/>
@@ -13758,7 +14030,7 @@
       <c r="K102" s="58"/>
     </row>
     <row r="103" spans="1:11">
-      <c r="A103" s="240"/>
+      <c r="A103" s="210"/>
       <c r="B103" s="58"/>
       <c r="C103" s="58"/>
       <c r="D103" s="58"/>
@@ -13770,7 +14042,7 @@
       <c r="K103" s="58"/>
     </row>
     <row r="104" spans="1:11">
-      <c r="A104" s="240"/>
+      <c r="A104" s="210"/>
       <c r="B104" s="58"/>
       <c r="C104" s="58"/>
       <c r="D104" s="58"/>
@@ -13782,7 +14054,7 @@
       <c r="K104" s="58"/>
     </row>
     <row r="105" spans="1:11">
-      <c r="A105" s="240"/>
+      <c r="A105" s="210"/>
       <c r="B105" s="58"/>
       <c r="C105" s="58"/>
       <c r="D105" s="58"/>
@@ -13794,7 +14066,7 @@
       <c r="K105" s="58"/>
     </row>
     <row r="106" spans="1:11">
-      <c r="A106" s="240"/>
+      <c r="A106" s="210"/>
       <c r="B106" s="58"/>
       <c r="C106" s="58"/>
       <c r="D106" s="58"/>
@@ -13806,7 +14078,7 @@
       <c r="K106" s="58"/>
     </row>
     <row r="107" spans="1:11">
-      <c r="A107" s="240"/>
+      <c r="A107" s="210"/>
       <c r="B107" s="58"/>
       <c r="C107" s="58"/>
       <c r="D107" s="58"/>
@@ -13818,7 +14090,7 @@
       <c r="K107" s="58"/>
     </row>
     <row r="108" spans="1:11">
-      <c r="A108" s="240"/>
+      <c r="A108" s="210"/>
       <c r="B108" s="58"/>
       <c r="C108" s="58"/>
       <c r="D108" s="58"/>
@@ -13830,7 +14102,7 @@
       <c r="K108" s="58"/>
     </row>
     <row r="109" spans="1:11">
-      <c r="A109" s="240"/>
+      <c r="A109" s="210"/>
       <c r="B109" s="58"/>
       <c r="C109" s="58"/>
       <c r="D109" s="58"/>
@@ -13842,7 +14114,7 @@
       <c r="K109" s="58"/>
     </row>
     <row r="110" spans="1:11">
-      <c r="A110" s="240"/>
+      <c r="A110" s="210"/>
       <c r="B110" s="58"/>
       <c r="C110" s="58"/>
       <c r="D110" s="58"/>
@@ -13854,7 +14126,7 @@
       <c r="K110" s="58"/>
     </row>
     <row r="111" spans="1:11">
-      <c r="A111" s="240"/>
+      <c r="A111" s="210"/>
       <c r="B111" s="58"/>
       <c r="C111" s="58"/>
       <c r="D111" s="58"/>
@@ -13866,7 +14138,7 @@
       <c r="K111" s="58"/>
     </row>
     <row r="112" spans="1:11">
-      <c r="A112" s="240"/>
+      <c r="A112" s="210"/>
       <c r="B112" s="58"/>
       <c r="C112" s="58"/>
       <c r="D112" s="58"/>
@@ -13878,7 +14150,7 @@
       <c r="K112" s="58"/>
     </row>
     <row r="113" spans="1:11">
-      <c r="A113" s="240"/>
+      <c r="A113" s="210"/>
       <c r="B113" s="58"/>
       <c r="C113" s="58"/>
       <c r="D113" s="58"/>
@@ -13890,7 +14162,7 @@
       <c r="K113" s="58"/>
     </row>
     <row r="114" spans="1:11">
-      <c r="A114" s="240"/>
+      <c r="A114" s="210"/>
       <c r="B114" s="58"/>
       <c r="C114" s="58"/>
       <c r="D114" s="58"/>
@@ -13902,7 +14174,7 @@
       <c r="K114" s="58"/>
     </row>
     <row r="115" spans="1:11">
-      <c r="A115" s="240"/>
+      <c r="A115" s="210"/>
       <c r="B115" s="58"/>
       <c r="C115" s="58"/>
       <c r="D115" s="58"/>
@@ -13914,7 +14186,7 @@
       <c r="K115" s="58"/>
     </row>
     <row r="116" spans="1:11">
-      <c r="A116" s="240"/>
+      <c r="A116" s="210"/>
       <c r="B116" s="58"/>
       <c r="C116" s="58"/>
       <c r="D116" s="58"/>
@@ -13926,7 +14198,7 @@
       <c r="K116" s="58"/>
     </row>
     <row r="117" spans="1:11">
-      <c r="A117" s="240"/>
+      <c r="A117" s="210"/>
       <c r="B117" s="58"/>
       <c r="C117" s="58"/>
       <c r="D117" s="58"/>
@@ -13938,7 +14210,7 @@
       <c r="K117" s="58"/>
     </row>
     <row r="118" spans="1:11">
-      <c r="A118" s="240"/>
+      <c r="A118" s="210"/>
       <c r="B118" s="58"/>
       <c r="C118" s="58"/>
       <c r="D118" s="58"/>
@@ -13950,7 +14222,7 @@
       <c r="K118" s="58"/>
     </row>
     <row r="119" spans="1:11">
-      <c r="A119" s="240"/>
+      <c r="A119" s="210"/>
       <c r="B119" s="58"/>
       <c r="C119" s="58"/>
       <c r="D119" s="58"/>
@@ -13962,7 +14234,7 @@
       <c r="K119" s="58"/>
     </row>
     <row r="120" spans="1:11">
-      <c r="A120" s="240"/>
+      <c r="A120" s="210"/>
       <c r="B120" s="58"/>
       <c r="C120" s="58"/>
       <c r="D120" s="58"/>
@@ -13974,7 +14246,7 @@
       <c r="K120" s="58"/>
     </row>
     <row r="121" spans="1:11">
-      <c r="A121" s="240"/>
+      <c r="A121" s="210"/>
       <c r="B121" s="58"/>
       <c r="C121" s="58"/>
       <c r="D121" s="58"/>
@@ -13986,7 +14258,7 @@
       <c r="K121" s="58"/>
     </row>
     <row r="122" spans="1:11">
-      <c r="A122" s="240"/>
+      <c r="A122" s="210"/>
       <c r="B122" s="58"/>
       <c r="C122" s="58"/>
       <c r="D122" s="58"/>
@@ -13998,7 +14270,7 @@
       <c r="K122" s="58"/>
     </row>
     <row r="123" spans="1:11">
-      <c r="A123" s="240"/>
+      <c r="A123" s="210"/>
       <c r="B123" s="58"/>
       <c r="C123" s="58"/>
       <c r="D123" s="58"/>
@@ -14010,7 +14282,7 @@
       <c r="K123" s="58"/>
     </row>
     <row r="124" spans="1:11">
-      <c r="A124" s="240"/>
+      <c r="A124" s="210"/>
       <c r="B124" s="58"/>
       <c r="C124" s="58"/>
       <c r="D124" s="58"/>
@@ -14022,7 +14294,7 @@
       <c r="K124" s="58"/>
     </row>
     <row r="125" spans="1:11">
-      <c r="A125" s="240"/>
+      <c r="A125" s="210"/>
       <c r="B125" s="58"/>
       <c r="C125" s="58"/>
       <c r="D125" s="58"/>
@@ -14034,7 +14306,7 @@
       <c r="K125" s="58"/>
     </row>
     <row r="126" spans="1:11">
-      <c r="A126" s="240"/>
+      <c r="A126" s="210"/>
       <c r="B126" s="58"/>
       <c r="C126" s="58"/>
       <c r="D126" s="58"/>
@@ -14046,7 +14318,7 @@
       <c r="K126" s="58"/>
     </row>
     <row r="127" spans="1:11">
-      <c r="A127" s="240"/>
+      <c r="A127" s="210"/>
       <c r="B127" s="58"/>
       <c r="C127" s="58"/>
       <c r="D127" s="58"/>
@@ -14058,7 +14330,7 @@
       <c r="K127" s="58"/>
     </row>
     <row r="128" spans="1:11">
-      <c r="A128" s="240"/>
+      <c r="A128" s="210"/>
       <c r="B128" s="58"/>
       <c r="C128" s="58"/>
       <c r="D128" s="58"/>
@@ -14070,7 +14342,7 @@
       <c r="K128" s="58"/>
     </row>
     <row r="129" spans="1:11">
-      <c r="A129" s="240"/>
+      <c r="A129" s="210"/>
       <c r="B129" s="58"/>
       <c r="C129" s="58"/>
       <c r="D129" s="58"/>
@@ -14082,7 +14354,7 @@
       <c r="K129" s="58"/>
     </row>
     <row r="130" spans="1:11">
-      <c r="A130" s="240"/>
+      <c r="A130" s="210"/>
       <c r="B130" s="58"/>
       <c r="C130" s="58"/>
       <c r="D130" s="58"/>
@@ -14094,7 +14366,7 @@
       <c r="K130" s="58"/>
     </row>
     <row r="131" spans="1:11">
-      <c r="A131" s="240"/>
+      <c r="A131" s="210"/>
       <c r="B131" s="58"/>
       <c r="C131" s="58"/>
       <c r="D131" s="58"/>
@@ -14106,7 +14378,7 @@
       <c r="K131" s="58"/>
     </row>
     <row r="132" spans="1:11">
-      <c r="A132" s="240"/>
+      <c r="A132" s="210"/>
       <c r="B132" s="58"/>
       <c r="C132" s="58"/>
       <c r="D132" s="58"/>
@@ -14118,7 +14390,7 @@
       <c r="K132" s="58"/>
     </row>
     <row r="133" spans="1:11">
-      <c r="A133" s="240"/>
+      <c r="A133" s="210"/>
       <c r="B133" s="58"/>
       <c r="C133" s="58"/>
       <c r="D133" s="58"/>
@@ -14130,7 +14402,7 @@
       <c r="K133" s="58"/>
     </row>
     <row r="134" spans="1:11">
-      <c r="A134" s="240"/>
+      <c r="A134" s="210"/>
       <c r="B134" s="58"/>
       <c r="C134" s="58"/>
       <c r="D134" s="58"/>
@@ -14142,7 +14414,7 @@
       <c r="K134" s="58"/>
     </row>
     <row r="135" spans="1:11">
-      <c r="A135" s="240"/>
+      <c r="A135" s="210"/>
       <c r="B135" s="58"/>
       <c r="C135" s="58"/>
       <c r="D135" s="58"/>
@@ -14154,7 +14426,7 @@
       <c r="K135" s="58"/>
     </row>
     <row r="136" spans="1:11">
-      <c r="A136" s="240"/>
+      <c r="A136" s="210"/>
       <c r="B136" s="58"/>
       <c r="C136" s="58"/>
       <c r="D136" s="58"/>
@@ -14166,7 +14438,7 @@
       <c r="K136" s="58"/>
     </row>
     <row r="137" spans="1:11">
-      <c r="A137" s="240"/>
+      <c r="A137" s="210"/>
       <c r="B137" s="58"/>
       <c r="C137" s="58"/>
       <c r="D137" s="58"/>
@@ -14178,7 +14450,7 @@
       <c r="K137" s="58"/>
     </row>
     <row r="138" spans="1:11">
-      <c r="A138" s="240"/>
+      <c r="A138" s="210"/>
       <c r="B138" s="58"/>
       <c r="C138" s="58"/>
       <c r="D138" s="58"/>
@@ -14190,7 +14462,7 @@
       <c r="K138" s="58"/>
     </row>
     <row r="139" spans="1:11">
-      <c r="A139" s="240"/>
+      <c r="A139" s="210"/>
       <c r="B139" s="58"/>
       <c r="C139" s="58"/>
       <c r="D139" s="58"/>
@@ -14202,7 +14474,7 @@
       <c r="K139" s="58"/>
     </row>
     <row r="140" spans="1:11">
-      <c r="A140" s="240"/>
+      <c r="A140" s="210"/>
       <c r="B140" s="58"/>
       <c r="C140" s="58"/>
       <c r="D140" s="58"/>
@@ -14214,7 +14486,7 @@
       <c r="K140" s="58"/>
     </row>
     <row r="141" spans="1:11">
-      <c r="A141" s="240"/>
+      <c r="A141" s="210"/>
       <c r="B141" s="58"/>
       <c r="C141" s="58"/>
       <c r="D141" s="58"/>
@@ -14226,7 +14498,7 @@
       <c r="K141" s="58"/>
     </row>
     <row r="142" spans="1:11">
-      <c r="A142" s="240"/>
+      <c r="A142" s="210"/>
       <c r="B142" s="58"/>
       <c r="C142" s="58"/>
       <c r="D142" s="58"/>
@@ -14238,7 +14510,7 @@
       <c r="K142" s="58"/>
     </row>
     <row r="143" spans="1:11">
-      <c r="A143" s="240"/>
+      <c r="A143" s="210"/>
       <c r="B143" s="58"/>
       <c r="C143" s="58"/>
       <c r="D143" s="58"/>
@@ -14250,7 +14522,7 @@
       <c r="K143" s="58"/>
     </row>
     <row r="144" spans="1:11">
-      <c r="A144" s="240"/>
+      <c r="A144" s="210"/>
       <c r="B144" s="58"/>
       <c r="C144" s="58"/>
       <c r="D144" s="58"/>
@@ -14262,7 +14534,7 @@
       <c r="K144" s="58"/>
     </row>
     <row r="145" spans="1:11">
-      <c r="A145" s="240"/>
+      <c r="A145" s="210"/>
       <c r="B145" s="58"/>
       <c r="C145" s="58"/>
       <c r="D145" s="58"/>
@@ -14274,7 +14546,7 @@
       <c r="K145" s="58"/>
     </row>
     <row r="146" spans="1:11">
-      <c r="A146" s="240"/>
+      <c r="A146" s="210"/>
       <c r="B146" s="58"/>
       <c r="C146" s="58"/>
       <c r="D146" s="58"/>
@@ -14286,7 +14558,7 @@
       <c r="K146" s="58"/>
     </row>
     <row r="147" spans="1:11">
-      <c r="A147" s="240"/>
+      <c r="A147" s="210"/>
       <c r="B147" s="58"/>
       <c r="C147" s="58"/>
       <c r="D147" s="58"/>
@@ -14298,7 +14570,7 @@
       <c r="K147" s="58"/>
     </row>
     <row r="148" spans="1:11">
-      <c r="A148" s="240"/>
+      <c r="A148" s="210"/>
       <c r="B148" s="58"/>
       <c r="C148" s="58"/>
       <c r="D148" s="58"/>
@@ -14310,7 +14582,7 @@
       <c r="K148" s="58"/>
     </row>
     <row r="149" spans="1:11">
-      <c r="A149" s="240"/>
+      <c r="A149" s="210"/>
       <c r="B149" s="58"/>
       <c r="C149" s="58"/>
       <c r="D149" s="58"/>
@@ -14322,7 +14594,7 @@
       <c r="K149" s="58"/>
     </row>
     <row r="150" spans="1:11">
-      <c r="A150" s="240"/>
+      <c r="A150" s="210"/>
       <c r="B150" s="58"/>
       <c r="C150" s="58"/>
       <c r="D150" s="58"/>
@@ -14334,7 +14606,7 @@
       <c r="K150" s="58"/>
     </row>
     <row r="151" spans="1:11">
-      <c r="A151" s="240"/>
+      <c r="A151" s="210"/>
       <c r="B151" s="58"/>
       <c r="C151" s="58"/>
       <c r="D151" s="58"/>
@@ -14346,7 +14618,7 @@
       <c r="K151" s="58"/>
     </row>
     <row r="152" spans="1:11">
-      <c r="A152" s="240"/>
+      <c r="A152" s="210"/>
       <c r="B152" s="58"/>
       <c r="C152" s="58"/>
       <c r="D152" s="58"/>
@@ -14358,7 +14630,7 @@
       <c r="K152" s="58"/>
     </row>
     <row r="153" spans="1:11">
-      <c r="A153" s="240"/>
+      <c r="A153" s="210"/>
       <c r="B153" s="58"/>
       <c r="C153" s="58"/>
       <c r="D153" s="58"/>
@@ -14370,7 +14642,7 @@
       <c r="K153" s="58"/>
     </row>
     <row r="154" spans="1:11">
-      <c r="A154" s="240"/>
+      <c r="A154" s="210"/>
       <c r="B154" s="58"/>
       <c r="C154" s="58"/>
       <c r="D154" s="58"/>
@@ -14382,7 +14654,7 @@
       <c r="K154" s="58"/>
     </row>
     <row r="155" spans="1:11">
-      <c r="A155" s="240"/>
+      <c r="A155" s="210"/>
       <c r="B155" s="58"/>
       <c r="C155" s="58"/>
       <c r="D155" s="58"/>
@@ -14394,7 +14666,7 @@
       <c r="K155" s="58"/>
     </row>
     <row r="156" spans="1:11">
-      <c r="A156" s="240"/>
+      <c r="A156" s="210"/>
       <c r="B156" s="58"/>
       <c r="C156" s="58"/>
       <c r="D156" s="58"/>
@@ -14406,7 +14678,7 @@
       <c r="K156" s="58"/>
     </row>
     <row r="157" spans="1:11">
-      <c r="A157" s="240"/>
+      <c r="A157" s="210"/>
       <c r="B157" s="58"/>
       <c r="C157" s="58"/>
       <c r="D157" s="58"/>
@@ -14418,7 +14690,7 @@
       <c r="K157" s="58"/>
     </row>
     <row r="158" spans="1:11">
-      <c r="A158" s="240"/>
+      <c r="A158" s="210"/>
       <c r="B158" s="58"/>
       <c r="C158" s="58"/>
       <c r="D158" s="58"/>
@@ -14430,7 +14702,7 @@
       <c r="K158" s="58"/>
     </row>
     <row r="159" spans="1:11">
-      <c r="A159" s="240"/>
+      <c r="A159" s="210"/>
       <c r="B159" s="58"/>
       <c r="C159" s="58"/>
       <c r="D159" s="58"/>
@@ -14442,7 +14714,7 @@
       <c r="K159" s="58"/>
     </row>
     <row r="160" spans="1:11">
-      <c r="A160" s="240"/>
+      <c r="A160" s="210"/>
       <c r="B160" s="58"/>
       <c r="C160" s="58"/>
       <c r="D160" s="58"/>
@@ -14454,7 +14726,7 @@
       <c r="K160" s="58"/>
     </row>
     <row r="161" spans="1:11">
-      <c r="A161" s="240"/>
+      <c r="A161" s="210"/>
       <c r="B161" s="58"/>
       <c r="C161" s="58"/>
       <c r="D161" s="58"/>
@@ -14466,7 +14738,7 @@
       <c r="K161" s="58"/>
     </row>
     <row r="162" spans="1:11">
-      <c r="A162" s="240"/>
+      <c r="A162" s="210"/>
       <c r="B162" s="58"/>
       <c r="C162" s="58"/>
       <c r="D162" s="58"/>
@@ -14478,7 +14750,7 @@
       <c r="K162" s="58"/>
     </row>
     <row r="163" spans="1:11">
-      <c r="A163" s="240"/>
+      <c r="A163" s="210"/>
       <c r="B163" s="58"/>
       <c r="C163" s="58"/>
       <c r="D163" s="58"/>
@@ -14490,7 +14762,7 @@
       <c r="K163" s="58"/>
     </row>
     <row r="164" spans="1:11">
-      <c r="A164" s="240"/>
+      <c r="A164" s="210"/>
       <c r="B164" s="58"/>
       <c r="C164" s="58"/>
       <c r="D164" s="58"/>
@@ -14502,7 +14774,7 @@
       <c r="K164" s="58"/>
     </row>
     <row r="165" spans="1:11">
-      <c r="A165" s="240"/>
+      <c r="A165" s="210"/>
       <c r="B165" s="58"/>
       <c r="C165" s="58"/>
       <c r="D165" s="58"/>
@@ -14514,7 +14786,7 @@
       <c r="K165" s="58"/>
     </row>
     <row r="166" spans="1:11">
-      <c r="A166" s="240"/>
+      <c r="A166" s="210"/>
       <c r="B166" s="58"/>
       <c r="C166" s="58"/>
       <c r="D166" s="58"/>
@@ -14526,7 +14798,7 @@
       <c r="K166" s="58"/>
     </row>
     <row r="167" spans="1:11">
-      <c r="A167" s="240"/>
+      <c r="A167" s="210"/>
       <c r="B167" s="58"/>
       <c r="C167" s="58"/>
       <c r="D167" s="58"/>
@@ -14538,7 +14810,7 @@
       <c r="K167" s="58"/>
     </row>
     <row r="168" spans="1:11">
-      <c r="A168" s="240"/>
+      <c r="A168" s="210"/>
       <c r="B168" s="58"/>
       <c r="C168" s="58"/>
       <c r="D168" s="58"/>
@@ -14550,7 +14822,7 @@
       <c r="K168" s="58"/>
     </row>
     <row r="169" spans="1:11">
-      <c r="A169" s="240"/>
+      <c r="A169" s="210"/>
       <c r="B169" s="58"/>
       <c r="C169" s="58"/>
       <c r="D169" s="58"/>
@@ -14562,7 +14834,7 @@
       <c r="K169" s="58"/>
     </row>
     <row r="170" spans="1:11">
-      <c r="A170" s="240"/>
+      <c r="A170" s="210"/>
       <c r="B170" s="58"/>
       <c r="C170" s="58"/>
       <c r="D170" s="58"/>
@@ -14574,7 +14846,7 @@
       <c r="K170" s="58"/>
     </row>
     <row r="171" spans="1:11">
-      <c r="A171" s="240"/>
+      <c r="A171" s="210"/>
       <c r="B171" s="58"/>
       <c r="C171" s="58"/>
       <c r="D171" s="58"/>
@@ -14586,7 +14858,7 @@
       <c r="K171" s="58"/>
     </row>
     <row r="172" spans="1:11">
-      <c r="A172" s="240"/>
+      <c r="A172" s="210"/>
       <c r="B172" s="58"/>
       <c r="C172" s="58"/>
       <c r="D172" s="58"/>
@@ -14598,7 +14870,7 @@
       <c r="K172" s="58"/>
     </row>
     <row r="173" spans="1:11">
-      <c r="A173" s="240"/>
+      <c r="A173" s="210"/>
       <c r="B173" s="58"/>
       <c r="C173" s="58"/>
       <c r="D173" s="58"/>
@@ -14610,7 +14882,7 @@
       <c r="K173" s="58"/>
     </row>
     <row r="174" spans="1:11">
-      <c r="A174" s="240"/>
+      <c r="A174" s="210"/>
       <c r="B174" s="58"/>
       <c r="C174" s="58"/>
       <c r="D174" s="58"/>
@@ -14622,7 +14894,7 @@
       <c r="K174" s="58"/>
     </row>
     <row r="175" spans="1:11">
-      <c r="A175" s="240"/>
+      <c r="A175" s="210"/>
       <c r="B175" s="58"/>
       <c r="C175" s="58"/>
       <c r="D175" s="58"/>
@@ -14634,7 +14906,7 @@
       <c r="K175" s="58"/>
     </row>
     <row r="176" spans="1:11">
-      <c r="A176" s="240"/>
+      <c r="A176" s="210"/>
       <c r="B176" s="58"/>
       <c r="C176" s="58"/>
       <c r="D176" s="58"/>
@@ -14646,7 +14918,7 @@
       <c r="K176" s="58"/>
     </row>
     <row r="177" spans="1:11">
-      <c r="A177" s="240"/>
+      <c r="A177" s="210"/>
       <c r="B177" s="58"/>
       <c r="C177" s="58"/>
       <c r="D177" s="58"/>
@@ -14658,7 +14930,7 @@
       <c r="K177" s="58"/>
     </row>
     <row r="178" spans="1:11">
-      <c r="A178" s="240"/>
+      <c r="A178" s="210"/>
       <c r="B178" s="58"/>
       <c r="C178" s="58"/>
       <c r="D178" s="58"/>
@@ -14670,7 +14942,7 @@
       <c r="K178" s="58"/>
     </row>
     <row r="179" spans="1:11">
-      <c r="A179" s="240"/>
+      <c r="A179" s="210"/>
       <c r="B179" s="58"/>
       <c r="C179" s="58"/>
       <c r="D179" s="58"/>
@@ -14682,7 +14954,7 @@
       <c r="K179" s="58"/>
     </row>
     <row r="180" spans="1:11">
-      <c r="A180" s="240"/>
+      <c r="A180" s="210"/>
       <c r="B180" s="58"/>
       <c r="C180" s="58"/>
       <c r="D180" s="58"/>
@@ -14694,7 +14966,7 @@
       <c r="K180" s="58"/>
     </row>
     <row r="181" spans="1:11">
-      <c r="A181" s="240"/>
+      <c r="A181" s="210"/>
       <c r="B181" s="58"/>
       <c r="C181" s="58"/>
       <c r="D181" s="58"/>
@@ -14706,7 +14978,7 @@
       <c r="K181" s="58"/>
     </row>
     <row r="182" spans="1:11">
-      <c r="A182" s="240"/>
+      <c r="A182" s="210"/>
       <c r="B182" s="58"/>
       <c r="C182" s="58"/>
       <c r="D182" s="58"/>
@@ -14718,7 +14990,7 @@
       <c r="K182" s="58"/>
     </row>
     <row r="183" spans="1:11">
-      <c r="A183" s="240"/>
+      <c r="A183" s="210"/>
       <c r="B183" s="58"/>
       <c r="C183" s="58"/>
       <c r="D183" s="58"/>
@@ -14730,7 +15002,7 @@
       <c r="K183" s="58"/>
     </row>
     <row r="184" spans="1:11">
-      <c r="A184" s="240"/>
+      <c r="A184" s="210"/>
       <c r="B184" s="58"/>
       <c r="C184" s="58"/>
       <c r="D184" s="58"/>
@@ -14742,7 +15014,7 @@
       <c r="K184" s="58"/>
     </row>
     <row r="185" spans="1:11">
-      <c r="A185" s="240"/>
+      <c r="A185" s="210"/>
       <c r="B185" s="58"/>
       <c r="C185" s="58"/>
       <c r="D185" s="58"/>
@@ -14754,7 +15026,7 @@
       <c r="K185" s="58"/>
     </row>
     <row r="186" spans="1:11">
-      <c r="A186" s="240"/>
+      <c r="A186" s="210"/>
       <c r="B186" s="58"/>
       <c r="C186" s="58"/>
       <c r="D186" s="58"/>
@@ -14766,7 +15038,7 @@
       <c r="K186" s="58"/>
     </row>
     <row r="187" spans="1:11">
-      <c r="A187" s="240"/>
+      <c r="A187" s="210"/>
       <c r="B187" s="58"/>
       <c r="C187" s="58"/>
       <c r="D187" s="58"/>
@@ -14778,7 +15050,7 @@
       <c r="K187" s="58"/>
     </row>
     <row r="188" spans="1:11">
-      <c r="A188" s="240"/>
+      <c r="A188" s="210"/>
       <c r="B188" s="58"/>
       <c r="C188" s="58"/>
       <c r="D188" s="58"/>
@@ -14790,7 +15062,7 @@
       <c r="K188" s="58"/>
     </row>
     <row r="189" spans="1:11">
-      <c r="A189" s="240"/>
+      <c r="A189" s="210"/>
       <c r="B189" s="58"/>
       <c r="C189" s="58"/>
       <c r="D189" s="58"/>
@@ -14802,7 +15074,7 @@
       <c r="K189" s="58"/>
     </row>
     <row r="190" spans="1:11">
-      <c r="A190" s="240"/>
+      <c r="A190" s="210"/>
       <c r="B190" s="58"/>
       <c r="C190" s="58"/>
       <c r="D190" s="58"/>
@@ -14814,7 +15086,7 @@
       <c r="K190" s="58"/>
     </row>
     <row r="191" spans="1:11">
-      <c r="A191" s="240"/>
+      <c r="A191" s="210"/>
       <c r="B191" s="58"/>
       <c r="C191" s="58"/>
       <c r="D191" s="58"/>
@@ -14826,7 +15098,7 @@
       <c r="K191" s="58"/>
     </row>
     <row r="192" spans="1:11">
-      <c r="A192" s="240"/>
+      <c r="A192" s="210"/>
       <c r="B192" s="58"/>
       <c r="C192" s="58"/>
       <c r="D192" s="58"/>
@@ -14838,7 +15110,7 @@
       <c r="K192" s="58"/>
     </row>
     <row r="193" spans="1:11">
-      <c r="A193" s="240"/>
+      <c r="A193" s="210"/>
       <c r="B193" s="58"/>
       <c r="C193" s="58"/>
       <c r="D193" s="58"/>
@@ -14850,7 +15122,7 @@
       <c r="K193" s="58"/>
     </row>
     <row r="194" spans="1:11">
-      <c r="A194" s="240"/>
+      <c r="A194" s="210"/>
       <c r="B194" s="58"/>
       <c r="C194" s="58"/>
       <c r="D194" s="58"/>
@@ -14862,7 +15134,7 @@
       <c r="K194" s="58"/>
     </row>
     <row r="195" spans="1:11">
-      <c r="A195" s="240"/>
+      <c r="A195" s="210"/>
       <c r="B195" s="58"/>
       <c r="C195" s="58"/>
       <c r="D195" s="58"/>
@@ -14874,7 +15146,7 @@
       <c r="K195" s="58"/>
     </row>
     <row r="196" spans="1:11">
-      <c r="A196" s="240"/>
+      <c r="A196" s="210"/>
       <c r="B196" s="58"/>
       <c r="C196" s="58"/>
       <c r="D196" s="58"/>
@@ -14886,7 +15158,7 @@
       <c r="K196" s="58"/>
     </row>
     <row r="197" spans="1:11">
-      <c r="A197" s="240"/>
+      <c r="A197" s="210"/>
       <c r="B197" s="58"/>
       <c r="C197" s="58"/>
       <c r="D197" s="58"/>
@@ -14898,7 +15170,7 @@
       <c r="K197" s="58"/>
     </row>
     <row r="198" spans="1:11">
-      <c r="A198" s="240"/>
+      <c r="A198" s="210"/>
       <c r="B198" s="58"/>
       <c r="C198" s="58"/>
       <c r="D198" s="58"/>
@@ -14910,7 +15182,7 @@
       <c r="K198" s="58"/>
     </row>
     <row r="199" spans="1:11">
-      <c r="A199" s="240"/>
+      <c r="A199" s="210"/>
       <c r="B199" s="58"/>
       <c r="C199" s="58"/>
       <c r="D199" s="58"/>
@@ -14922,7 +15194,7 @@
       <c r="K199" s="58"/>
     </row>
     <row r="200" spans="1:11">
-      <c r="A200" s="240"/>
+      <c r="A200" s="210"/>
       <c r="B200" s="58"/>
       <c r="C200" s="58"/>
       <c r="D200" s="58"/>
@@ -14934,7 +15206,7 @@
       <c r="K200" s="58"/>
     </row>
     <row r="201" spans="1:11">
-      <c r="A201" s="240"/>
+      <c r="A201" s="210"/>
       <c r="B201" s="58"/>
       <c r="C201" s="58"/>
       <c r="D201" s="58"/>
@@ -14946,7 +15218,7 @@
       <c r="K201" s="58"/>
     </row>
     <row r="202" spans="1:11">
-      <c r="A202" s="240"/>
+      <c r="A202" s="210"/>
       <c r="B202" s="58"/>
       <c r="C202" s="58"/>
       <c r="D202" s="58"/>
@@ -14958,7 +15230,7 @@
       <c r="K202" s="58"/>
     </row>
     <row r="203" spans="1:11">
-      <c r="A203" s="240"/>
+      <c r="A203" s="210"/>
       <c r="B203" s="58"/>
       <c r="C203" s="58"/>
       <c r="D203" s="58"/>
@@ -14970,7 +15242,7 @@
       <c r="K203" s="58"/>
     </row>
     <row r="204" spans="1:11">
-      <c r="A204" s="240"/>
+      <c r="A204" s="210"/>
       <c r="B204" s="58"/>
       <c r="C204" s="58"/>
       <c r="D204" s="58"/>
@@ -14982,7 +15254,7 @@
       <c r="K204" s="58"/>
     </row>
     <row r="205" spans="1:11">
-      <c r="A205" s="240"/>
+      <c r="A205" s="210"/>
       <c r="B205" s="58"/>
       <c r="C205" s="58"/>
       <c r="D205" s="58"/>
@@ -14994,7 +15266,7 @@
       <c r="K205" s="58"/>
     </row>
     <row r="206" spans="1:11">
-      <c r="A206" s="240"/>
+      <c r="A206" s="210"/>
       <c r="B206" s="58"/>
       <c r="C206" s="58"/>
       <c r="D206" s="58"/>
@@ -15006,7 +15278,7 @@
       <c r="K206" s="58"/>
     </row>
     <row r="207" spans="1:11">
-      <c r="A207" s="240"/>
+      <c r="A207" s="210"/>
       <c r="B207" s="58"/>
       <c r="C207" s="58"/>
       <c r="D207" s="58"/>
@@ -15018,7 +15290,7 @@
       <c r="K207" s="58"/>
     </row>
     <row r="208" spans="1:11">
-      <c r="A208" s="240"/>
+      <c r="A208" s="210"/>
       <c r="B208" s="58"/>
       <c r="C208" s="58"/>
       <c r="D208" s="58"/>
@@ -15030,7 +15302,7 @@
       <c r="K208" s="58"/>
     </row>
     <row r="209" spans="1:11">
-      <c r="A209" s="240"/>
+      <c r="A209" s="210"/>
       <c r="B209" s="58"/>
       <c r="C209" s="58"/>
       <c r="D209" s="58"/>
@@ -15042,7 +15314,7 @@
       <c r="K209" s="58"/>
     </row>
     <row r="210" spans="1:11">
-      <c r="A210" s="240"/>
+      <c r="A210" s="210"/>
       <c r="B210" s="58"/>
       <c r="C210" s="58"/>
       <c r="D210" s="58"/>
@@ -15054,7 +15326,7 @@
       <c r="K210" s="58"/>
     </row>
     <row r="211" spans="1:11">
-      <c r="A211" s="240"/>
+      <c r="A211" s="210"/>
       <c r="B211" s="58"/>
       <c r="C211" s="58"/>
       <c r="D211" s="58"/>
@@ -15066,7 +15338,7 @@
       <c r="K211" s="58"/>
     </row>
     <row r="212" spans="1:11">
-      <c r="A212" s="240"/>
+      <c r="A212" s="210"/>
       <c r="B212" s="58"/>
       <c r="C212" s="58"/>
       <c r="D212" s="58"/>
@@ -15078,7 +15350,7 @@
       <c r="K212" s="58"/>
     </row>
     <row r="213" spans="1:11">
-      <c r="A213" s="240"/>
+      <c r="A213" s="210"/>
       <c r="B213" s="58"/>
       <c r="C213" s="58"/>
       <c r="D213" s="58"/>
@@ -15090,7 +15362,7 @@
       <c r="K213" s="58"/>
     </row>
     <row r="214" spans="1:11">
-      <c r="A214" s="240"/>
+      <c r="A214" s="210"/>
       <c r="B214" s="58"/>
       <c r="C214" s="58"/>
       <c r="D214" s="58"/>
@@ -15102,7 +15374,7 @@
       <c r="K214" s="58"/>
     </row>
     <row r="215" spans="1:11">
-      <c r="A215" s="240"/>
+      <c r="A215" s="210"/>
       <c r="B215" s="58"/>
       <c r="C215" s="58"/>
       <c r="D215" s="58"/>
@@ -15114,7 +15386,7 @@
       <c r="K215" s="58"/>
     </row>
     <row r="216" spans="1:11">
-      <c r="A216" s="240"/>
+      <c r="A216" s="210"/>
       <c r="B216" s="58"/>
       <c r="C216" s="58"/>
       <c r="D216" s="58"/>
@@ -15126,7 +15398,7 @@
       <c r="K216" s="58"/>
     </row>
     <row r="217" spans="1:11">
-      <c r="A217" s="240"/>
+      <c r="A217" s="210"/>
       <c r="B217" s="58"/>
       <c r="C217" s="58"/>
       <c r="D217" s="58"/>
@@ -15138,7 +15410,7 @@
       <c r="K217" s="58"/>
     </row>
     <row r="218" spans="1:11">
-      <c r="A218" s="240"/>
+      <c r="A218" s="210"/>
       <c r="B218" s="58"/>
       <c r="C218" s="58"/>
       <c r="D218" s="58"/>
@@ -15150,7 +15422,7 @@
       <c r="K218" s="58"/>
     </row>
     <row r="219" spans="1:11">
-      <c r="A219" s="240"/>
+      <c r="A219" s="210"/>
       <c r="B219" s="58"/>
       <c r="C219" s="58"/>
       <c r="D219" s="58"/>
@@ -15162,7 +15434,7 @@
       <c r="K219" s="58"/>
     </row>
     <row r="220" spans="1:11">
-      <c r="A220" s="240"/>
+      <c r="A220" s="210"/>
       <c r="B220" s="58"/>
       <c r="C220" s="58"/>
       <c r="D220" s="58"/>
@@ -15174,7 +15446,7 @@
       <c r="K220" s="58"/>
     </row>
     <row r="221" spans="1:11">
-      <c r="A221" s="240"/>
+      <c r="A221" s="210"/>
       <c r="B221" s="58"/>
       <c r="C221" s="58"/>
       <c r="D221" s="58"/>
@@ -15186,7 +15458,7 @@
       <c r="K221" s="58"/>
     </row>
     <row r="222" spans="1:11">
-      <c r="A222" s="240"/>
+      <c r="A222" s="210"/>
       <c r="B222" s="58"/>
       <c r="C222" s="58"/>
       <c r="D222" s="58"/>
@@ -15198,7 +15470,7 @@
       <c r="K222" s="58"/>
     </row>
     <row r="223" spans="1:11">
-      <c r="A223" s="240"/>
+      <c r="A223" s="210"/>
       <c r="B223" s="58"/>
       <c r="C223" s="58"/>
       <c r="D223" s="58"/>
@@ -15210,7 +15482,7 @@
       <c r="K223" s="58"/>
     </row>
     <row r="224" spans="1:11">
-      <c r="A224" s="240"/>
+      <c r="A224" s="210"/>
       <c r="B224" s="58"/>
       <c r="C224" s="58"/>
       <c r="D224" s="58"/>
@@ -15222,7 +15494,7 @@
       <c r="K224" s="58"/>
     </row>
     <row r="225" spans="1:11">
-      <c r="A225" s="240"/>
+      <c r="A225" s="210"/>
       <c r="B225" s="58"/>
       <c r="C225" s="58"/>
       <c r="D225" s="58"/>
@@ -15234,7 +15506,7 @@
       <c r="K225" s="58"/>
     </row>
     <row r="226" spans="1:11">
-      <c r="A226" s="240"/>
+      <c r="A226" s="210"/>
       <c r="B226" s="58"/>
       <c r="C226" s="58"/>
       <c r="D226" s="58"/>
@@ -15246,7 +15518,7 @@
       <c r="K226" s="58"/>
     </row>
     <row r="227" spans="1:11">
-      <c r="A227" s="240"/>
+      <c r="A227" s="210"/>
       <c r="B227" s="58"/>
       <c r="C227" s="58"/>
       <c r="D227" s="58"/>
@@ -15258,7 +15530,7 @@
       <c r="K227" s="58"/>
     </row>
     <row r="228" spans="1:11">
-      <c r="A228" s="240"/>
+      <c r="A228" s="210"/>
       <c r="B228" s="58"/>
       <c r="C228" s="58"/>
       <c r="D228" s="58"/>
@@ -15270,7 +15542,7 @@
       <c r="K228" s="58"/>
     </row>
     <row r="229" spans="1:11">
-      <c r="A229" s="240"/>
+      <c r="A229" s="210"/>
       <c r="B229" s="58"/>
       <c r="C229" s="58"/>
       <c r="D229" s="58"/>
@@ -15282,7 +15554,7 @@
       <c r="K229" s="58"/>
     </row>
     <row r="230" spans="1:11">
-      <c r="A230" s="240"/>
+      <c r="A230" s="210"/>
       <c r="B230" s="58"/>
       <c r="C230" s="58"/>
       <c r="D230" s="58"/>
@@ -15294,7 +15566,7 @@
       <c r="K230" s="58"/>
     </row>
     <row r="231" spans="1:11">
-      <c r="A231" s="240"/>
+      <c r="A231" s="210"/>
       <c r="B231" s="58"/>
       <c r="C231" s="58"/>
       <c r="D231" s="58"/>
@@ -15306,7 +15578,7 @@
       <c r="K231" s="58"/>
     </row>
     <row r="232" spans="1:11">
-      <c r="A232" s="240"/>
+      <c r="A232" s="210"/>
       <c r="B232" s="58"/>
       <c r="C232" s="58"/>
       <c r="D232" s="58"/>
@@ -15318,7 +15590,7 @@
       <c r="K232" s="58"/>
     </row>
     <row r="233" spans="1:11">
-      <c r="A233" s="240"/>
+      <c r="A233" s="210"/>
       <c r="B233" s="58"/>
       <c r="C233" s="58"/>
       <c r="D233" s="58"/>
@@ -15330,7 +15602,7 @@
       <c r="K233" s="58"/>
     </row>
     <row r="234" spans="1:11">
-      <c r="A234" s="240"/>
+      <c r="A234" s="210"/>
       <c r="B234" s="58"/>
       <c r="C234" s="58"/>
       <c r="D234" s="58"/>
@@ -15342,7 +15614,7 @@
       <c r="K234" s="58"/>
     </row>
     <row r="235" spans="1:11">
-      <c r="A235" s="240"/>
+      <c r="A235" s="210"/>
       <c r="B235" s="58"/>
       <c r="C235" s="58"/>
       <c r="D235" s="58"/>
@@ -15354,7 +15626,7 @@
       <c r="K235" s="58"/>
     </row>
     <row r="236" spans="1:11">
-      <c r="A236" s="240"/>
+      <c r="A236" s="210"/>
       <c r="B236" s="58"/>
       <c r="C236" s="58"/>
       <c r="D236" s="58"/>
@@ -15366,7 +15638,7 @@
       <c r="K236" s="58"/>
     </row>
     <row r="237" spans="1:11">
-      <c r="A237" s="240"/>
+      <c r="A237" s="210"/>
       <c r="B237" s="58"/>
       <c r="C237" s="58"/>
       <c r="D237" s="58"/>
@@ -15378,7 +15650,7 @@
       <c r="K237" s="58"/>
     </row>
     <row r="238" spans="1:11">
-      <c r="A238" s="240"/>
+      <c r="A238" s="210"/>
       <c r="B238" s="58"/>
       <c r="C238" s="58"/>
       <c r="D238" s="58"/>
@@ -15390,7 +15662,7 @@
       <c r="K238" s="58"/>
     </row>
     <row r="239" spans="1:11">
-      <c r="A239" s="240"/>
+      <c r="A239" s="210"/>
       <c r="B239" s="58"/>
       <c r="C239" s="58"/>
       <c r="D239" s="58"/>
@@ -15402,7 +15674,7 @@
       <c r="K239" s="58"/>
     </row>
     <row r="240" spans="1:11">
-      <c r="A240" s="240"/>
+      <c r="A240" s="210"/>
       <c r="B240" s="58"/>
       <c r="C240" s="58"/>
       <c r="D240" s="58"/>
@@ -15414,7 +15686,7 @@
       <c r="K240" s="58"/>
     </row>
     <row r="241" spans="1:11">
-      <c r="A241" s="240"/>
+      <c r="A241" s="210"/>
       <c r="B241" s="58"/>
       <c r="C241" s="58"/>
       <c r="D241" s="58"/>
@@ -15426,7 +15698,7 @@
       <c r="K241" s="58"/>
     </row>
     <row r="242" spans="1:11">
-      <c r="A242" s="240"/>
+      <c r="A242" s="210"/>
       <c r="B242" s="58"/>
       <c r="C242" s="58"/>
       <c r="D242" s="58"/>
@@ -15438,7 +15710,7 @@
       <c r="K242" s="58"/>
     </row>
     <row r="243" spans="1:11">
-      <c r="A243" s="240"/>
+      <c r="A243" s="210"/>
       <c r="B243" s="58"/>
       <c r="C243" s="58"/>
       <c r="D243" s="58"/>
@@ -15450,7 +15722,7 @@
       <c r="K243" s="58"/>
     </row>
     <row r="244" spans="1:11">
-      <c r="A244" s="240"/>
+      <c r="A244" s="210"/>
       <c r="B244" s="58"/>
       <c r="C244" s="58"/>
       <c r="D244" s="58"/>
@@ -15462,7 +15734,7 @@
       <c r="K244" s="58"/>
     </row>
     <row r="245" spans="1:11">
-      <c r="A245" s="240"/>
+      <c r="A245" s="210"/>
       <c r="B245" s="58"/>
       <c r="C245" s="58"/>
       <c r="D245" s="58"/>
@@ -15474,7 +15746,7 @@
       <c r="K245" s="58"/>
     </row>
     <row r="246" spans="1:11">
-      <c r="A246" s="240"/>
+      <c r="A246" s="210"/>
       <c r="B246" s="58"/>
       <c r="C246" s="58"/>
       <c r="D246" s="58"/>
@@ -15486,7 +15758,7 @@
       <c r="K246" s="58"/>
     </row>
     <row r="247" spans="1:11">
-      <c r="A247" s="240"/>
+      <c r="A247" s="210"/>
       <c r="B247" s="58"/>
       <c r="C247" s="58"/>
       <c r="D247" s="58"/>
@@ -15498,7 +15770,7 @@
       <c r="K247" s="58"/>
     </row>
     <row r="248" spans="1:11">
-      <c r="A248" s="240"/>
+      <c r="A248" s="210"/>
       <c r="B248" s="58"/>
       <c r="C248" s="58"/>
       <c r="D248" s="58"/>
@@ -15510,7 +15782,7 @@
       <c r="K248" s="58"/>
     </row>
     <row r="249" spans="1:11">
-      <c r="A249" s="240"/>
+      <c r="A249" s="210"/>
       <c r="B249" s="58"/>
       <c r="C249" s="58"/>
       <c r="D249" s="58"/>
@@ -15522,7 +15794,7 @@
       <c r="K249" s="58"/>
     </row>
     <row r="250" spans="1:11">
-      <c r="A250" s="240"/>
+      <c r="A250" s="210"/>
       <c r="B250" s="58"/>
       <c r="C250" s="58"/>
       <c r="D250" s="58"/>
@@ -15534,7 +15806,7 @@
       <c r="K250" s="58"/>
     </row>
     <row r="251" spans="1:11">
-      <c r="A251" s="240"/>
+      <c r="A251" s="210"/>
       <c r="B251" s="58"/>
       <c r="C251" s="58"/>
       <c r="D251" s="58"/>
@@ -15546,7 +15818,7 @@
       <c r="K251" s="58"/>
     </row>
     <row r="252" spans="1:11">
-      <c r="A252" s="240"/>
+      <c r="A252" s="210"/>
       <c r="B252" s="58"/>
       <c r="C252" s="58"/>
       <c r="D252" s="58"/>
@@ -15558,7 +15830,7 @@
       <c r="K252" s="58"/>
     </row>
     <row r="253" spans="1:11">
-      <c r="A253" s="240"/>
+      <c r="A253" s="210"/>
       <c r="B253" s="58"/>
       <c r="C253" s="58"/>
       <c r="D253" s="58"/>
@@ -15570,7 +15842,7 @@
       <c r="K253" s="58"/>
     </row>
     <row r="254" spans="1:11">
-      <c r="A254" s="240"/>
+      <c r="A254" s="210"/>
       <c r="B254" s="58"/>
       <c r="C254" s="58"/>
       <c r="D254" s="58"/>
@@ -15582,7 +15854,7 @@
       <c r="K254" s="58"/>
     </row>
     <row r="255" spans="1:11">
-      <c r="A255" s="240"/>
+      <c r="A255" s="210"/>
       <c r="B255" s="58"/>
       <c r="C255" s="58"/>
       <c r="D255" s="58"/>
@@ -15594,7 +15866,7 @@
       <c r="K255" s="58"/>
     </row>
     <row r="256" spans="1:11">
-      <c r="A256" s="240"/>
+      <c r="A256" s="210"/>
       <c r="B256" s="58"/>
       <c r="C256" s="58"/>
       <c r="D256" s="58"/>
@@ -15606,7 +15878,7 @@
       <c r="K256" s="58"/>
     </row>
     <row r="257" spans="1:11">
-      <c r="A257" s="240"/>
+      <c r="A257" s="210"/>
       <c r="B257" s="58"/>
       <c r="C257" s="58"/>
       <c r="D257" s="58"/>
@@ -15618,7 +15890,7 @@
       <c r="K257" s="58"/>
     </row>
     <row r="258" spans="1:11">
-      <c r="A258" s="240"/>
+      <c r="A258" s="210"/>
       <c r="B258" s="58"/>
       <c r="C258" s="58"/>
       <c r="D258" s="58"/>
@@ -15630,7 +15902,7 @@
       <c r="K258" s="58"/>
     </row>
     <row r="259" spans="1:11">
-      <c r="A259" s="240"/>
+      <c r="A259" s="210"/>
       <c r="B259" s="58"/>
       <c r="C259" s="58"/>
       <c r="D259" s="58"/>
@@ -15642,7 +15914,7 @@
       <c r="K259" s="58"/>
     </row>
     <row r="260" spans="1:11">
-      <c r="A260" s="240"/>
+      <c r="A260" s="210"/>
       <c r="B260" s="58"/>
       <c r="C260" s="58"/>
       <c r="D260" s="58"/>
@@ -15654,7 +15926,7 @@
       <c r="K260" s="58"/>
     </row>
     <row r="261" spans="1:11">
-      <c r="A261" s="240"/>
+      <c r="A261" s="210"/>
       <c r="B261" s="58"/>
       <c r="C261" s="58"/>
       <c r="D261" s="58"/>
@@ -15666,7 +15938,7 @@
       <c r="K261" s="58"/>
     </row>
     <row r="262" spans="1:11">
-      <c r="A262" s="240"/>
+      <c r="A262" s="210"/>
       <c r="B262" s="58"/>
       <c r="C262" s="58"/>
       <c r="D262" s="58"/>
@@ -15678,7 +15950,7 @@
       <c r="K262" s="58"/>
     </row>
     <row r="263" spans="1:11">
-      <c r="A263" s="240"/>
+      <c r="A263" s="210"/>
       <c r="B263" s="58"/>
       <c r="C263" s="58"/>
       <c r="D263" s="58"/>
@@ -15690,7 +15962,7 @@
       <c r="K263" s="58"/>
     </row>
     <row r="264" spans="1:11">
-      <c r="A264" s="240"/>
+      <c r="A264" s="210"/>
       <c r="B264" s="58"/>
       <c r="C264" s="58"/>
       <c r="D264" s="58"/>
@@ -15702,7 +15974,7 @@
       <c r="K264" s="58"/>
     </row>
     <row r="265" spans="1:11">
-      <c r="A265" s="240"/>
+      <c r="A265" s="210"/>
       <c r="B265" s="58"/>
       <c r="C265" s="58"/>
       <c r="D265" s="58"/>
@@ -15714,7 +15986,7 @@
       <c r="K265" s="58"/>
     </row>
     <row r="266" spans="1:11">
-      <c r="A266" s="240"/>
+      <c r="A266" s="210"/>
       <c r="B266" s="58"/>
       <c r="C266" s="58"/>
       <c r="D266" s="58"/>
@@ -15726,7 +15998,7 @@
       <c r="K266" s="58"/>
     </row>
     <row r="267" spans="1:11">
-      <c r="A267" s="240"/>
+      <c r="A267" s="210"/>
       <c r="B267" s="58"/>
       <c r="C267" s="58"/>
       <c r="D267" s="58"/>
@@ -15738,7 +16010,7 @@
       <c r="K267" s="58"/>
     </row>
     <row r="268" spans="1:11">
-      <c r="A268" s="240"/>
+      <c r="A268" s="210"/>
       <c r="B268" s="58"/>
       <c r="C268" s="58"/>
       <c r="D268" s="58"/>
@@ -15750,7 +16022,7 @@
       <c r="K268" s="58"/>
     </row>
     <row r="269" spans="1:11">
-      <c r="A269" s="240"/>
+      <c r="A269" s="210"/>
       <c r="B269" s="58"/>
       <c r="C269" s="58"/>
       <c r="D269" s="58"/>
@@ -15762,7 +16034,7 @@
       <c r="K269" s="58"/>
     </row>
     <row r="270" spans="1:11">
-      <c r="A270" s="240"/>
+      <c r="A270" s="210"/>
       <c r="B270" s="58"/>
       <c r="C270" s="58"/>
       <c r="D270" s="58"/>
@@ -15774,7 +16046,7 @@
       <c r="K270" s="58"/>
     </row>
     <row r="271" spans="1:11">
-      <c r="A271" s="240"/>
+      <c r="A271" s="210"/>
       <c r="B271" s="58"/>
       <c r="C271" s="58"/>
       <c r="D271" s="58"/>
@@ -15786,7 +16058,7 @@
       <c r="K271" s="58"/>
     </row>
     <row r="272" spans="1:11">
-      <c r="A272" s="240"/>
+      <c r="A272" s="210"/>
       <c r="B272" s="58"/>
       <c r="C272" s="58"/>
       <c r="D272" s="58"/>
@@ -15798,7 +16070,7 @@
       <c r="K272" s="58"/>
     </row>
     <row r="273" spans="1:11">
-      <c r="A273" s="240"/>
+      <c r="A273" s="210"/>
       <c r="B273" s="58"/>
       <c r="C273" s="58"/>
       <c r="D273" s="58"/>
@@ -15810,7 +16082,7 @@
       <c r="K273" s="58"/>
     </row>
     <row r="274" spans="1:11">
-      <c r="A274" s="240"/>
+      <c r="A274" s="210"/>
       <c r="B274" s="58"/>
       <c r="C274" s="58"/>
       <c r="D274" s="58"/>
@@ -15822,7 +16094,7 @@
       <c r="K274" s="58"/>
     </row>
     <row r="275" spans="1:11">
-      <c r="A275" s="240"/>
+      <c r="A275" s="210"/>
       <c r="B275" s="58"/>
       <c r="C275" s="58"/>
       <c r="D275" s="58"/>
@@ -15834,7 +16106,7 @@
       <c r="K275" s="58"/>
     </row>
     <row r="276" spans="1:11">
-      <c r="A276" s="240"/>
+      <c r="A276" s="210"/>
       <c r="B276" s="58"/>
       <c r="C276" s="58"/>
       <c r="D276" s="58"/>
@@ -15846,7 +16118,7 @@
       <c r="K276" s="58"/>
     </row>
     <row r="277" spans="1:11">
-      <c r="A277" s="240"/>
+      <c r="A277" s="210"/>
       <c r="B277" s="58"/>
       <c r="C277" s="58"/>
       <c r="D277" s="58"/>
@@ -15858,7 +16130,7 @@
       <c r="K277" s="58"/>
     </row>
     <row r="278" spans="1:11">
-      <c r="A278" s="240"/>
+      <c r="A278" s="210"/>
       <c r="B278" s="58"/>
       <c r="C278" s="58"/>
       <c r="D278" s="58"/>
@@ -15870,7 +16142,7 @@
       <c r="K278" s="58"/>
     </row>
     <row r="279" spans="1:11">
-      <c r="A279" s="240"/>
+      <c r="A279" s="210"/>
       <c r="B279" s="58"/>
       <c r="C279" s="58"/>
       <c r="D279" s="58"/>
@@ -15882,7 +16154,7 @@
       <c r="K279" s="58"/>
     </row>
     <row r="280" spans="1:11">
-      <c r="A280" s="240"/>
+      <c r="A280" s="210"/>
       <c r="B280" s="58"/>
       <c r="C280" s="58"/>
       <c r="D280" s="58"/>
@@ -15894,7 +16166,7 @@
       <c r="K280" s="58"/>
     </row>
     <row r="281" spans="1:11">
-      <c r="A281" s="240"/>
+      <c r="A281" s="210"/>
       <c r="B281" s="58"/>
       <c r="C281" s="58"/>
       <c r="D281" s="58"/>
@@ -15906,7 +16178,7 @@
       <c r="K281" s="58"/>
     </row>
     <row r="282" spans="1:11">
-      <c r="A282" s="240"/>
+      <c r="A282" s="210"/>
       <c r="B282" s="58"/>
       <c r="C282" s="58"/>
       <c r="D282" s="58"/>
@@ -15918,7 +16190,7 @@
       <c r="K282" s="58"/>
     </row>
     <row r="283" spans="1:11">
-      <c r="A283" s="240"/>
+      <c r="A283" s="210"/>
       <c r="B283" s="58"/>
       <c r="C283" s="58"/>
       <c r="D283" s="58"/>
@@ -15930,7 +16202,7 @@
       <c r="K283" s="58"/>
     </row>
     <row r="284" spans="1:11">
-      <c r="A284" s="240"/>
+      <c r="A284" s="210"/>
       <c r="B284" s="58"/>
       <c r="C284" s="58"/>
       <c r="D284" s="58"/>
@@ -15942,7 +16214,7 @@
       <c r="K284" s="58"/>
     </row>
     <row r="285" spans="1:11">
-      <c r="A285" s="240"/>
+      <c r="A285" s="210"/>
       <c r="B285" s="58"/>
       <c r="C285" s="58"/>
       <c r="D285" s="58"/>
@@ -15954,7 +16226,7 @@
       <c r="K285" s="58"/>
     </row>
     <row r="286" spans="1:11">
-      <c r="A286" s="240"/>
+      <c r="A286" s="210"/>
       <c r="B286" s="58"/>
       <c r="C286" s="58"/>
       <c r="D286" s="58"/>
@@ -15966,7 +16238,7 @@
       <c r="K286" s="58"/>
     </row>
     <row r="287" spans="1:11">
-      <c r="A287" s="240"/>
+      <c r="A287" s="210"/>
       <c r="B287" s="58"/>
       <c r="C287" s="58"/>
       <c r="D287" s="58"/>
@@ -15978,7 +16250,7 @@
       <c r="K287" s="58"/>
     </row>
     <row r="288" spans="1:11">
-      <c r="A288" s="240"/>
+      <c r="A288" s="210"/>
       <c r="B288" s="58"/>
       <c r="C288" s="58"/>
       <c r="D288" s="58"/>
@@ -15990,7 +16262,7 @@
       <c r="K288" s="58"/>
     </row>
     <row r="289" spans="1:11">
-      <c r="A289" s="240"/>
+      <c r="A289" s="210"/>
       <c r="B289" s="58"/>
       <c r="C289" s="58"/>
       <c r="D289" s="58"/>
@@ -16002,7 +16274,7 @@
       <c r="K289" s="58"/>
     </row>
     <row r="290" spans="1:11">
-      <c r="A290" s="240"/>
+      <c r="A290" s="210"/>
       <c r="B290" s="58"/>
       <c r="C290" s="58"/>
       <c r="D290" s="58"/>
@@ -16014,7 +16286,7 @@
       <c r="K290" s="58"/>
     </row>
     <row r="291" spans="1:11">
-      <c r="A291" s="240"/>
+      <c r="A291" s="210"/>
       <c r="B291" s="58"/>
       <c r="C291" s="58"/>
       <c r="D291" s="58"/>
@@ -16026,7 +16298,7 @@
       <c r="K291" s="58"/>
     </row>
     <row r="292" spans="1:11">
-      <c r="A292" s="240"/>
+      <c r="A292" s="210"/>
       <c r="B292" s="58"/>
       <c r="C292" s="58"/>
       <c r="D292" s="58"/>
@@ -16038,7 +16310,7 @@
       <c r="K292" s="58"/>
     </row>
     <row r="293" spans="1:11">
-      <c r="A293" s="240"/>
+      <c r="A293" s="210"/>
       <c r="B293" s="58"/>
       <c r="C293" s="58"/>
       <c r="D293" s="58"/>
@@ -16050,7 +16322,7 @@
       <c r="K293" s="58"/>
     </row>
     <row r="294" spans="1:11">
-      <c r="A294" s="240"/>
+      <c r="A294" s="210"/>
       <c r="B294" s="58"/>
       <c r="C294" s="58"/>
       <c r="D294" s="58"/>
@@ -16062,7 +16334,7 @@
       <c r="K294" s="58"/>
     </row>
     <row r="295" spans="1:11">
-      <c r="A295" s="240"/>
+      <c r="A295" s="210"/>
       <c r="B295" s="58"/>
       <c r="C295" s="58"/>
       <c r="D295" s="58"/>
@@ -16074,7 +16346,7 @@
       <c r="K295" s="58"/>
     </row>
     <row r="296" spans="1:11">
-      <c r="A296" s="240"/>
+      <c r="A296" s="210"/>
       <c r="B296" s="58"/>
       <c r="C296" s="58"/>
       <c r="D296" s="58"/>
@@ -16086,7 +16358,7 @@
       <c r="K296" s="58"/>
     </row>
     <row r="297" spans="1:11">
-      <c r="A297" s="240"/>
+      <c r="A297" s="210"/>
       <c r="B297" s="58"/>
       <c r="C297" s="58"/>
       <c r="D297" s="58"/>
@@ -16098,7 +16370,7 @@
       <c r="K297" s="58"/>
     </row>
     <row r="298" spans="1:11">
-      <c r="A298" s="240"/>
+      <c r="A298" s="210"/>
       <c r="B298" s="58"/>
       <c r="C298" s="58"/>
       <c r="D298" s="58"/>
@@ -16110,7 +16382,7 @@
       <c r="K298" s="58"/>
     </row>
     <row r="299" spans="1:11">
-      <c r="A299" s="240"/>
+      <c r="A299" s="210"/>
       <c r="B299" s="58"/>
       <c r="C299" s="58"/>
       <c r="D299" s="58"/>
@@ -16122,7 +16394,7 @@
       <c r="K299" s="58"/>
     </row>
     <row r="300" spans="1:11">
-      <c r="A300" s="240"/>
+      <c r="A300" s="210"/>
       <c r="B300" s="58"/>
       <c r="C300" s="58"/>
       <c r="D300" s="58"/>
@@ -16134,7 +16406,7 @@
       <c r="K300" s="58"/>
     </row>
     <row r="301" spans="1:11">
-      <c r="A301" s="240"/>
+      <c r="A301" s="210"/>
       <c r="B301" s="58"/>
       <c r="C301" s="58"/>
       <c r="D301" s="58"/>
@@ -16146,7 +16418,7 @@
       <c r="K301" s="58"/>
     </row>
     <row r="302" spans="1:11">
-      <c r="A302" s="240"/>
+      <c r="A302" s="210"/>
       <c r="B302" s="58"/>
       <c r="C302" s="58"/>
       <c r="D302" s="58"/>
@@ -16158,7 +16430,7 @@
       <c r="K302" s="58"/>
     </row>
     <row r="303" spans="1:11">
-      <c r="A303" s="240"/>
+      <c r="A303" s="210"/>
       <c r="B303" s="58"/>
       <c r="C303" s="58"/>
       <c r="D303" s="58"/>
@@ -16170,7 +16442,7 @@
       <c r="K303" s="58"/>
     </row>
     <row r="304" spans="1:11">
-      <c r="A304" s="240"/>
+      <c r="A304" s="210"/>
       <c r="B304" s="58"/>
       <c r="C304" s="58"/>
       <c r="D304" s="58"/>
@@ -16182,7 +16454,7 @@
       <c r="K304" s="58"/>
     </row>
     <row r="305" spans="1:11">
-      <c r="A305" s="240"/>
+      <c r="A305" s="210"/>
       <c r="B305" s="58"/>
       <c r="C305" s="58"/>
       <c r="D305" s="58"/>
@@ -16194,7 +16466,7 @@
       <c r="K305" s="58"/>
     </row>
     <row r="306" spans="1:11">
-      <c r="A306" s="240"/>
+      <c r="A306" s="210"/>
       <c r="B306" s="58"/>
       <c r="C306" s="58"/>
       <c r="D306" s="58"/>
@@ -16206,7 +16478,7 @@
       <c r="K306" s="58"/>
     </row>
     <row r="307" spans="1:11">
-      <c r="A307" s="240"/>
+      <c r="A307" s="210"/>
       <c r="B307" s="58"/>
       <c r="C307" s="58"/>
       <c r="D307" s="58"/>
@@ -16218,7 +16490,7 @@
       <c r="K307" s="58"/>
     </row>
     <row r="308" spans="1:11">
-      <c r="A308" s="240"/>
+      <c r="A308" s="210"/>
       <c r="B308" s="58"/>
       <c r="C308" s="58"/>
       <c r="D308" s="58"/>
@@ -16230,7 +16502,7 @@
       <c r="K308" s="58"/>
     </row>
     <row r="309" spans="1:11">
-      <c r="A309" s="240"/>
+      <c r="A309" s="210"/>
       <c r="B309" s="58"/>
       <c r="C309" s="58"/>
       <c r="D309" s="58"/>
@@ -16242,7 +16514,7 @@
       <c r="K309" s="58"/>
     </row>
     <row r="310" spans="1:11">
-      <c r="A310" s="240"/>
+      <c r="A310" s="210"/>
       <c r="B310" s="58"/>
       <c r="C310" s="58"/>
       <c r="D310" s="58"/>
@@ -16254,7 +16526,7 @@
       <c r="K310" s="58"/>
     </row>
     <row r="311" spans="1:11">
-      <c r="A311" s="240"/>
+      <c r="A311" s="210"/>
       <c r="B311" s="58"/>
       <c r="C311" s="58"/>
       <c r="D311" s="58"/>
@@ -16266,7 +16538,7 @@
       <c r="K311" s="58"/>
     </row>
     <row r="312" spans="1:11">
-      <c r="A312" s="240"/>
+      <c r="A312" s="210"/>
       <c r="B312" s="58"/>
       <c r="C312" s="58"/>
       <c r="D312" s="58"/>
@@ -16278,7 +16550,7 @@
       <c r="K312" s="58"/>
     </row>
     <row r="313" spans="1:11">
-      <c r="A313" s="240"/>
+      <c r="A313" s="210"/>
       <c r="B313" s="58"/>
       <c r="C313" s="58"/>
       <c r="D313" s="58"/>
@@ -16290,7 +16562,7 @@
       <c r="K313" s="58"/>
     </row>
     <row r="314" spans="1:11">
-      <c r="A314" s="240"/>
+      <c r="A314" s="210"/>
       <c r="B314" s="58"/>
       <c r="C314" s="58"/>
       <c r="D314" s="58"/>
@@ -16302,7 +16574,7 @@
       <c r="K314" s="58"/>
     </row>
     <row r="315" spans="1:11">
-      <c r="A315" s="240"/>
+      <c r="A315" s="210"/>
       <c r="B315" s="58"/>
       <c r="C315" s="58"/>
       <c r="D315" s="58"/>
@@ -16314,7 +16586,7 @@
       <c r="K315" s="58"/>
     </row>
     <row r="316" spans="1:11">
-      <c r="A316" s="240"/>
+      <c r="A316" s="210"/>
       <c r="B316" s="58"/>
       <c r="C316" s="58"/>
       <c r="D316" s="58"/>
@@ -16326,7 +16598,7 @@
       <c r="K316" s="58"/>
     </row>
     <row r="317" spans="1:11">
-      <c r="A317" s="240"/>
+      <c r="A317" s="210"/>
       <c r="B317" s="58"/>
       <c r="C317" s="58"/>
       <c r="D317" s="58"/>
@@ -16338,7 +16610,7 @@
       <c r="K317" s="58"/>
     </row>
     <row r="318" spans="1:11">
-      <c r="A318" s="240"/>
+      <c r="A318" s="210"/>
       <c r="B318" s="58"/>
       <c r="C318" s="58"/>
       <c r="D318" s="58"/>
@@ -16350,7 +16622,7 @@
       <c r="K318" s="58"/>
     </row>
     <row r="319" spans="1:11">
-      <c r="A319" s="240"/>
+      <c r="A319" s="210"/>
       <c r="B319" s="58"/>
       <c r="C319" s="58"/>
       <c r="D319" s="58"/>
@@ -16362,7 +16634,7 @@
       <c r="K319" s="58"/>
     </row>
     <row r="320" spans="1:11">
-      <c r="A320" s="240"/>
+      <c r="A320" s="210"/>
       <c r="B320" s="58"/>
       <c r="C320" s="58"/>
       <c r="D320" s="58"/>
@@ -16374,7 +16646,7 @@
       <c r="K320" s="58"/>
     </row>
     <row r="321" spans="1:11">
-      <c r="A321" s="240"/>
+      <c r="A321" s="210"/>
       <c r="B321" s="58"/>
       <c r="C321" s="58"/>
       <c r="D321" s="58"/>
@@ -16386,7 +16658,7 @@
       <c r="K321" s="58"/>
     </row>
     <row r="322" spans="1:11">
-      <c r="A322" s="240"/>
+      <c r="A322" s="210"/>
       <c r="B322" s="58"/>
       <c r="C322" s="58"/>
       <c r="D322" s="58"/>
@@ -16398,7 +16670,7 @@
       <c r="K322" s="58"/>
     </row>
     <row r="323" spans="1:11">
-      <c r="A323" s="240"/>
+      <c r="A323" s="210"/>
       <c r="B323" s="58"/>
       <c r="C323" s="58"/>
       <c r="D323" s="58"/>
@@ -16410,7 +16682,7 @@
       <c r="K323" s="58"/>
     </row>
     <row r="324" spans="1:11">
-      <c r="A324" s="240"/>
+      <c r="A324" s="210"/>
       <c r="B324" s="58"/>
       <c r="C324" s="58"/>
       <c r="D324" s="58"/>
@@ -16422,7 +16694,7 @@
       <c r="K324" s="58"/>
     </row>
     <row r="325" spans="1:11">
-      <c r="A325" s="240"/>
+      <c r="A325" s="210"/>
       <c r="B325" s="58"/>
       <c r="C325" s="58"/>
       <c r="D325" s="58"/>
@@ -16434,7 +16706,7 @@
       <c r="K325" s="58"/>
     </row>
     <row r="326" spans="1:11">
-      <c r="A326" s="240"/>
+      <c r="A326" s="210"/>
       <c r="B326" s="58"/>
       <c r="C326" s="58"/>
       <c r="D326" s="58"/>
@@ -16446,7 +16718,7 @@
       <c r="K326" s="58"/>
     </row>
     <row r="327" spans="1:11">
-      <c r="A327" s="240"/>
+      <c r="A327" s="210"/>
       <c r="B327" s="58"/>
       <c r="C327" s="58"/>
       <c r="D327" s="58"/>
@@ -16458,7 +16730,7 @@
       <c r="K327" s="58"/>
     </row>
     <row r="328" spans="1:11">
-      <c r="A328" s="240"/>
+      <c r="A328" s="210"/>
       <c r="B328" s="58"/>
       <c r="C328" s="58"/>
       <c r="D328" s="58"/>
@@ -16470,7 +16742,7 @@
       <c r="K328" s="58"/>
     </row>
     <row r="329" spans="1:11">
-      <c r="A329" s="240"/>
+      <c r="A329" s="210"/>
       <c r="B329" s="58"/>
       <c r="C329" s="58"/>
       <c r="D329" s="58"/>
@@ -16482,7 +16754,7 @@
       <c r="K329" s="58"/>
     </row>
     <row r="330" spans="1:11">
-      <c r="A330" s="240"/>
+      <c r="A330" s="210"/>
       <c r="B330" s="58"/>
       <c r="C330" s="58"/>
       <c r="D330" s="58"/>
@@ -16494,7 +16766,7 @@
       <c r="K330" s="58"/>
     </row>
     <row r="331" spans="1:11">
-      <c r="A331" s="240"/>
+      <c r="A331" s="210"/>
       <c r="B331" s="58"/>
       <c r="C331" s="58"/>
       <c r="D331" s="58"/>
@@ -16506,7 +16778,7 @@
       <c r="K331" s="58"/>
     </row>
     <row r="332" spans="1:11">
-      <c r="A332" s="240"/>
+      <c r="A332" s="210"/>
       <c r="B332" s="58"/>
       <c r="C332" s="58"/>
       <c r="D332" s="58"/>
@@ -16518,7 +16790,7 @@
       <c r="K332" s="58"/>
     </row>
     <row r="333" spans="1:11">
-      <c r="A333" s="240"/>
+      <c r="A333" s="210"/>
       <c r="B333" s="58"/>
       <c r="C333" s="58"/>
       <c r="D333" s="58"/>
@@ -16530,7 +16802,7 @@
       <c r="K333" s="58"/>
     </row>
     <row r="334" spans="1:11">
-      <c r="A334" s="240"/>
+      <c r="A334" s="210"/>
       <c r="B334" s="58"/>
       <c r="C334" s="58"/>
       <c r="D334" s="58"/>
@@ -16542,7 +16814,7 @@
       <c r="K334" s="58"/>
     </row>
     <row r="335" spans="1:11">
-      <c r="A335" s="240"/>
+      <c r="A335" s="210"/>
       <c r="B335" s="58"/>
       <c r="C335" s="58"/>
       <c r="D335" s="58"/>
@@ -16554,7 +16826,7 @@
       <c r="K335" s="58"/>
     </row>
     <row r="336" spans="1:11">
-      <c r="A336" s="240"/>
+      <c r="A336" s="210"/>
       <c r="B336" s="58"/>
       <c r="C336" s="58"/>
       <c r="D336" s="58"/>
@@ -16566,7 +16838,7 @@
       <c r="K336" s="58"/>
     </row>
     <row r="337" spans="1:11">
-      <c r="A337" s="240"/>
+      <c r="A337" s="210"/>
       <c r="B337" s="58"/>
       <c r="C337" s="58"/>
       <c r="D337" s="58"/>
@@ -16578,7 +16850,7 @@
       <c r="K337" s="58"/>
     </row>
     <row r="338" spans="1:11">
-      <c r="A338" s="240"/>
+      <c r="A338" s="210"/>
       <c r="B338" s="58"/>
       <c r="C338" s="58"/>
       <c r="D338" s="58"/>
@@ -16590,7 +16862,7 @@
       <c r="K338" s="58"/>
     </row>
     <row r="339" spans="1:11">
-      <c r="A339" s="240"/>
+      <c r="A339" s="210"/>
       <c r="B339" s="58"/>
       <c r="C339" s="58"/>
       <c r="D339" s="58"/>
@@ -16602,7 +16874,7 @@
       <c r="K339" s="58"/>
     </row>
     <row r="340" spans="1:11">
-      <c r="A340" s="240"/>
+      <c r="A340" s="210"/>
       <c r="B340" s="58"/>
       <c r="C340" s="58"/>
       <c r="D340" s="58"/>
@@ -16614,7 +16886,7 @@
       <c r="K340" s="58"/>
     </row>
     <row r="341" spans="1:11">
-      <c r="A341" s="240"/>
+      <c r="A341" s="210"/>
       <c r="B341" s="58"/>
       <c r="C341" s="58"/>
       <c r="D341" s="58"/>
@@ -16626,7 +16898,7 @@
       <c r="K341" s="58"/>
     </row>
     <row r="342" spans="1:11">
-      <c r="A342" s="240"/>
+      <c r="A342" s="210"/>
       <c r="B342" s="58"/>
       <c r="C342" s="58"/>
       <c r="D342" s="58"/>
@@ -16638,7 +16910,7 @@
       <c r="K342" s="58"/>
     </row>
     <row r="343" spans="1:11">
-      <c r="A343" s="240"/>
+      <c r="A343" s="210"/>
       <c r="B343" s="58"/>
       <c r="C343" s="58"/>
       <c r="D343" s="58"/>
@@ -16650,7 +16922,7 @@
       <c r="K343" s="58"/>
     </row>
     <row r="344" spans="1:11">
-      <c r="A344" s="240"/>
+      <c r="A344" s="210"/>
       <c r="B344" s="58"/>
       <c r="C344" s="58"/>
       <c r="D344" s="58"/>
@@ -16662,7 +16934,7 @@
       <c r="K344" s="58"/>
     </row>
     <row r="345" spans="1:11">
-      <c r="A345" s="240"/>
+      <c r="A345" s="210"/>
       <c r="B345" s="58"/>
       <c r="C345" s="58"/>
       <c r="D345" s="58"/>
@@ -16674,7 +16946,7 @@
       <c r="K345" s="58"/>
     </row>
     <row r="346" spans="1:11">
-      <c r="A346" s="240"/>
+      <c r="A346" s="210"/>
       <c r="B346" s="58"/>
       <c r="C346" s="58"/>
       <c r="D346" s="58"/>
@@ -16686,7 +16958,7 @@
       <c r="K346" s="58"/>
     </row>
     <row r="347" spans="1:11">
-      <c r="A347" s="240"/>
+      <c r="A347" s="210"/>
       <c r="B347" s="58"/>
       <c r="C347" s="58"/>
       <c r="D347" s="58"/>
@@ -16698,7 +16970,7 @@
       <c r="K347" s="58"/>
     </row>
     <row r="348" spans="1:11">
-      <c r="A348" s="240"/>
+      <c r="A348" s="210"/>
       <c r="B348" s="58"/>
       <c r="C348" s="58"/>
       <c r="D348" s="58"/>
@@ -16710,7 +16982,7 @@
       <c r="K348" s="58"/>
     </row>
     <row r="349" spans="1:11">
-      <c r="A349" s="240"/>
+      <c r="A349" s="210"/>
       <c r="B349" s="58"/>
       <c r="C349" s="58"/>
       <c r="D349" s="58"/>
@@ -16722,7 +16994,7 @@
       <c r="K349" s="58"/>
     </row>
     <row r="350" spans="1:11">
-      <c r="A350" s="240"/>
+      <c r="A350" s="210"/>
       <c r="B350" s="58"/>
       <c r="C350" s="58"/>
       <c r="D350" s="58"/>
@@ -16734,7 +17006,7 @@
       <c r="K350" s="58"/>
     </row>
     <row r="351" spans="1:11">
-      <c r="A351" s="240"/>
+      <c r="A351" s="210"/>
       <c r="B351" s="58"/>
       <c r="C351" s="58"/>
       <c r="D351" s="58"/>
@@ -16746,7 +17018,7 @@
       <c r="K351" s="58"/>
     </row>
     <row r="352" spans="1:11">
-      <c r="A352" s="240"/>
+      <c r="A352" s="210"/>
       <c r="B352" s="58"/>
       <c r="C352" s="58"/>
       <c r="D352" s="58"/>
@@ -16758,7 +17030,7 @@
       <c r="K352" s="58"/>
     </row>
     <row r="353" spans="1:11">
-      <c r="A353" s="240"/>
+      <c r="A353" s="210"/>
       <c r="B353" s="58"/>
       <c r="C353" s="58"/>
       <c r="D353" s="58"/>
@@ -16770,7 +17042,7 @@
       <c r="K353" s="58"/>
     </row>
     <row r="354" spans="1:11">
-      <c r="A354" s="240"/>
+      <c r="A354" s="210"/>
       <c r="B354" s="58"/>
       <c r="C354" s="58"/>
       <c r="D354" s="58"/>
@@ -16782,7 +17054,7 @@
       <c r="K354" s="58"/>
     </row>
     <row r="355" spans="1:11">
-      <c r="A355" s="240"/>
+      <c r="A355" s="210"/>
       <c r="B355" s="58"/>
       <c r="C355" s="58"/>
       <c r="D355" s="58"/>
@@ -16794,7 +17066,7 @@
       <c r="K355" s="58"/>
     </row>
     <row r="356" spans="1:11">
-      <c r="A356" s="240"/>
+      <c r="A356" s="210"/>
       <c r="B356" s="58"/>
       <c r="C356" s="58"/>
       <c r="D356" s="58"/>
@@ -16806,7 +17078,7 @@
       <c r="K356" s="58"/>
     </row>
     <row r="357" spans="1:11">
-      <c r="A357" s="240"/>
+      <c r="A357" s="210"/>
       <c r="B357" s="58"/>
       <c r="C357" s="58"/>
       <c r="D357" s="58"/>
@@ -16818,7 +17090,7 @@
       <c r="K357" s="58"/>
     </row>
     <row r="358" spans="1:11">
-      <c r="A358" s="240"/>
+      <c r="A358" s="210"/>
       <c r="B358" s="58"/>
       <c r="C358" s="58"/>
       <c r="D358" s="58"/>
@@ -16830,7 +17102,7 @@
       <c r="K358" s="58"/>
     </row>
     <row r="359" spans="1:11">
-      <c r="A359" s="240"/>
+      <c r="A359" s="210"/>
       <c r="B359" s="58"/>
       <c r="C359" s="58"/>
       <c r="D359" s="58"/>
@@ -16842,7 +17114,7 @@
       <c r="K359" s="58"/>
     </row>
     <row r="360" spans="1:11">
-      <c r="A360" s="240"/>
+      <c r="A360" s="210"/>
       <c r="B360" s="58"/>
       <c r="C360" s="58"/>
       <c r="D360" s="58"/>
@@ -16854,7 +17126,7 @@
       <c r="K360" s="58"/>
     </row>
     <row r="361" spans="1:11">
-      <c r="A361" s="240"/>
+      <c r="A361" s="210"/>
       <c r="B361" s="58"/>
       <c r="C361" s="58"/>
       <c r="D361" s="58"/>
@@ -16866,7 +17138,7 @@
       <c r="K361" s="58"/>
     </row>
     <row r="362" spans="1:11">
-      <c r="A362" s="240"/>
+      <c r="A362" s="210"/>
       <c r="B362" s="58"/>
       <c r="C362" s="58"/>
       <c r="D362" s="58"/>
@@ -16878,7 +17150,7 @@
       <c r="K362" s="58"/>
     </row>
     <row r="363" spans="1:11">
-      <c r="A363" s="240"/>
+      <c r="A363" s="210"/>
       <c r="B363" s="58"/>
       <c r="C363" s="58"/>
       <c r="D363" s="58"/>
@@ -16890,7 +17162,7 @@
       <c r="K363" s="58"/>
     </row>
     <row r="364" spans="1:11">
-      <c r="A364" s="240"/>
+      <c r="A364" s="210"/>
       <c r="B364" s="58"/>
       <c r="C364" s="58"/>
       <c r="D364" s="58"/>
@@ -16902,7 +17174,7 @@
       <c r="K364" s="58"/>
     </row>
     <row r="365" spans="1:11">
-      <c r="A365" s="240"/>
+      <c r="A365" s="210"/>
       <c r="B365" s="58"/>
       <c r="C365" s="58"/>
       <c r="D365" s="58"/>
@@ -16914,7 +17186,7 @@
       <c r="K365" s="58"/>
     </row>
     <row r="366" spans="1:11">
-      <c r="A366" s="240"/>
+      <c r="A366" s="210"/>
       <c r="B366" s="58"/>
       <c r="C366" s="58"/>
       <c r="D366" s="58"/>
@@ -16926,7 +17198,7 @@
       <c r="K366" s="58"/>
     </row>
     <row r="367" spans="1:11">
-      <c r="A367" s="240"/>
+      <c r="A367" s="210"/>
       <c r="B367" s="58"/>
       <c r="C367" s="58"/>
       <c r="D367" s="58"/>
@@ -16938,7 +17210,7 @@
       <c r="K367" s="58"/>
     </row>
     <row r="368" spans="1:11">
-      <c r="A368" s="240"/>
+      <c r="A368" s="210"/>
       <c r="B368" s="58"/>
       <c r="C368" s="58"/>
       <c r="D368" s="58"/>
@@ -16950,7 +17222,7 @@
       <c r="K368" s="58"/>
     </row>
     <row r="369" spans="1:11">
-      <c r="A369" s="240"/>
+      <c r="A369" s="210"/>
       <c r="B369" s="58"/>
       <c r="C369" s="58"/>
       <c r="D369" s="58"/>
@@ -16962,7 +17234,7 @@
       <c r="K369" s="58"/>
     </row>
     <row r="370" spans="1:11">
-      <c r="A370" s="240"/>
+      <c r="A370" s="210"/>
       <c r="B370" s="58"/>
       <c r="C370" s="58"/>
       <c r="D370" s="58"/>
@@ -16974,7 +17246,7 @@
       <c r="K370" s="58"/>
     </row>
     <row r="371" spans="1:11">
-      <c r="A371" s="240"/>
+      <c r="A371" s="210"/>
       <c r="B371" s="58"/>
       <c r="C371" s="58"/>
       <c r="D371" s="58"/>
@@ -16986,7 +17258,7 @@
       <c r="K371" s="58"/>
     </row>
     <row r="372" spans="1:11">
-      <c r="A372" s="240"/>
+      <c r="A372" s="210"/>
       <c r="B372" s="58"/>
       <c r="C372" s="58"/>
       <c r="D372" s="58"/>
@@ -16998,7 +17270,7 @@
       <c r="K372" s="58"/>
     </row>
     <row r="373" spans="1:11">
-      <c r="A373" s="240"/>
+      <c r="A373" s="210"/>
       <c r="B373" s="58"/>
       <c r="C373" s="58"/>
       <c r="D373" s="58"/>
@@ -17010,7 +17282,7 @@
       <c r="K373" s="58"/>
     </row>
     <row r="374" spans="1:11">
-      <c r="A374" s="240"/>
+      <c r="A374" s="210"/>
       <c r="B374" s="58"/>
       <c r="C374" s="58"/>
       <c r="D374" s="58"/>
@@ -17022,7 +17294,7 @@
       <c r="K374" s="58"/>
     </row>
     <row r="375" spans="1:11">
-      <c r="A375" s="240"/>
+      <c r="A375" s="210"/>
       <c r="B375" s="58"/>
       <c r="C375" s="58"/>
       <c r="D375" s="58"/>
@@ -17034,7 +17306,7 @@
       <c r="K375" s="58"/>
     </row>
     <row r="376" spans="1:11">
-      <c r="A376" s="240"/>
+      <c r="A376" s="210"/>
       <c r="B376" s="58"/>
       <c r="C376" s="58"/>
       <c r="D376" s="58"/>
@@ -17046,7 +17318,7 @@
       <c r="K376" s="58"/>
     </row>
     <row r="377" spans="1:11">
-      <c r="A377" s="240"/>
+      <c r="A377" s="210"/>
       <c r="B377" s="58"/>
       <c r="C377" s="58"/>
       <c r="D377" s="58"/>
@@ -17058,7 +17330,7 @@
       <c r="K377" s="58"/>
     </row>
     <row r="378" spans="1:11">
-      <c r="A378" s="240"/>
+      <c r="A378" s="210"/>
       <c r="B378" s="58"/>
       <c r="C378" s="58"/>
       <c r="D378" s="58"/>
@@ -17070,7 +17342,7 @@
       <c r="K378" s="58"/>
     </row>
     <row r="379" spans="1:11">
-      <c r="A379" s="240"/>
+      <c r="A379" s="210"/>
       <c r="B379" s="58"/>
       <c r="C379" s="58"/>
       <c r="D379" s="58"/>
@@ -17082,7 +17354,7 @@
       <c r="K379" s="58"/>
     </row>
     <row r="380" spans="1:11">
-      <c r="A380" s="240"/>
+      <c r="A380" s="210"/>
       <c r="B380" s="58"/>
       <c r="C380" s="58"/>
       <c r="D380" s="58"/>
@@ -17094,7 +17366,7 @@
       <c r="K380" s="58"/>
     </row>
     <row r="381" spans="1:11">
-      <c r="A381" s="240"/>
+      <c r="A381" s="210"/>
       <c r="B381" s="58"/>
       <c r="C381" s="58"/>
       <c r="D381" s="58"/>
@@ -17106,7 +17378,7 @@
       <c r="K381" s="58"/>
     </row>
     <row r="382" spans="1:11">
-      <c r="A382" s="240"/>
+      <c r="A382" s="210"/>
       <c r="B382" s="58"/>
       <c r="C382" s="58"/>
       <c r="D382" s="58"/>
@@ -17118,7 +17390,7 @@
       <c r="K382" s="58"/>
     </row>
     <row r="383" spans="1:11">
-      <c r="A383" s="240"/>
+      <c r="A383" s="210"/>
       <c r="B383" s="58"/>
       <c r="C383" s="58"/>
       <c r="D383" s="58"/>
@@ -17130,7 +17402,7 @@
       <c r="K383" s="58"/>
     </row>
     <row r="384" spans="1:11">
-      <c r="A384" s="240"/>
+      <c r="A384" s="210"/>
       <c r="B384" s="58"/>
       <c r="C384" s="58"/>
       <c r="D384" s="58"/>
@@ -17142,7 +17414,7 @@
       <c r="K384" s="58"/>
     </row>
     <row r="385" spans="1:11">
-      <c r="A385" s="240"/>
+      <c r="A385" s="210"/>
       <c r="B385" s="58"/>
       <c r="C385" s="58"/>
       <c r="D385" s="58"/>
@@ -17154,7 +17426,7 @@
       <c r="K385" s="58"/>
     </row>
     <row r="386" spans="1:11">
-      <c r="A386" s="240"/>
+      <c r="A386" s="210"/>
       <c r="B386" s="58"/>
       <c r="C386" s="58"/>
       <c r="D386" s="58"/>
@@ -17166,7 +17438,7 @@
       <c r="K386" s="58"/>
     </row>
     <row r="387" spans="1:11">
-      <c r="A387" s="240"/>
+      <c r="A387" s="210"/>
       <c r="B387" s="58"/>
       <c r="C387" s="58"/>
       <c r="D387" s="58"/>
@@ -17178,7 +17450,7 @@
       <c r="K387" s="58"/>
     </row>
     <row r="388" spans="1:11">
-      <c r="A388" s="240"/>
+      <c r="A388" s="210"/>
       <c r="B388" s="58"/>
       <c r="C388" s="58"/>
       <c r="D388" s="58"/>
@@ -17190,7 +17462,7 @@
       <c r="K388" s="58"/>
     </row>
     <row r="389" spans="1:11">
-      <c r="A389" s="240"/>
+      <c r="A389" s="210"/>
       <c r="B389" s="58"/>
       <c r="C389" s="58"/>
       <c r="D389" s="58"/>
@@ -17202,7 +17474,7 @@
       <c r="K389" s="58"/>
     </row>
     <row r="390" spans="1:11">
-      <c r="A390" s="240"/>
+      <c r="A390" s="210"/>
       <c r="B390" s="58"/>
       <c r="C390" s="58"/>
       <c r="D390" s="58"/>
@@ -17214,7 +17486,7 @@
       <c r="K390" s="58"/>
     </row>
     <row r="391" spans="1:11">
-      <c r="A391" s="240"/>
+      <c r="A391" s="210"/>
       <c r="B391" s="58"/>
       <c r="C391" s="58"/>
       <c r="D391" s="58"/>
@@ -17226,7 +17498,7 @@
       <c r="K391" s="58"/>
     </row>
     <row r="392" spans="1:11">
-      <c r="A392" s="240"/>
+      <c r="A392" s="210"/>
       <c r="B392" s="58"/>
       <c r="C392" s="58"/>
       <c r="D392" s="58"/>
@@ -17238,7 +17510,7 @@
       <c r="K392" s="58"/>
     </row>
     <row r="393" spans="1:11">
-      <c r="A393" s="240"/>
+      <c r="A393" s="210"/>
       <c r="B393" s="58"/>
       <c r="C393" s="58"/>
       <c r="D393" s="58"/>
@@ -17250,7 +17522,7 @@
       <c r="K393" s="58"/>
     </row>
     <row r="394" spans="1:11">
-      <c r="A394" s="240"/>
+      <c r="A394" s="210"/>
       <c r="B394" s="58"/>
       <c r="C394" s="58"/>
       <c r="D394" s="58"/>
@@ -17262,7 +17534,7 @@
       <c r="K394" s="58"/>
     </row>
     <row r="395" spans="1:11">
-      <c r="A395" s="240"/>
+      <c r="A395" s="210"/>
       <c r="B395" s="58"/>
       <c r="C395" s="58"/>
       <c r="D395" s="58"/>
@@ -17274,7 +17546,7 @@
       <c r="K395" s="58"/>
     </row>
     <row r="396" spans="1:11">
-      <c r="A396" s="240"/>
+      <c r="A396" s="210"/>
       <c r="B396" s="58"/>
       <c r="C396" s="58"/>
       <c r="D396" s="58"/>
@@ -17286,7 +17558,7 @@
       <c r="K396" s="58"/>
     </row>
     <row r="397" spans="1:11">
-      <c r="A397" s="240"/>
+      <c r="A397" s="210"/>
       <c r="B397" s="58"/>
       <c r="C397" s="58"/>
       <c r="D397" s="58"/>
@@ -17298,7 +17570,7 @@
       <c r="K397" s="58"/>
     </row>
     <row r="398" spans="1:11">
-      <c r="A398" s="240"/>
+      <c r="A398" s="210"/>
       <c r="B398" s="58"/>
       <c r="C398" s="58"/>
       <c r="D398" s="58"/>
@@ -17310,7 +17582,7 @@
       <c r="K398" s="58"/>
     </row>
     <row r="399" spans="1:11">
-      <c r="A399" s="240"/>
+      <c r="A399" s="210"/>
       <c r="B399" s="58"/>
       <c r="C399" s="58"/>
       <c r="D399" s="58"/>
@@ -17322,7 +17594,7 @@
       <c r="K399" s="58"/>
     </row>
     <row r="400" spans="1:11">
-      <c r="A400" s="240"/>
+      <c r="A400" s="210"/>
       <c r="B400" s="58"/>
       <c r="C400" s="58"/>
       <c r="D400" s="58"/>
@@ -17334,7 +17606,7 @@
       <c r="K400" s="58"/>
     </row>
     <row r="401" spans="1:11">
-      <c r="A401" s="240"/>
+      <c r="A401" s="210"/>
       <c r="B401" s="58"/>
       <c r="C401" s="58"/>
       <c r="D401" s="58"/>
@@ -17346,7 +17618,7 @@
       <c r="K401" s="58"/>
     </row>
     <row r="402" spans="1:11">
-      <c r="A402" s="240"/>
+      <c r="A402" s="210"/>
       <c r="B402" s="58"/>
       <c r="C402" s="58"/>
       <c r="D402" s="58"/>
@@ -17358,7 +17630,7 @@
       <c r="K402" s="58"/>
     </row>
     <row r="403" spans="1:11">
-      <c r="A403" s="240"/>
+      <c r="A403" s="210"/>
       <c r="B403" s="58"/>
       <c r="C403" s="58"/>
       <c r="D403" s="58"/>
@@ -17370,7 +17642,7 @@
       <c r="K403" s="58"/>
     </row>
     <row r="404" spans="1:11">
-      <c r="A404" s="240"/>
+      <c r="A404" s="210"/>
       <c r="B404" s="58"/>
       <c r="C404" s="58"/>
       <c r="D404" s="58"/>
@@ -17382,7 +17654,7 @@
       <c r="K404" s="58"/>
     </row>
     <row r="405" spans="1:11">
-      <c r="A405" s="240"/>
+      <c r="A405" s="210"/>
       <c r="B405" s="58"/>
       <c r="C405" s="58"/>
       <c r="D405" s="58"/>
@@ -17394,7 +17666,7 @@
       <c r="K405" s="58"/>
     </row>
     <row r="406" spans="1:11">
-      <c r="A406" s="240"/>
+      <c r="A406" s="210"/>
       <c r="B406" s="58"/>
       <c r="C406" s="58"/>
       <c r="D406" s="58"/>
@@ -17406,7 +17678,7 @@
       <c r="K406" s="58"/>
     </row>
     <row r="407" spans="1:11">
-      <c r="A407" s="240"/>
+      <c r="A407" s="210"/>
       <c r="B407" s="58"/>
       <c r="C407" s="58"/>
       <c r="D407" s="58"/>
@@ -17418,7 +17690,7 @@
       <c r="K407" s="58"/>
     </row>
     <row r="408" spans="1:11">
-      <c r="A408" s="240"/>
+      <c r="A408" s="210"/>
       <c r="B408" s="58"/>
       <c r="C408" s="58"/>
       <c r="D408" s="58"/>
@@ -17430,7 +17702,7 @@
       <c r="K408" s="58"/>
     </row>
     <row r="409" spans="1:11">
-      <c r="A409" s="240"/>
+      <c r="A409" s="210"/>
       <c r="B409" s="58"/>
       <c r="C409" s="58"/>
       <c r="D409" s="58"/>
@@ -17442,7 +17714,7 @@
       <c r="K409" s="58"/>
     </row>
     <row r="410" spans="1:11">
-      <c r="A410" s="240"/>
+      <c r="A410" s="210"/>
       <c r="B410" s="58"/>
       <c r="C410" s="58"/>
       <c r="D410" s="58"/>
@@ -17454,7 +17726,7 @@
       <c r="K410" s="58"/>
     </row>
     <row r="411" spans="1:11">
-      <c r="A411" s="240"/>
+      <c r="A411" s="210"/>
       <c r="B411" s="58"/>
       <c r="C411" s="58"/>
       <c r="D411" s="58"/>
@@ -17466,7 +17738,7 @@
       <c r="K411" s="58"/>
     </row>
     <row r="412" spans="1:11">
-      <c r="A412" s="240"/>
+      <c r="A412" s="210"/>
       <c r="B412" s="58"/>
       <c r="C412" s="58"/>
       <c r="D412" s="58"/>
@@ -17478,7 +17750,7 @@
       <c r="K412" s="58"/>
     </row>
     <row r="413" spans="1:11">
-      <c r="A413" s="240"/>
+      <c r="A413" s="210"/>
       <c r="B413" s="58"/>
       <c r="C413" s="58"/>
       <c r="D413" s="58"/>
@@ -17490,7 +17762,7 @@
       <c r="K413" s="58"/>
     </row>
     <row r="414" spans="1:11">
-      <c r="A414" s="240"/>
+      <c r="A414" s="210"/>
       <c r="B414" s="58"/>
       <c r="C414" s="58"/>
       <c r="D414" s="58"/>
@@ -17502,7 +17774,7 @@
       <c r="K414" s="58"/>
     </row>
     <row r="415" spans="1:11">
-      <c r="A415" s="240"/>
+      <c r="A415" s="210"/>
       <c r="B415" s="58"/>
       <c r="C415" s="58"/>
       <c r="D415" s="58"/>
@@ -17514,7 +17786,7 @@
       <c r="K415" s="58"/>
     </row>
     <row r="416" spans="1:11">
-      <c r="A416" s="240"/>
+      <c r="A416" s="210"/>
       <c r="B416" s="58"/>
       <c r="C416" s="58"/>
       <c r="D416" s="58"/>
@@ -17526,7 +17798,7 @@
       <c r="K416" s="58"/>
     </row>
     <row r="417" spans="1:11">
-      <c r="A417" s="240"/>
+      <c r="A417" s="210"/>
       <c r="B417" s="58"/>
       <c r="C417" s="58"/>
       <c r="D417" s="58"/>
@@ -17538,7 +17810,7 @@
       <c r="K417" s="58"/>
     </row>
     <row r="418" spans="1:11">
-      <c r="A418" s="240"/>
+      <c r="A418" s="210"/>
       <c r="B418" s="58"/>
       <c r="C418" s="58"/>
       <c r="D418" s="58"/>
@@ -17550,7 +17822,7 @@
       <c r="K418" s="58"/>
     </row>
     <row r="419" spans="1:11">
-      <c r="A419" s="240"/>
+      <c r="A419" s="210"/>
       <c r="B419" s="58"/>
       <c r="C419" s="58"/>
       <c r="D419" s="58"/>
@@ -17562,7 +17834,7 @@
       <c r="K419" s="58"/>
     </row>
     <row r="420" spans="1:11">
-      <c r="A420" s="240"/>
+      <c r="A420" s="210"/>
       <c r="B420" s="58"/>
       <c r="C420" s="58"/>
       <c r="D420" s="58"/>
@@ -17574,7 +17846,7 @@
       <c r="K420" s="58"/>
     </row>
     <row r="421" spans="1:11">
-      <c r="A421" s="240"/>
+      <c r="A421" s="210"/>
       <c r="B421" s="58"/>
       <c r="C421" s="58"/>
       <c r="D421" s="58"/>
@@ -17586,7 +17858,7 @@
       <c r="K421" s="58"/>
     </row>
     <row r="422" spans="1:11">
-      <c r="A422" s="240"/>
+      <c r="A422" s="210"/>
       <c r="B422" s="58"/>
       <c r="C422" s="58"/>
       <c r="D422" s="58"/>
@@ -17598,7 +17870,7 @@
       <c r="K422" s="58"/>
     </row>
     <row r="423" spans="1:11">
-      <c r="A423" s="240"/>
+      <c r="A423" s="210"/>
       <c r="B423" s="58"/>
       <c r="C423" s="58"/>
       <c r="D423" s="58"/>
@@ -17610,7 +17882,7 @@
       <c r="K423" s="58"/>
     </row>
     <row r="424" spans="1:11">
-      <c r="A424" s="240"/>
+      <c r="A424" s="210"/>
       <c r="B424" s="58"/>
       <c r="C424" s="58"/>
       <c r="D424" s="58"/>
@@ -17622,7 +17894,7 @@
       <c r="K424" s="58"/>
     </row>
     <row r="425" spans="1:11">
-      <c r="A425" s="240"/>
+      <c r="A425" s="210"/>
       <c r="B425" s="58"/>
       <c r="C425" s="58"/>
       <c r="D425" s="58"/>
@@ -17634,7 +17906,7 @@
       <c r="K425" s="58"/>
     </row>
     <row r="426" spans="1:11">
-      <c r="A426" s="240"/>
+      <c r="A426" s="210"/>
       <c r="B426" s="58"/>
       <c r="C426" s="58"/>
       <c r="D426" s="58"/>
@@ -17646,7 +17918,7 @@
       <c r="K426" s="58"/>
     </row>
     <row r="427" spans="1:11">
-      <c r="A427" s="240"/>
+      <c r="A427" s="210"/>
       <c r="B427" s="58"/>
       <c r="C427" s="58"/>
       <c r="D427" s="58"/>
@@ -17658,7 +17930,7 @@
       <c r="K427" s="58"/>
     </row>
     <row r="428" spans="1:11">
-      <c r="A428" s="240"/>
+      <c r="A428" s="210"/>
       <c r="B428" s="58"/>
       <c r="C428" s="58"/>
       <c r="D428" s="58"/>
@@ -17670,7 +17942,7 @@
       <c r="K428" s="58"/>
     </row>
     <row r="429" spans="1:11">
-      <c r="A429" s="240"/>
+      <c r="A429" s="210"/>
       <c r="B429" s="58"/>
       <c r="C429" s="58"/>
       <c r="D429" s="58"/>
@@ -17682,7 +17954,7 @@
       <c r="K429" s="58"/>
     </row>
     <row r="430" spans="1:11">
-      <c r="A430" s="240"/>
+      <c r="A430" s="210"/>
       <c r="B430" s="58"/>
       <c r="C430" s="58"/>
       <c r="D430" s="58"/>
@@ -17694,7 +17966,7 @@
       <c r="K430" s="58"/>
     </row>
     <row r="431" spans="1:11">
-      <c r="A431" s="240"/>
+      <c r="A431" s="210"/>
       <c r="B431" s="58"/>
       <c r="C431" s="58"/>
       <c r="D431" s="58"/>
@@ -17706,7 +17978,7 @@
       <c r="K431" s="58"/>
     </row>
     <row r="432" spans="1:11">
-      <c r="A432" s="240"/>
+      <c r="A432" s="210"/>
       <c r="B432" s="58"/>
       <c r="C432" s="58"/>
       <c r="D432" s="58"/>
@@ -17718,7 +17990,7 @@
       <c r="K432" s="58"/>
     </row>
     <row r="433" spans="1:11">
-      <c r="A433" s="240"/>
+      <c r="A433" s="210"/>
       <c r="B433" s="58"/>
       <c r="C433" s="58"/>
       <c r="D433" s="58"/>
@@ -17730,7 +18002,7 @@
       <c r="K433" s="58"/>
     </row>
     <row r="434" spans="1:11">
-      <c r="A434" s="240"/>
+      <c r="A434" s="210"/>
       <c r="B434" s="58"/>
       <c r="C434" s="58"/>
       <c r="D434" s="58"/>
@@ -17742,7 +18014,7 @@
       <c r="K434" s="58"/>
     </row>
     <row r="435" spans="1:11">
-      <c r="A435" s="240"/>
+      <c r="A435" s="210"/>
       <c r="B435" s="58"/>
       <c r="C435" s="58"/>
       <c r="D435" s="58"/>
@@ -17754,7 +18026,7 @@
       <c r="K435" s="58"/>
     </row>
     <row r="436" spans="1:11">
-      <c r="A436" s="240"/>
+      <c r="A436" s="210"/>
       <c r="B436" s="58"/>
       <c r="C436" s="58"/>
       <c r="D436" s="58"/>
@@ -17766,7 +18038,7 @@
       <c r="K436" s="58"/>
     </row>
     <row r="437" spans="1:11">
-      <c r="A437" s="240"/>
+      <c r="A437" s="210"/>
       <c r="B437" s="58"/>
       <c r="C437" s="58"/>
       <c r="D437" s="58"/>
@@ -17778,7 +18050,7 @@
       <c r="K437" s="58"/>
     </row>
     <row r="438" spans="1:11">
-      <c r="A438" s="240"/>
+      <c r="A438" s="210"/>
       <c r="B438" s="58"/>
       <c r="C438" s="58"/>
       <c r="D438" s="58"/>
@@ -17790,7 +18062,7 @@
       <c r="K438" s="58"/>
     </row>
     <row r="439" spans="1:11">
-      <c r="A439" s="240"/>
+      <c r="A439" s="210"/>
       <c r="B439" s="58"/>
       <c r="C439" s="58"/>
       <c r="D439" s="58"/>
@@ -17802,7 +18074,7 @@
       <c r="K439" s="58"/>
     </row>
     <row r="440" spans="1:11">
-      <c r="A440" s="240"/>
+      <c r="A440" s="210"/>
       <c r="B440" s="58"/>
       <c r="C440" s="58"/>
       <c r="D440" s="58"/>
@@ -17814,7 +18086,7 @@
       <c r="K440" s="58"/>
     </row>
     <row r="441" spans="1:11">
-      <c r="A441" s="240"/>
+      <c r="A441" s="210"/>
       <c r="B441" s="58"/>
       <c r="C441" s="58"/>
       <c r="D441" s="58"/>
@@ -17826,7 +18098,7 @@
       <c r="K441" s="58"/>
     </row>
     <row r="442" spans="1:11">
-      <c r="A442" s="240"/>
+      <c r="A442" s="210"/>
       <c r="B442" s="58"/>
       <c r="C442" s="58"/>
       <c r="D442" s="58"/>
@@ -17838,7 +18110,7 @@
       <c r="K442" s="58"/>
     </row>
     <row r="443" spans="1:11">
-      <c r="A443" s="240"/>
+      <c r="A443" s="210"/>
       <c r="B443" s="58"/>
       <c r="C443" s="58"/>
       <c r="D443" s="58"/>
@@ -17850,7 +18122,7 @@
       <c r="K443" s="58"/>
     </row>
     <row r="444" spans="1:11">
-      <c r="A444" s="240"/>
+      <c r="A444" s="210"/>
       <c r="B444" s="58"/>
       <c r="C444" s="58"/>
       <c r="D444" s="58"/>
@@ -17862,7 +18134,7 @@
       <c r="K444" s="58"/>
     </row>
     <row r="445" spans="1:11">
-      <c r="A445" s="240"/>
+      <c r="A445" s="210"/>
       <c r="B445" s="58"/>
       <c r="C445" s="58"/>
       <c r="D445" s="58"/>
@@ -17874,7 +18146,7 @@
       <c r="K445" s="58"/>
     </row>
     <row r="446" spans="1:11">
-      <c r="A446" s="240"/>
+      <c r="A446" s="210"/>
       <c r="B446" s="58"/>
       <c r="C446" s="58"/>
       <c r="D446" s="58"/>
@@ -17886,7 +18158,7 @@
       <c r="K446" s="58"/>
     </row>
     <row r="447" spans="1:11">
-      <c r="A447" s="240"/>
+      <c r="A447" s="210"/>
       <c r="B447" s="58"/>
       <c r="C447" s="58"/>
       <c r="D447" s="58"/>
@@ -17898,7 +18170,7 @@
       <c r="K447" s="58"/>
     </row>
     <row r="448" spans="1:11">
-      <c r="A448" s="240"/>
+      <c r="A448" s="210"/>
       <c r="B448" s="58"/>
       <c r="C448" s="58"/>
       <c r="D448" s="58"/>
@@ -17910,7 +18182,7 @@
       <c r="K448" s="58"/>
     </row>
     <row r="449" spans="1:11">
-      <c r="A449" s="240"/>
+      <c r="A449" s="210"/>
       <c r="B449" s="58"/>
       <c r="C449" s="58"/>
       <c r="D449" s="58"/>
@@ -17922,7 +18194,7 @@
       <c r="K449" s="58"/>
     </row>
     <row r="450" spans="1:11">
-      <c r="A450" s="240"/>
+      <c r="A450" s="210"/>
       <c r="B450" s="58"/>
       <c r="C450" s="58"/>
       <c r="D450" s="58"/>
@@ -17934,7 +18206,7 @@
       <c r="K450" s="58"/>
     </row>
     <row r="451" spans="1:11">
-      <c r="A451" s="240"/>
+      <c r="A451" s="210"/>
       <c r="B451" s="58"/>
       <c r="C451" s="58"/>
       <c r="D451" s="58"/>
@@ -17946,7 +18218,7 @@
       <c r="K451" s="58"/>
     </row>
     <row r="452" spans="1:11">
-      <c r="A452" s="240"/>
+      <c r="A452" s="210"/>
       <c r="B452" s="58"/>
       <c r="C452" s="58"/>
       <c r="D452" s="58"/>
@@ -17958,7 +18230,7 @@
       <c r="K452" s="58"/>
     </row>
     <row r="453" spans="1:11">
-      <c r="A453" s="240"/>
+      <c r="A453" s="210"/>
       <c r="B453" s="58"/>
       <c r="C453" s="58"/>
       <c r="D453" s="58"/>
@@ -17970,7 +18242,7 @@
       <c r="K453" s="58"/>
     </row>
     <row r="454" spans="1:11">
-      <c r="A454" s="240"/>
+      <c r="A454" s="210"/>
       <c r="B454" s="58"/>
       <c r="C454" s="58"/>
       <c r="D454" s="58"/>
@@ -17982,7 +18254,7 @@
       <c r="K454" s="58"/>
     </row>
     <row r="455" spans="1:11">
-      <c r="A455" s="240"/>
+      <c r="A455" s="210"/>
       <c r="B455" s="58"/>
       <c r="C455" s="58"/>
       <c r="D455" s="58"/>
@@ -17994,7 +18266,7 @@
       <c r="K455" s="58"/>
     </row>
     <row r="456" spans="1:11">
-      <c r="A456" s="240"/>
+      <c r="A456" s="210"/>
       <c r="B456" s="58"/>
       <c r="C456" s="58"/>
       <c r="D456" s="58"/>
@@ -18006,7 +18278,7 @@
       <c r="K456" s="58"/>
     </row>
     <row r="457" spans="1:11">
-      <c r="A457" s="240"/>
+      <c r="A457" s="210"/>
       <c r="B457" s="58"/>
       <c r="C457" s="58"/>
       <c r="D457" s="58"/>
@@ -18018,7 +18290,7 @@
       <c r="K457" s="58"/>
     </row>
     <row r="458" spans="1:11">
-      <c r="A458" s="240"/>
+      <c r="A458" s="210"/>
       <c r="B458" s="58"/>
       <c r="C458" s="58"/>
       <c r="D458" s="58"/>
@@ -18030,7 +18302,7 @@
       <c r="K458" s="58"/>
     </row>
     <row r="459" spans="1:11">
-      <c r="A459" s="240"/>
+      <c r="A459" s="210"/>
       <c r="B459" s="58"/>
       <c r="C459" s="58"/>
       <c r="D459" s="58"/>
@@ -18042,7 +18314,7 @@
       <c r="K459" s="58"/>
     </row>
     <row r="460" spans="1:11">
-      <c r="A460" s="240"/>
+      <c r="A460" s="210"/>
       <c r="B460" s="58"/>
       <c r="C460" s="58"/>
       <c r="D460" s="58"/>
@@ -18054,7 +18326,7 @@
       <c r="K460" s="58"/>
     </row>
     <row r="461" spans="1:11">
-      <c r="A461" s="240"/>
+      <c r="A461" s="210"/>
       <c r="B461" s="58"/>
       <c r="C461" s="58"/>
       <c r="D461" s="58"/>
@@ -18066,7 +18338,7 @@
       <c r="K461" s="58"/>
     </row>
     <row r="462" spans="1:11">
-      <c r="A462" s="240"/>
+      <c r="A462" s="210"/>
       <c r="B462" s="58"/>
       <c r="C462" s="58"/>
       <c r="D462" s="58"/>
@@ -18078,7 +18350,7 @@
       <c r="K462" s="58"/>
     </row>
     <row r="463" spans="1:11">
-      <c r="A463" s="240"/>
+      <c r="A463" s="210"/>
       <c r="B463" s="58"/>
       <c r="C463" s="58"/>
       <c r="D463" s="58"/>
@@ -18090,7 +18362,7 @@
       <c r="K463" s="58"/>
     </row>
     <row r="464" spans="1:11">
-      <c r="A464" s="240"/>
+      <c r="A464" s="210"/>
       <c r="B464" s="58"/>
       <c r="C464" s="58"/>
       <c r="D464" s="58"/>
@@ -18102,7 +18374,7 @@
       <c r="K464" s="58"/>
     </row>
     <row r="465" spans="1:11">
-      <c r="A465" s="240"/>
+      <c r="A465" s="210"/>
       <c r="B465" s="58"/>
       <c r="C465" s="58"/>
       <c r="D465" s="58"/>
@@ -18114,7 +18386,7 @@
       <c r="K465" s="58"/>
     </row>
     <row r="466" spans="1:11">
-      <c r="A466" s="240"/>
+      <c r="A466" s="210"/>
       <c r="B466" s="58"/>
       <c r="C466" s="58"/>
       <c r="D466" s="58"/>
@@ -18126,7 +18398,7 @@
       <c r="K466" s="58"/>
     </row>
     <row r="467" spans="1:11">
-      <c r="A467" s="240"/>
+      <c r="A467" s="210"/>
       <c r="B467" s="58"/>
       <c r="C467" s="58"/>
       <c r="D467" s="58"/>
@@ -18138,7 +18410,7 @@
       <c r="K467" s="58"/>
     </row>
     <row r="468" spans="1:11">
-      <c r="A468" s="240"/>
+      <c r="A468" s="210"/>
       <c r="B468" s="58"/>
       <c r="C468" s="58"/>
       <c r="D468" s="58"/>
@@ -18150,7 +18422,7 @@
       <c r="K468" s="58"/>
     </row>
     <row r="469" spans="1:11">
-      <c r="A469" s="240"/>
+      <c r="A469" s="210"/>
       <c r="B469" s="58"/>
       <c r="C469" s="58"/>
       <c r="D469" s="58"/>
@@ -18162,7 +18434,7 @@
       <c r="K469" s="58"/>
     </row>
     <row r="470" spans="1:11">
-      <c r="A470" s="240"/>
+      <c r="A470" s="210"/>
       <c r="B470" s="58"/>
       <c r="C470" s="58"/>
       <c r="D470" s="58"/>
@@ -18174,7 +18446,7 @@
       <c r="K470" s="58"/>
     </row>
     <row r="471" spans="1:11">
-      <c r="A471" s="240"/>
+      <c r="A471" s="210"/>
       <c r="B471" s="58"/>
       <c r="C471" s="58"/>
       <c r="D471" s="58"/>
@@ -18186,7 +18458,7 @@
       <c r="K471" s="58"/>
     </row>
     <row r="472" spans="1:11">
-      <c r="A472" s="240"/>
+      <c r="A472" s="210"/>
       <c r="B472" s="58"/>
       <c r="C472" s="58"/>
       <c r="D472" s="58"/>
@@ -18198,7 +18470,7 @@
       <c r="K472" s="58"/>
     </row>
     <row r="473" spans="1:11">
-      <c r="A473" s="240"/>
+      <c r="A473" s="210"/>
       <c r="B473" s="58"/>
       <c r="C473" s="58"/>
       <c r="D473" s="58"/>
@@ -18210,7 +18482,7 @@
       <c r="K473" s="58"/>
     </row>
     <row r="474" spans="1:11">
-      <c r="A474" s="240"/>
+      <c r="A474" s="210"/>
       <c r="B474" s="58"/>
       <c r="C474" s="58"/>
       <c r="D474" s="58"/>
@@ -18222,7 +18494,7 @@
       <c r="K474" s="58"/>
     </row>
     <row r="475" spans="1:11">
-      <c r="A475" s="240"/>
+      <c r="A475" s="210"/>
       <c r="B475" s="58"/>
       <c r="C475" s="58"/>
       <c r="D475" s="58"/>
@@ -18234,7 +18506,7 @@
       <c r="K475" s="58"/>
     </row>
     <row r="476" spans="1:11">
-      <c r="A476" s="240"/>
+      <c r="A476" s="210"/>
       <c r="B476" s="58"/>
       <c r="C476" s="58"/>
       <c r="D476" s="58"/>
@@ -18246,7 +18518,7 @@
       <c r="K476" s="58"/>
     </row>
     <row r="477" spans="1:11">
-      <c r="A477" s="240"/>
+      <c r="A477" s="210"/>
       <c r="B477" s="58"/>
       <c r="C477" s="58"/>
       <c r="D477" s="58"/>
@@ -18258,7 +18530,7 @@
       <c r="K477" s="58"/>
     </row>
     <row r="478" spans="1:11">
-      <c r="A478" s="240"/>
+      <c r="A478" s="210"/>
       <c r="B478" s="58"/>
       <c r="C478" s="58"/>
       <c r="D478" s="58"/>
@@ -18270,7 +18542,7 @@
       <c r="K478" s="58"/>
     </row>
     <row r="479" spans="1:11">
-      <c r="A479" s="240"/>
+      <c r="A479" s="210"/>
       <c r="B479" s="58"/>
       <c r="C479" s="58"/>
       <c r="D479" s="58"/>
@@ -18282,7 +18554,7 @@
       <c r="K479" s="58"/>
     </row>
     <row r="480" spans="1:11">
-      <c r="A480" s="240"/>
+      <c r="A480" s="210"/>
       <c r="B480" s="58"/>
       <c r="C480" s="58"/>
       <c r="D480" s="58"/>
@@ -18294,7 +18566,7 @@
       <c r="K480" s="58"/>
     </row>
     <row r="481" spans="1:11">
-      <c r="A481" s="240"/>
+      <c r="A481" s="210"/>
       <c r="B481" s="58"/>
       <c r="C481" s="58"/>
       <c r="D481" s="58"/>
@@ -18306,7 +18578,7 @@
       <c r="K481" s="58"/>
     </row>
     <row r="482" spans="1:11">
-      <c r="A482" s="240"/>
+      <c r="A482" s="210"/>
       <c r="B482" s="58"/>
       <c r="C482" s="58"/>
       <c r="D482" s="58"/>
@@ -18318,7 +18590,7 @@
       <c r="K482" s="58"/>
     </row>
     <row r="483" spans="1:11">
-      <c r="A483" s="240"/>
+      <c r="A483" s="210"/>
       <c r="B483" s="58"/>
       <c r="C483" s="58"/>
       <c r="D483" s="58"/>
@@ -18330,7 +18602,7 @@
       <c r="K483" s="58"/>
     </row>
     <row r="484" spans="1:11">
-      <c r="A484" s="240"/>
+      <c r="A484" s="210"/>
       <c r="B484" s="58"/>
       <c r="C484" s="58"/>
       <c r="D484" s="58"/>
@@ -18342,7 +18614,7 @@
       <c r="K484" s="58"/>
     </row>
     <row r="485" spans="1:11">
-      <c r="A485" s="240"/>
+      <c r="A485" s="210"/>
       <c r="B485" s="58"/>
       <c r="C485" s="58"/>
       <c r="D485" s="58"/>
@@ -18354,7 +18626,7 @@
       <c r="K485" s="58"/>
     </row>
     <row r="486" spans="1:11">
-      <c r="A486" s="240"/>
+      <c r="A486" s="210"/>
       <c r="B486" s="58"/>
       <c r="C486" s="58"/>
       <c r="D486" s="58"/>
@@ -18366,7 +18638,7 @@
       <c r="K486" s="58"/>
     </row>
     <row r="487" spans="1:11">
-      <c r="A487" s="240"/>
+      <c r="A487" s="210"/>
       <c r="B487" s="58"/>
       <c r="C487" s="58"/>
       <c r="D487" s="58"/>
@@ -18378,7 +18650,7 @@
       <c r="K487" s="58"/>
     </row>
     <row r="488" spans="1:11">
-      <c r="A488" s="240"/>
+      <c r="A488" s="210"/>
       <c r="B488" s="58"/>
       <c r="C488" s="58"/>
       <c r="D488" s="58"/>
@@ -18390,7 +18662,7 @@
       <c r="K488" s="58"/>
     </row>
     <row r="489" spans="1:11">
-      <c r="A489" s="240"/>
+      <c r="A489" s="210"/>
       <c r="B489" s="58"/>
       <c r="C489" s="58"/>
       <c r="D489" s="58"/>
@@ -18402,7 +18674,7 @@
       <c r="K489" s="58"/>
     </row>
     <row r="490" spans="1:11">
-      <c r="A490" s="240"/>
+      <c r="A490" s="210"/>
       <c r="B490" s="58"/>
       <c r="C490" s="58"/>
       <c r="D490" s="58"/>
@@ -18414,7 +18686,7 @@
       <c r="K490" s="58"/>
     </row>
     <row r="491" spans="1:11">
-      <c r="A491" s="240"/>
+      <c r="A491" s="210"/>
       <c r="B491" s="58"/>
       <c r="C491" s="58"/>
       <c r="D491" s="58"/>
@@ -18426,7 +18698,7 @@
       <c r="K491" s="58"/>
     </row>
     <row r="492" spans="1:11">
-      <c r="A492" s="240"/>
+      <c r="A492" s="210"/>
       <c r="B492" s="58"/>
       <c r="C492" s="58"/>
       <c r="D492" s="58"/>
@@ -18438,7 +18710,7 @@
       <c r="K492" s="58"/>
     </row>
     <row r="493" spans="1:11">
-      <c r="A493" s="240"/>
+      <c r="A493" s="210"/>
       <c r="B493" s="58"/>
       <c r="C493" s="58"/>
       <c r="D493" s="58"/>
@@ -18450,7 +18722,7 @@
       <c r="K493" s="58"/>
     </row>
     <row r="494" spans="1:11">
-      <c r="A494" s="240"/>
+      <c r="A494" s="210"/>
       <c r="B494" s="58"/>
       <c r="C494" s="58"/>
       <c r="D494" s="58"/>
@@ -18462,7 +18734,7 @@
       <c r="K494" s="58"/>
     </row>
     <row r="495" spans="1:11">
-      <c r="A495" s="240"/>
+      <c r="A495" s="210"/>
       <c r="B495" s="58"/>
       <c r="C495" s="58"/>
       <c r="D495" s="58"/>
@@ -18474,7 +18746,7 @@
       <c r="K495" s="58"/>
     </row>
     <row r="496" spans="1:11">
-      <c r="A496" s="240"/>
+      <c r="A496" s="210"/>
       <c r="B496" s="58"/>
       <c r="C496" s="58"/>
       <c r="D496" s="58"/>
@@ -18486,7 +18758,7 @@
       <c r="K496" s="58"/>
     </row>
     <row r="497" spans="1:11">
-      <c r="A497" s="240"/>
+      <c r="A497" s="210"/>
       <c r="B497" s="58"/>
       <c r="C497" s="58"/>
       <c r="D497" s="58"/>
@@ -18498,7 +18770,7 @@
       <c r="K497" s="58"/>
     </row>
     <row r="498" spans="1:11">
-      <c r="A498" s="240"/>
+      <c r="A498" s="210"/>
       <c r="B498" s="58"/>
       <c r="C498" s="58"/>
       <c r="D498" s="58"/>
@@ -18510,7 +18782,7 @@
       <c r="K498" s="58"/>
     </row>
     <row r="499" spans="1:11">
-      <c r="A499" s="240"/>
+      <c r="A499" s="210"/>
       <c r="B499" s="58"/>
       <c r="C499" s="58"/>
       <c r="D499" s="58"/>
@@ -18522,7 +18794,7 @@
       <c r="K499" s="58"/>
     </row>
     <row r="500" spans="1:11">
-      <c r="A500" s="240"/>
+      <c r="A500" s="210"/>
       <c r="B500" s="58"/>
       <c r="C500" s="58"/>
       <c r="D500" s="58"/>
@@ -18534,7 +18806,7 @@
       <c r="K500" s="58"/>
     </row>
     <row r="501" spans="1:11">
-      <c r="A501" s="240"/>
+      <c r="A501" s="210"/>
       <c r="B501" s="58"/>
       <c r="C501" s="58"/>
       <c r="D501" s="58"/>
@@ -18546,7 +18818,7 @@
       <c r="K501" s="58"/>
     </row>
     <row r="502" spans="1:11">
-      <c r="A502" s="240"/>
+      <c r="A502" s="210"/>
       <c r="B502" s="58"/>
       <c r="C502" s="58"/>
       <c r="D502" s="58"/>
@@ -18558,7 +18830,7 @@
       <c r="K502" s="58"/>
     </row>
     <row r="503" spans="1:11">
-      <c r="A503" s="240"/>
+      <c r="A503" s="210"/>
       <c r="B503" s="58"/>
       <c r="C503" s="58"/>
       <c r="D503" s="58"/>
@@ -18570,7 +18842,7 @@
       <c r="K503" s="58"/>
     </row>
     <row r="504" spans="1:11">
-      <c r="A504" s="240"/>
+      <c r="A504" s="210"/>
       <c r="B504" s="58"/>
       <c r="C504" s="58"/>
       <c r="D504" s="58"/>
@@ -18582,7 +18854,7 @@
       <c r="K504" s="58"/>
     </row>
     <row r="505" spans="1:11">
-      <c r="A505" s="240"/>
+      <c r="A505" s="210"/>
       <c r="B505" s="58"/>
       <c r="C505" s="58"/>
       <c r="D505" s="58"/>
@@ -18594,7 +18866,7 @@
       <c r="K505" s="58"/>
     </row>
     <row r="506" spans="1:11">
-      <c r="A506" s="240"/>
+      <c r="A506" s="210"/>
       <c r="B506" s="58"/>
       <c r="C506" s="58"/>
       <c r="D506" s="58"/>
@@ -18606,7 +18878,7 @@
       <c r="K506" s="58"/>
     </row>
     <row r="507" spans="1:11">
-      <c r="A507" s="240"/>
+      <c r="A507" s="210"/>
       <c r="B507" s="58"/>
       <c r="C507" s="58"/>
       <c r="D507" s="58"/>
@@ -18618,7 +18890,7 @@
       <c r="K507" s="58"/>
     </row>
     <row r="508" spans="1:11">
-      <c r="A508" s="240"/>
+      <c r="A508" s="210"/>
       <c r="B508" s="58"/>
       <c r="C508" s="58"/>
       <c r="D508" s="58"/>
@@ -18630,7 +18902,7 @@
       <c r="K508" s="58"/>
     </row>
     <row r="509" spans="1:11">
-      <c r="A509" s="240"/>
+      <c r="A509" s="210"/>
       <c r="B509" s="58"/>
       <c r="C509" s="58"/>
       <c r="D509" s="58"/>
@@ -18642,7 +18914,7 @@
       <c r="K509" s="58"/>
     </row>
     <row r="510" spans="1:11">
-      <c r="A510" s="240"/>
+      <c r="A510" s="210"/>
       <c r="B510" s="58"/>
       <c r="C510" s="58"/>
       <c r="D510" s="58"/>
@@ -18654,7 +18926,7 @@
       <c r="K510" s="58"/>
     </row>
     <row r="511" spans="1:11">
-      <c r="A511" s="240"/>
+      <c r="A511" s="210"/>
       <c r="B511" s="58"/>
       <c r="C511" s="58"/>
       <c r="D511" s="58"/>
@@ -18666,7 +18938,7 @@
       <c r="K511" s="58"/>
     </row>
     <row r="512" spans="1:11">
-      <c r="A512" s="240"/>
+      <c r="A512" s="210"/>
       <c r="B512" s="58"/>
       <c r="C512" s="58"/>
       <c r="D512" s="58"/>
@@ -18678,7 +18950,7 @@
       <c r="K512" s="58"/>
     </row>
     <row r="513" spans="1:11">
-      <c r="A513" s="240"/>
+      <c r="A513" s="210"/>
       <c r="B513" s="58"/>
       <c r="C513" s="58"/>
       <c r="D513" s="58"/>
@@ -18690,7 +18962,7 @@
       <c r="K513" s="58"/>
     </row>
     <row r="514" spans="1:11">
-      <c r="A514" s="240"/>
+      <c r="A514" s="210"/>
       <c r="B514" s="58"/>
       <c r="C514" s="58"/>
       <c r="D514" s="58"/>
@@ -18702,7 +18974,7 @@
       <c r="K514" s="58"/>
     </row>
     <row r="515" spans="1:11">
-      <c r="A515" s="240"/>
+      <c r="A515" s="210"/>
       <c r="B515" s="58"/>
       <c r="C515" s="58"/>
       <c r="D515" s="58"/>
@@ -18714,7 +18986,7 @@
       <c r="K515" s="58"/>
     </row>
     <row r="516" spans="1:11">
-      <c r="A516" s="240"/>
+      <c r="A516" s="210"/>
       <c r="B516" s="58"/>
       <c r="C516" s="58"/>
       <c r="D516" s="58"/>
@@ -18726,7 +18998,7 @@
       <c r="K516" s="58"/>
     </row>
     <row r="517" spans="1:11">
-      <c r="A517" s="240"/>
+      <c r="A517" s="210"/>
       <c r="B517" s="58"/>
       <c r="C517" s="58"/>
       <c r="D517" s="58"/>
@@ -18738,7 +19010,7 @@
       <c r="K517" s="58"/>
     </row>
     <row r="518" spans="1:11">
-      <c r="A518" s="240"/>
+      <c r="A518" s="210"/>
       <c r="B518" s="58"/>
       <c r="C518" s="58"/>
       <c r="D518" s="58"/>
@@ -18750,7 +19022,7 @@
       <c r="K518" s="58"/>
     </row>
     <row r="519" spans="1:11">
-      <c r="A519" s="240"/>
+      <c r="A519" s="210"/>
       <c r="B519" s="58"/>
       <c r="C519" s="58"/>
       <c r="D519" s="58"/>
@@ -18762,7 +19034,7 @@
       <c r="K519" s="58"/>
     </row>
     <row r="520" spans="1:11">
-      <c r="A520" s="240"/>
+      <c r="A520" s="210"/>
       <c r="B520" s="58"/>
       <c r="C520" s="58"/>
       <c r="D520" s="58"/>
@@ -18774,7 +19046,7 @@
       <c r="K520" s="58"/>
     </row>
     <row r="521" spans="1:11">
-      <c r="A521" s="240"/>
+      <c r="A521" s="210"/>
       <c r="B521" s="58"/>
       <c r="C521" s="58"/>
       <c r="D521" s="58"/>
@@ -18786,7 +19058,7 @@
       <c r="K521" s="58"/>
     </row>
     <row r="522" spans="1:11">
-      <c r="A522" s="240"/>
+      <c r="A522" s="210"/>
       <c r="B522" s="58"/>
       <c r="C522" s="58"/>
       <c r="D522" s="58"/>
@@ -18798,7 +19070,7 @@
       <c r="K522" s="58"/>
     </row>
     <row r="523" spans="1:11">
-      <c r="A523" s="240"/>
+      <c r="A523" s="210"/>
       <c r="B523" s="58"/>
       <c r="C523" s="58"/>
       <c r="D523" s="58"/>
@@ -18810,7 +19082,7 @@
       <c r="K523" s="58"/>
     </row>
     <row r="524" spans="1:11">
-      <c r="A524" s="240"/>
+      <c r="A524" s="210"/>
       <c r="B524" s="58"/>
       <c r="C524" s="58"/>
       <c r="D524" s="58"/>
@@ -18822,7 +19094,7 @@
       <c r="K524" s="58"/>
     </row>
     <row r="525" spans="1:11">
-      <c r="A525" s="240"/>
+      <c r="A525" s="210"/>
       <c r="B525" s="58"/>
       <c r="C525" s="58"/>
       <c r="D525" s="58"/>
@@ -18834,7 +19106,7 @@
       <c r="K525" s="58"/>
     </row>
     <row r="526" spans="1:11">
-      <c r="A526" s="240"/>
+      <c r="A526" s="210"/>
       <c r="B526" s="58"/>
       <c r="C526" s="58"/>
       <c r="D526" s="58"/>
@@ -18846,7 +19118,7 @@
       <c r="K526" s="58"/>
     </row>
     <row r="527" spans="1:11">
-      <c r="A527" s="240"/>
+      <c r="A527" s="210"/>
       <c r="B527" s="58"/>
       <c r="C527" s="58"/>
       <c r="D527" s="58"/>
@@ -18858,7 +19130,7 @@
       <c r="K527" s="58"/>
     </row>
     <row r="528" spans="1:11">
-      <c r="A528" s="240"/>
+      <c r="A528" s="210"/>
       <c r="B528" s="58"/>
       <c r="C528" s="58"/>
       <c r="D528" s="58"/>
@@ -18870,7 +19142,7 @@
       <c r="K528" s="58"/>
     </row>
     <row r="529" spans="1:11">
-      <c r="A529" s="240"/>
+      <c r="A529" s="210"/>
       <c r="B529" s="58"/>
       <c r="C529" s="58"/>
       <c r="D529" s="58"/>
@@ -18882,7 +19154,7 @@
       <c r="K529" s="58"/>
     </row>
     <row r="530" spans="1:11">
-      <c r="A530" s="240"/>
+      <c r="A530" s="210"/>
       <c r="B530" s="58"/>
       <c r="C530" s="58"/>
       <c r="D530" s="58"/>
@@ -18894,7 +19166,7 @@
       <c r="K530" s="58"/>
     </row>
     <row r="531" spans="1:11">
-      <c r="A531" s="240"/>
+      <c r="A531" s="210"/>
       <c r="B531" s="58"/>
       <c r="C531" s="58"/>
       <c r="D531" s="58"/>
@@ -18906,7 +19178,7 @@
       <c r="K531" s="58"/>
     </row>
     <row r="532" spans="1:11">
-      <c r="A532" s="240"/>
+      <c r="A532" s="210"/>
       <c r="B532" s="58"/>
       <c r="C532" s="58"/>
       <c r="D532" s="58"/>
@@ -18918,7 +19190,7 @@
       <c r="K532" s="58"/>
     </row>
     <row r="533" spans="1:11">
-      <c r="A533" s="240"/>
+      <c r="A533" s="210"/>
       <c r="B533" s="58"/>
       <c r="C533" s="58"/>
       <c r="D533" s="58"/>
@@ -18930,7 +19202,7 @@
       <c r="K533" s="58"/>
     </row>
     <row r="534" spans="1:11">
-      <c r="A534" s="240"/>
+      <c r="A534" s="210"/>
       <c r="B534" s="58"/>
       <c r="C534" s="58"/>
       <c r="D534" s="58"/>
@@ -18942,7 +19214,7 @@
       <c r="K534" s="58"/>
     </row>
     <row r="535" spans="1:11">
-      <c r="A535" s="240"/>
+      <c r="A535" s="210"/>
       <c r="B535" s="58"/>
       <c r="C535" s="58"/>
       <c r="D535" s="58"/>
@@ -18954,7 +19226,7 @@
       <c r="K535" s="58"/>
     </row>
     <row r="536" spans="1:11">
-      <c r="A536" s="240"/>
+      <c r="A536" s="210"/>
       <c r="B536" s="58"/>
       <c r="C536" s="58"/>
       <c r="D536" s="58"/>
@@ -18966,7 +19238,7 @@
       <c r="K536" s="58"/>
     </row>
     <row r="537" spans="1:11">
-      <c r="A537" s="240"/>
+      <c r="A537" s="210"/>
       <c r="B537" s="58"/>
       <c r="C537" s="58"/>
       <c r="D537" s="58"/>
@@ -18978,7 +19250,7 @@
       <c r="K537" s="58"/>
     </row>
     <row r="538" spans="1:11">
-      <c r="A538" s="240"/>
+      <c r="A538" s="210"/>
       <c r="B538" s="58"/>
       <c r="C538" s="58"/>
       <c r="D538" s="58"/>
@@ -18990,7 +19262,7 @@
       <c r="K538" s="58"/>
     </row>
     <row r="539" spans="1:11">
-      <c r="A539" s="240"/>
+      <c r="A539" s="210"/>
       <c r="B539" s="58"/>
       <c r="C539" s="58"/>
       <c r="D539" s="58"/>
@@ -19002,7 +19274,7 @@
       <c r="K539" s="58"/>
     </row>
     <row r="540" spans="1:11">
-      <c r="A540" s="240"/>
+      <c r="A540" s="210"/>
       <c r="B540" s="58"/>
       <c r="C540" s="58"/>
       <c r="D540" s="58"/>
@@ -19014,7 +19286,7 @@
       <c r="K540" s="58"/>
     </row>
     <row r="541" spans="1:11">
-      <c r="A541" s="240"/>
+      <c r="A541" s="210"/>
       <c r="B541" s="58"/>
       <c r="C541" s="58"/>
       <c r="D541" s="58"/>
@@ -19026,7 +19298,7 @@
       <c r="K541" s="58"/>
     </row>
     <row r="542" spans="1:11">
-      <c r="A542" s="240"/>
+      <c r="A542" s="210"/>
       <c r="B542" s="58"/>
       <c r="C542" s="58"/>
       <c r="D542" s="58"/>
@@ -19038,7 +19310,7 @@
       <c r="K542" s="58"/>
     </row>
     <row r="543" spans="1:11">
-      <c r="A543" s="240"/>
+      <c r="A543" s="210"/>
       <c r="B543" s="58"/>
       <c r="C543" s="58"/>
       <c r="D543" s="58"/>
@@ -19050,7 +19322,7 @@
       <c r="K543" s="58"/>
     </row>
     <row r="544" spans="1:11">
-      <c r="A544" s="240"/>
+      <c r="A544" s="210"/>
       <c r="B544" s="58"/>
       <c r="C544" s="58"/>
       <c r="D544" s="58"/>
@@ -19062,7 +19334,7 @@
       <c r="K544" s="58"/>
     </row>
     <row r="545" spans="1:11">
-      <c r="A545" s="240"/>
+      <c r="A545" s="210"/>
       <c r="B545" s="58"/>
       <c r="C545" s="58"/>
       <c r="D545" s="58"/>
@@ -19074,7 +19346,7 @@
       <c r="K545" s="58"/>
     </row>
     <row r="546" spans="1:11">
-      <c r="A546" s="240"/>
+      <c r="A546" s="210"/>
       <c r="B546" s="58"/>
       <c r="C546" s="58"/>
       <c r="D546" s="58"/>
@@ -19086,7 +19358,7 @@
       <c r="K546" s="58"/>
     </row>
     <row r="547" spans="1:11">
-      <c r="A547" s="240"/>
+      <c r="A547" s="210"/>
       <c r="B547" s="58"/>
       <c r="C547" s="58"/>
       <c r="D547" s="58"/>
@@ -19098,7 +19370,7 @@
       <c r="K547" s="58"/>
     </row>
     <row r="548" spans="1:11">
-      <c r="A548" s="240"/>
+      <c r="A548" s="210"/>
       <c r="B548" s="58"/>
       <c r="C548" s="58"/>
       <c r="D548" s="58"/>
@@ -19994,12 +20266,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A1" s="224" t="s">
+      <c r="A1" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="225"/>
-      <c r="C1" s="225"/>
-      <c r="D1" s="226"/>
+      <c r="B1" s="229"/>
+      <c r="C1" s="229"/>
+      <c r="D1" s="230"/>
       <c r="E1" s="62"/>
       <c r="F1" s="62"/>
       <c r="G1" s="62"/>
@@ -20009,10 +20281,10 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
       <c r="M1" s="14"/>
-      <c r="N1" s="172" t="s">
+      <c r="N1" s="169" t="s">
         <v>100</v>
       </c>
-      <c r="O1" s="169"/>
+      <c r="O1" s="166"/>
       <c r="P1" s="58"/>
       <c r="Q1" t="s">
         <v>56</v>
@@ -20035,32 +20307,32 @@
         <v>22</v>
       </c>
       <c r="E2" s="50"/>
-      <c r="F2" s="175" t="s">
+      <c r="F2" s="172" t="s">
         <v>129</v>
       </c>
-      <c r="G2" s="176" t="s">
+      <c r="G2" s="173" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="176" t="s">
+      <c r="H2" s="173" t="s">
         <v>126</v>
       </c>
-      <c r="I2" s="176" t="s">
+      <c r="I2" s="173" t="s">
         <v>124</v>
       </c>
-      <c r="J2" s="176" t="s">
+      <c r="J2" s="173" t="s">
         <v>125</v>
       </c>
-      <c r="K2" s="176" t="s">
+      <c r="K2" s="173" t="s">
         <v>125</v>
       </c>
-      <c r="L2" s="181" t="s">
+      <c r="L2" s="178" t="s">
         <v>132</v>
       </c>
       <c r="M2" s="63"/>
-      <c r="N2" s="170" t="s">
+      <c r="N2" s="167" t="s">
         <v>130</v>
       </c>
-      <c r="O2" s="171">
+      <c r="O2" s="168">
         <v>8</v>
       </c>
       <c r="P2" s="49"/>
@@ -20085,29 +20357,29 @@
         <v>23</v>
       </c>
       <c r="E3" s="71"/>
-      <c r="F3" s="177" t="s">
+      <c r="F3" s="174" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="178" t="s">
+      <c r="G3" s="175" t="s">
         <v>127</v>
       </c>
-      <c r="H3" s="178" t="s">
+      <c r="H3" s="175" t="s">
         <v>128</v>
       </c>
-      <c r="I3" s="178" t="s">
+      <c r="I3" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="178" t="s">
+      <c r="J3" s="175" t="s">
         <v>127</v>
       </c>
-      <c r="K3" s="178" t="s">
+      <c r="K3" s="175" t="s">
         <v>128</v>
       </c>
-      <c r="L3" s="182" t="s">
+      <c r="L3" s="179" t="s">
         <v>128</v>
       </c>
       <c r="M3" s="17"/>
-      <c r="N3" s="179"/>
+      <c r="N3" s="176"/>
       <c r="Q3" t="s">
         <v>13</v>
       </c>
@@ -20116,52 +20388,52 @@
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="183">
+      <c r="A4" s="180">
         <v>32</v>
       </c>
-      <c r="B4" s="184">
+      <c r="B4" s="181">
         <v>452.82023903999999</v>
       </c>
-      <c r="C4" s="185">
+      <c r="C4" s="182">
         <v>1.75999830112</v>
       </c>
-      <c r="D4" s="186">
+      <c r="D4" s="183">
         <v>0.16525852904319999</v>
       </c>
       <c r="E4" s="50"/>
-      <c r="F4" s="199">
+      <c r="F4" s="196">
         <f>$R$11 + (PI()*(($R$10/2)^2)*(($O$2/12)-($R$10/2)))</f>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G4" s="200">
+      <c r="G4" s="197">
         <f>F4*D4</f>
         <v>2.1949952544709724E-2</v>
       </c>
-      <c r="H4" s="200">
+      <c r="H4" s="197">
         <f>G4*$O$4</f>
         <v>0.70621777317349066</v>
       </c>
-      <c r="I4" s="200">
+      <c r="I4" s="197">
         <f>$R$15-$F$4</f>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J4" s="200">
+      <c r="J4" s="197">
         <f>C4*I4</f>
         <v>1.088844116431217</v>
       </c>
-      <c r="K4" s="200">
+      <c r="K4" s="197">
         <f>J4*$O$4</f>
         <v>35.032470602057977</v>
       </c>
-      <c r="L4" s="201">
+      <c r="L4" s="198">
         <f>H4+K4</f>
         <v>35.738688375231469</v>
       </c>
       <c r="M4" s="17"/>
-      <c r="N4" s="208" t="s">
+      <c r="N4" s="205" t="s">
         <v>131</v>
       </c>
-      <c r="O4" s="208">
+      <c r="O4" s="205">
         <v>32.173999999999999</v>
       </c>
       <c r="Q4" t="s">
@@ -20172,44 +20444,44 @@
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="187">
+      <c r="A5" s="184">
         <v>32.9</v>
       </c>
-      <c r="B5" s="188">
+      <c r="B5" s="185">
         <v>458.65366740000002</v>
       </c>
-      <c r="C5" s="189">
+      <c r="C5" s="186">
         <v>1.7550485447999999</v>
       </c>
-      <c r="D5" s="190">
+      <c r="D5" s="187">
         <v>0.16772615040639999</v>
       </c>
       <c r="E5" s="50"/>
-      <c r="F5" s="202">
+      <c r="F5" s="199">
         <f t="shared" ref="F5:F53" si="0">$R$11 + (PI()*(($R$10/2)^2)*(($O$2/12)-($R$10/2)))</f>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G5" s="203">
+      <c r="G5" s="200">
         <f t="shared" ref="G5:G53" si="1">F5*D5</f>
         <v>2.2277706713490889E-2</v>
       </c>
-      <c r="H5" s="203">
+      <c r="H5" s="200">
         <f t="shared" ref="H5:H53" si="2">G5*$O$4</f>
         <v>0.71676293579985584</v>
       </c>
-      <c r="I5" s="203">
+      <c r="I5" s="200">
         <f t="shared" ref="I5:I53" si="3">$R$15-$F$4</f>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J5" s="203">
+      <c r="J5" s="200">
         <f t="shared" ref="J5:J53" si="4">C5*I5</f>
         <v>1.0857818901532879</v>
       </c>
-      <c r="K5" s="203">
+      <c r="K5" s="200">
         <f t="shared" ref="K5:K53" si="5">J5*$O$4</f>
         <v>34.933946533791882</v>
       </c>
-      <c r="L5" s="204">
+      <c r="L5" s="201">
         <f t="shared" ref="L5:L53" si="6">H5+K5</f>
         <v>35.650709469591739</v>
       </c>
@@ -20222,44 +20494,44 @@
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="187">
+      <c r="A6" s="184">
         <v>33.799999999999997</v>
       </c>
-      <c r="B6" s="188">
+      <c r="B6" s="185">
         <v>464.54366057999999</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="186">
         <v>1.7500619224</v>
       </c>
-      <c r="D6" s="190">
+      <c r="D6" s="187">
         <v>0.1702317244288</v>
       </c>
       <c r="E6" s="50"/>
-      <c r="F6" s="202">
+      <c r="F6" s="199">
         <f t="shared" si="0"/>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G6" s="203">
+      <c r="G6" s="200">
         <f t="shared" si="1"/>
         <v>2.2610501826743779E-2</v>
       </c>
-      <c r="H6" s="203">
+      <c r="H6" s="200">
         <f t="shared" si="2"/>
         <v>0.72747028577365436</v>
       </c>
-      <c r="I6" s="203">
+      <c r="I6" s="200">
         <f t="shared" si="3"/>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J6" s="203">
+      <c r="J6" s="200">
         <f t="shared" si="4"/>
         <v>1.0826968562315797</v>
       </c>
-      <c r="K6" s="203">
+      <c r="K6" s="200">
         <f t="shared" si="5"/>
         <v>34.834688652394846</v>
       </c>
-      <c r="L6" s="204">
+      <c r="L6" s="201">
         <f t="shared" si="6"/>
         <v>35.562158938168501</v>
       </c>
@@ -20272,44 +20544,44 @@
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="187">
+      <c r="A7" s="184">
         <v>34.700000000000003</v>
       </c>
-      <c r="B7" s="188">
+      <c r="B7" s="185">
         <v>470.48731781999993</v>
       </c>
-      <c r="C7" s="189">
+      <c r="C7" s="186">
         <v>1.7450423145599998</v>
       </c>
-      <c r="D7" s="190">
+      <c r="D7" s="187">
         <v>0.17277604664159998</v>
       </c>
       <c r="E7" s="50"/>
-      <c r="F7" s="202">
+      <c r="F7" s="199">
         <f t="shared" si="0"/>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G7" s="203">
+      <c r="G7" s="200">
         <f t="shared" si="1"/>
         <v>2.2948443548437378E-2</v>
       </c>
-      <c r="H7" s="203">
+      <c r="H7" s="200">
         <f t="shared" si="2"/>
         <v>0.73834322272742414</v>
       </c>
-      <c r="I7" s="203">
+      <c r="I7" s="200">
         <f t="shared" si="3"/>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J7" s="203">
+      <c r="J7" s="200">
         <f t="shared" si="4"/>
         <v>1.0795914154707005</v>
       </c>
-      <c r="K7" s="203">
+      <c r="K7" s="200">
         <f t="shared" si="5"/>
         <v>34.73477420135432</v>
       </c>
-      <c r="L7" s="204">
+      <c r="L7" s="201">
         <f t="shared" si="6"/>
         <v>35.473117424081742</v>
       </c>
@@ -20325,92 +20597,92 @@
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="187">
+      <c r="A8" s="184">
         <v>35.6</v>
       </c>
-      <c r="B8" s="188">
+      <c r="B8" s="185">
         <v>476.48608949999999</v>
       </c>
-      <c r="C8" s="189">
+      <c r="C8" s="186">
         <v>1.73998778096</v>
       </c>
-      <c r="D8" s="190">
+      <c r="D8" s="187">
         <v>0.17536002899519998</v>
       </c>
       <c r="E8" s="50"/>
-      <c r="F8" s="202">
+      <c r="F8" s="199">
         <f t="shared" si="0"/>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G8" s="203">
+      <c r="G8" s="200">
         <f t="shared" si="1"/>
         <v>2.3291653005560527E-2</v>
       </c>
-      <c r="H8" s="203">
+      <c r="H8" s="200">
         <f t="shared" si="2"/>
         <v>0.74938564380090433</v>
       </c>
-      <c r="I8" s="203">
+      <c r="I8" s="200">
         <f t="shared" si="3"/>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J8" s="203">
+      <c r="J8" s="200">
         <f t="shared" si="4"/>
         <v>1.0764643674683465</v>
       </c>
-      <c r="K8" s="203">
+      <c r="K8" s="200">
         <f t="shared" si="5"/>
         <v>34.634164558926578</v>
       </c>
-      <c r="L8" s="204">
+      <c r="L8" s="201">
         <f t="shared" si="6"/>
         <v>35.383550202727484</v>
       </c>
       <c r="M8" s="17"/>
-      <c r="N8" s="173"/>
+      <c r="N8" s="170"/>
       <c r="O8" s="58"/>
       <c r="P8" s="58"/>
       <c r="Q8" s="58"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="187">
+      <c r="A9" s="184">
         <v>36.5</v>
       </c>
-      <c r="B9" s="188">
+      <c r="B9" s="185">
         <v>482.54142600000006</v>
       </c>
-      <c r="C9" s="189">
+      <c r="C9" s="186">
         <v>1.73489638128</v>
       </c>
-      <c r="D9" s="190">
+      <c r="D9" s="187">
         <v>0.17798456403679999</v>
       </c>
       <c r="E9" s="50"/>
-      <c r="F9" s="202">
+      <c r="F9" s="199">
         <f t="shared" si="0"/>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G9" s="203">
+      <c r="G9" s="200">
         <f t="shared" si="1"/>
         <v>2.3640248747932097E-2</v>
       </c>
-      <c r="H9" s="203">
+      <c r="H9" s="200">
         <f t="shared" si="2"/>
         <v>0.76060136321596727</v>
       </c>
-      <c r="I9" s="203">
+      <c r="I9" s="200">
         <f t="shared" si="3"/>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J9" s="203">
+      <c r="J9" s="200">
         <f t="shared" si="4"/>
         <v>1.0733145118222134</v>
       </c>
-      <c r="K9" s="203">
+      <c r="K9" s="200">
         <f t="shared" si="5"/>
         <v>34.532821103367894</v>
       </c>
-      <c r="L9" s="204">
+      <c r="L9" s="201">
         <f t="shared" si="6"/>
         <v>35.293422466583863</v>
       </c>
@@ -20426,44 +20698,44 @@
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="187">
+      <c r="A10" s="184">
         <v>37.4</v>
       </c>
-      <c r="B10" s="188">
+      <c r="B10" s="185">
         <v>488.65187693999997</v>
       </c>
-      <c r="C10" s="189">
+      <c r="C10" s="186">
         <v>1.7297661752</v>
       </c>
-      <c r="D10" s="190">
+      <c r="D10" s="187">
         <v>0.18065056371679999</v>
       </c>
       <c r="E10" s="50"/>
-      <c r="F10" s="202">
+      <c r="F10" s="199">
         <f t="shared" si="0"/>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G10" s="203">
+      <c r="G10" s="200">
         <f t="shared" si="1"/>
         <v>2.3994351902540925E-2</v>
       </c>
-      <c r="H10" s="203">
+      <c r="H10" s="200">
         <f t="shared" si="2"/>
         <v>0.77199427811235166</v>
       </c>
-      <c r="I10" s="203">
+      <c r="I10" s="200">
         <f t="shared" si="3"/>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J10" s="203">
+      <c r="J10" s="200">
         <f t="shared" si="4"/>
         <v>1.0701406481299967</v>
       </c>
-      <c r="K10" s="203">
+      <c r="K10" s="200">
         <f t="shared" si="5"/>
         <v>34.430705212934512</v>
       </c>
-      <c r="L10" s="204">
+      <c r="L10" s="201">
         <f t="shared" si="6"/>
         <v>35.202699491046864</v>
       </c>
@@ -20480,44 +20752,44 @@
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="187">
+      <c r="A11" s="184">
         <v>38.299999999999997</v>
       </c>
-      <c r="B11" s="188">
+      <c r="B11" s="185">
         <v>494.82034307999999</v>
       </c>
-      <c r="C11" s="189">
+      <c r="C11" s="186">
         <v>1.7246010433599999</v>
       </c>
-      <c r="D11" s="190">
+      <c r="D11" s="187">
         <v>0.18335905640479999</v>
       </c>
       <c r="E11" s="50"/>
-      <c r="F11" s="202">
+      <c r="F11" s="199">
         <f t="shared" si="0"/>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G11" s="203">
+      <c r="G11" s="200">
         <f t="shared" si="1"/>
         <v>2.4354099059395697E-2</v>
       </c>
-      <c r="H11" s="203">
+      <c r="H11" s="200">
         <f t="shared" si="2"/>
         <v>0.78356878313699718</v>
       </c>
-      <c r="I11" s="203">
+      <c r="I11" s="200">
         <f t="shared" si="3"/>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J11" s="203">
+      <c r="J11" s="200">
         <f t="shared" si="4"/>
         <v>1.066945177196305</v>
       </c>
-      <c r="K11" s="203">
+      <c r="K11" s="200">
         <f t="shared" si="5"/>
         <v>34.327894131113915</v>
       </c>
-      <c r="L11" s="204">
+      <c r="L11" s="201">
         <f t="shared" si="6"/>
         <v>35.111462914250914</v>
       </c>
@@ -20534,44 +20806,44 @@
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="187">
+      <c r="A12" s="184">
         <v>39.200000000000003</v>
       </c>
-      <c r="B12" s="188">
+      <c r="B12" s="185">
         <v>501.04537404000001</v>
       </c>
-      <c r="C12" s="189">
+      <c r="C12" s="186">
         <v>1.7193932244799999</v>
       </c>
-      <c r="D12" s="190">
+      <c r="D12" s="187">
         <v>0.18611099285759999</v>
       </c>
       <c r="E12" s="50"/>
-      <c r="F12" s="202">
+      <c r="F12" s="199">
         <f t="shared" si="0"/>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G12" s="203">
+      <c r="G12" s="200">
         <f t="shared" si="1"/>
         <v>2.4719616499825212E-2</v>
       </c>
-      <c r="H12" s="203">
+      <c r="H12" s="200">
         <f t="shared" si="2"/>
         <v>0.79532894126537634</v>
       </c>
-      <c r="I12" s="203">
+      <c r="I12" s="200">
         <f t="shared" si="3"/>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J12" s="203">
+      <c r="J12" s="200">
         <f t="shared" si="4"/>
         <v>1.0637232974119217</v>
       </c>
-      <c r="K12" s="203">
+      <c r="K12" s="200">
         <f t="shared" si="5"/>
         <v>34.224233370931167</v>
       </c>
-      <c r="L12" s="204">
+      <c r="L12" s="201">
         <f t="shared" si="6"/>
         <v>35.019562312196541</v>
       </c>
@@ -20587,44 +20859,44 @@
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="187">
+      <c r="A13" s="184">
         <v>40.1</v>
       </c>
-      <c r="B13" s="188">
+      <c r="B13" s="185">
         <v>507.32696982000004</v>
       </c>
-      <c r="C13" s="189">
+      <c r="C13" s="186">
         <v>1.71414853952</v>
       </c>
-      <c r="D13" s="190">
+      <c r="D13" s="187">
         <v>0.1889074790576</v>
       </c>
       <c r="E13" s="50"/>
-      <c r="F13" s="202">
+      <c r="F13" s="199">
         <f t="shared" si="0"/>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G13" s="203">
+      <c r="G13" s="200">
         <f t="shared" si="1"/>
         <v>2.5091051122518058E-2</v>
       </c>
-      <c r="H13" s="203">
+      <c r="H13" s="200">
         <f t="shared" si="2"/>
         <v>0.80727947881589601</v>
       </c>
-      <c r="I13" s="203">
+      <c r="I13" s="200">
         <f t="shared" si="3"/>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J13" s="203">
+      <c r="J13" s="200">
         <f t="shared" si="4"/>
         <v>1.0604786099837593</v>
       </c>
-      <c r="K13" s="203">
+      <c r="K13" s="200">
         <f t="shared" si="5"/>
         <v>34.119838797617469</v>
       </c>
-      <c r="L13" s="204">
+      <c r="L13" s="201">
         <f t="shared" si="6"/>
         <v>34.927118276433362</v>
       </c>
@@ -20641,44 +20913,44 @@
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="187">
+      <c r="A14" s="184">
         <v>41</v>
       </c>
-      <c r="B14" s="188">
+      <c r="B14" s="185">
         <v>513.66803117999996</v>
       </c>
-      <c r="C14" s="189">
+      <c r="C14" s="186">
         <v>1.7088611675200001</v>
       </c>
-      <c r="D14" s="190">
+      <c r="D14" s="187">
         <v>0.19174958218079999</v>
       </c>
       <c r="E14" s="50"/>
-      <c r="F14" s="202">
+      <c r="F14" s="199">
         <f t="shared" si="0"/>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G14" s="203">
+      <c r="G14" s="200">
         <f t="shared" si="1"/>
         <v>2.5468544671822878E-2</v>
       </c>
-      <c r="H14" s="203">
+      <c r="H14" s="200">
         <f t="shared" si="2"/>
         <v>0.81942495627122924</v>
       </c>
-      <c r="I14" s="203">
+      <c r="I14" s="200">
         <f t="shared" si="3"/>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J14" s="203">
+      <c r="J14" s="200">
         <f t="shared" si="4"/>
         <v>1.0572075137049053</v>
       </c>
-      <c r="K14" s="203">
+      <c r="K14" s="200">
         <f t="shared" si="5"/>
         <v>34.01459454594162</v>
       </c>
-      <c r="L14" s="204">
+      <c r="L14" s="201">
         <f t="shared" si="6"/>
         <v>34.834019502212847</v>
       </c>
@@ -20695,44 +20967,44 @@
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="187">
+      <c r="A15" s="184">
         <v>41.9</v>
       </c>
-      <c r="B15" s="188">
+      <c r="B15" s="185">
         <v>520.06565735999993</v>
       </c>
-      <c r="C15" s="189">
+      <c r="C15" s="186">
         <v>1.7035330488</v>
       </c>
-      <c r="D15" s="190">
+      <c r="D15" s="187">
         <v>0.19463846641919999</v>
       </c>
       <c r="E15" s="50"/>
-      <c r="F15" s="202">
+      <c r="F15" s="199">
         <f t="shared" si="0"/>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G15" s="203">
+      <c r="G15" s="200">
         <f t="shared" si="1"/>
         <v>2.5852251777938189E-2</v>
       </c>
-      <c r="H15" s="203">
+      <c r="H15" s="200">
         <f t="shared" si="2"/>
         <v>0.83177034870338329</v>
       </c>
-      <c r="I15" s="203">
+      <c r="I15" s="200">
         <f t="shared" si="3"/>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J15" s="203">
+      <c r="J15" s="200">
         <f t="shared" si="4"/>
         <v>1.0539112089776637</v>
       </c>
-      <c r="K15" s="203">
+      <c r="K15" s="200">
         <f t="shared" si="5"/>
         <v>33.908539237647354</v>
       </c>
-      <c r="L15" s="204">
+      <c r="L15" s="201">
         <f t="shared" si="6"/>
         <v>34.74030958635074</v>
       </c>
@@ -20749,44 +21021,44 @@
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="187">
+      <c r="A16" s="184">
         <v>42.8</v>
       </c>
-      <c r="B16" s="188">
+      <c r="B16" s="185">
         <v>526.52129874000002</v>
       </c>
-      <c r="C16" s="189">
+      <c r="C16" s="186">
         <v>1.6981603027200001</v>
       </c>
-      <c r="D16" s="190">
+      <c r="D16" s="187">
         <v>0.19757531536799999</v>
       </c>
       <c r="E16" s="50"/>
-      <c r="F16" s="202">
+      <c r="F16" s="199">
         <f t="shared" si="0"/>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G16" s="203">
+      <c r="G16" s="200">
         <f t="shared" si="1"/>
         <v>2.6242329648232494E-2</v>
       </c>
-      <c r="H16" s="203">
+      <c r="H16" s="200">
         <f t="shared" si="2"/>
         <v>0.84432071410223219</v>
       </c>
-      <c r="I16" s="203">
+      <c r="I16" s="200">
         <f t="shared" si="3"/>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J16" s="203">
+      <c r="J16" s="200">
         <f t="shared" si="4"/>
         <v>1.0505872949974264</v>
       </c>
-      <c r="K16" s="203">
+      <c r="K16" s="200">
         <f t="shared" si="5"/>
         <v>33.801595629247196</v>
       </c>
-      <c r="L16" s="204">
+      <c r="L16" s="201">
         <f t="shared" si="6"/>
         <v>34.645916343349427</v>
       </c>
@@ -20797,44 +21069,44 @@
       <c r="Q16" s="58"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="187">
+      <c r="A17" s="184">
         <v>43.7</v>
       </c>
-      <c r="B17" s="188">
+      <c r="B17" s="185">
         <v>533.03640570000005</v>
       </c>
-      <c r="C17" s="189">
+      <c r="C17" s="186">
         <v>1.69274292928</v>
       </c>
-      <c r="D17" s="190">
+      <c r="D17" s="187">
         <v>0.20056135142879999</v>
       </c>
       <c r="E17" s="50"/>
-      <c r="F17" s="202">
+      <c r="F17" s="199">
         <f t="shared" si="0"/>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G17" s="203">
+      <c r="G17" s="200">
         <f t="shared" si="1"/>
         <v>2.663894064441423E-2</v>
       </c>
-      <c r="H17" s="203">
+      <c r="H17" s="200">
         <f t="shared" si="2"/>
         <v>0.85708127629338338</v>
       </c>
-      <c r="I17" s="203">
+      <c r="I17" s="200">
         <f t="shared" si="3"/>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J17" s="203">
+      <c r="J17" s="200">
         <f t="shared" si="4"/>
         <v>1.0472357717641931</v>
       </c>
-      <c r="K17" s="203">
+      <c r="K17" s="200">
         <f t="shared" si="5"/>
         <v>33.693763720741153</v>
       </c>
-      <c r="L17" s="204">
+      <c r="L17" s="201">
         <f t="shared" si="6"/>
         <v>34.550844997034538</v>
       </c>
@@ -20845,92 +21117,92 @@
       <c r="Q17" s="58"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="187">
+      <c r="A18" s="184">
         <v>44.6</v>
       </c>
-      <c r="B18" s="188">
+      <c r="B18" s="185">
         <v>539.61097824000001</v>
       </c>
-      <c r="C18" s="189">
+      <c r="C18" s="186">
         <v>1.6872809284800001</v>
       </c>
-      <c r="D18" s="190">
+      <c r="D18" s="187">
         <v>0.20359789401919998</v>
       </c>
       <c r="E18" s="50"/>
-      <c r="F18" s="202">
+      <c r="F18" s="199">
         <f t="shared" si="0"/>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G18" s="203">
+      <c r="G18" s="200">
         <f t="shared" si="1"/>
         <v>2.7042260014041721E-2</v>
       </c>
-      <c r="H18" s="203">
+      <c r="H18" s="200">
         <f t="shared" si="2"/>
         <v>0.87005767369177833</v>
       </c>
-      <c r="I18" s="203">
+      <c r="I18" s="200">
         <f t="shared" si="3"/>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J18" s="203">
+      <c r="J18" s="200">
         <f t="shared" si="4"/>
         <v>1.043856639277964</v>
       </c>
-      <c r="K18" s="203">
+      <c r="K18" s="200">
         <f t="shared" si="5"/>
         <v>33.585043512129211</v>
       </c>
-      <c r="L18" s="204">
+      <c r="L18" s="201">
         <f t="shared" si="6"/>
         <v>34.455101185820986</v>
       </c>
       <c r="M18" s="17"/>
-      <c r="N18" s="174"/>
+      <c r="N18" s="171"/>
       <c r="O18" s="58"/>
       <c r="P18" s="58"/>
       <c r="Q18" s="58"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="187">
+      <c r="A19" s="184">
         <v>45.5</v>
       </c>
-      <c r="B19" s="188">
+      <c r="B19" s="185">
         <v>546.24646674000007</v>
       </c>
-      <c r="C19" s="189">
+      <c r="C19" s="186">
         <v>1.6817723599999999</v>
       </c>
-      <c r="D19" s="190">
+      <c r="D19" s="187">
         <v>0.20668630136319999</v>
       </c>
       <c r="E19" s="50"/>
-      <c r="F19" s="202">
+      <c r="F19" s="199">
         <f t="shared" si="0"/>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G19" s="203">
+      <c r="G19" s="200">
         <f t="shared" si="1"/>
         <v>2.7452468159013241E-2</v>
       </c>
-      <c r="H19" s="203">
+      <c r="H19" s="200">
         <f t="shared" si="2"/>
         <v>0.88325571054809204</v>
       </c>
-      <c r="I19" s="203">
+      <c r="I19" s="200">
         <f t="shared" si="3"/>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J19" s="203">
+      <c r="J19" s="200">
         <f t="shared" si="4"/>
         <v>1.0404486971364348</v>
       </c>
-      <c r="K19" s="203">
+      <c r="K19" s="200">
         <f t="shared" si="5"/>
         <v>33.475396381667657</v>
       </c>
-      <c r="L19" s="204">
+      <c r="L19" s="201">
         <f t="shared" si="6"/>
         <v>34.358652092215749</v>
       </c>
@@ -20941,44 +21213,44 @@
       <c r="Q19" s="58"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="187">
+      <c r="A20" s="184">
         <v>46.4</v>
       </c>
-      <c r="B20" s="188">
+      <c r="B20" s="185">
         <v>552.93997044000002</v>
       </c>
-      <c r="C20" s="189">
+      <c r="C20" s="186">
         <v>1.6762152835199999</v>
       </c>
-      <c r="D20" s="190">
+      <c r="D20" s="187">
         <v>0.2098279704912</v>
       </c>
       <c r="E20" s="50"/>
-      <c r="F20" s="202">
+      <c r="F20" s="199">
         <f t="shared" si="0"/>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G20" s="203">
+      <c r="G20" s="200">
         <f t="shared" si="1"/>
         <v>2.7869750635567011E-2</v>
       </c>
-      <c r="H20" s="203">
+      <c r="H20" s="200">
         <f t="shared" si="2"/>
         <v>0.89668135694873297</v>
       </c>
-      <c r="I20" s="203">
+      <c r="I20" s="200">
         <f t="shared" si="3"/>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J20" s="203">
+      <c r="J20" s="200">
         <f t="shared" si="4"/>
         <v>1.0370107449373016</v>
       </c>
-      <c r="K20" s="203">
+      <c r="K20" s="200">
         <f t="shared" si="5"/>
         <v>33.364783707612744</v>
       </c>
-      <c r="L20" s="204">
+      <c r="L20" s="201">
         <f t="shared" si="6"/>
         <v>34.261465064561477</v>
       </c>
@@ -20989,44 +21261,44 @@
       <c r="Q20" s="58"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="187">
+      <c r="A21" s="184">
         <v>47.3</v>
       </c>
-      <c r="B21" s="188">
+      <c r="B21" s="185">
         <v>559.69439009999996</v>
       </c>
-      <c r="C21" s="189">
+      <c r="C21" s="186">
         <v>1.6706096990399999</v>
       </c>
-      <c r="D21" s="190">
+      <c r="D21" s="187">
         <v>0.21302437604639998</v>
       </c>
       <c r="E21" s="50"/>
-      <c r="F21" s="202">
+      <c r="F21" s="199">
         <f t="shared" si="0"/>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G21" s="203">
+      <c r="G21" s="200">
         <f t="shared" si="1"/>
         <v>2.8294303308621153E-2</v>
       </c>
-      <c r="H21" s="203">
+      <c r="H21" s="200">
         <f t="shared" si="2"/>
         <v>0.91034091465157696</v>
       </c>
-      <c r="I21" s="203">
+      <c r="I21" s="200">
         <f t="shared" si="3"/>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J21" s="203">
+      <c r="J21" s="200">
         <f t="shared" si="4"/>
         <v>1.0335427826805641</v>
       </c>
-      <c r="K21" s="203">
+      <c r="K21" s="200">
         <f t="shared" si="5"/>
         <v>33.253205489964472</v>
       </c>
-      <c r="L21" s="204">
+      <c r="L21" s="201">
         <f t="shared" si="6"/>
         <v>34.163546404616049</v>
       </c>
@@ -21037,44 +21309,44 @@
       <c r="Q21" s="58"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="187">
+      <c r="A22" s="184">
         <v>48.2</v>
       </c>
-      <c r="B22" s="188">
+      <c r="B22" s="185">
         <v>566.51117609999994</v>
       </c>
-      <c r="C22" s="189">
+      <c r="C22" s="186">
         <v>1.66495172592</v>
       </c>
-      <c r="D22" s="190">
+      <c r="D22" s="187">
         <v>0.21627710909119999</v>
       </c>
       <c r="E22" s="50"/>
-      <c r="F22" s="202">
+      <c r="F22" s="199">
         <f t="shared" si="0"/>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G22" s="203">
+      <c r="G22" s="200">
         <f t="shared" si="1"/>
         <v>2.8726337506113649E-2</v>
       </c>
-      <c r="H22" s="203">
+      <c r="H22" s="200">
         <f t="shared" si="2"/>
         <v>0.92424118292170054</v>
       </c>
-      <c r="I22" s="203">
+      <c r="I22" s="200">
         <f t="shared" si="3"/>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J22" s="203">
+      <c r="J22" s="200">
         <f t="shared" si="4"/>
         <v>1.0300424095616143</v>
       </c>
-      <c r="K22" s="203">
+      <c r="K22" s="200">
         <f t="shared" si="5"/>
         <v>33.140584485235379</v>
       </c>
-      <c r="L22" s="204">
+      <c r="L22" s="201">
         <f t="shared" si="6"/>
         <v>34.064825668157077</v>
       </c>
@@ -21085,44 +21357,44 @@
       <c r="Q22" s="58"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="187">
+      <c r="A23" s="184">
         <v>49.1</v>
       </c>
-      <c r="B23" s="188">
+      <c r="B23" s="185">
         <v>573.38742767999997</v>
       </c>
-      <c r="C23" s="189">
+      <c r="C23" s="186">
         <v>1.6592413641600001</v>
       </c>
-      <c r="D23" s="190">
+      <c r="D23" s="187">
         <v>0.21958774128479999</v>
       </c>
       <c r="E23" s="50"/>
-      <c r="F23" s="202">
+      <c r="F23" s="199">
         <f t="shared" si="0"/>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G23" s="203">
+      <c r="G23" s="200">
         <f t="shared" si="1"/>
         <v>2.91660619788125E-2</v>
       </c>
-      <c r="H23" s="203">
+      <c r="H23" s="200">
         <f t="shared" si="2"/>
         <v>0.93838887810631333</v>
       </c>
-      <c r="I23" s="203">
+      <c r="I23" s="200">
         <f t="shared" si="3"/>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J23" s="203">
+      <c r="J23" s="200">
         <f t="shared" si="4"/>
         <v>1.026509625580452</v>
       </c>
-      <c r="K23" s="203">
+      <c r="K23" s="200">
         <f t="shared" si="5"/>
         <v>33.02692069342546</v>
       </c>
-      <c r="L23" s="204">
+      <c r="L23" s="201">
         <f t="shared" si="6"/>
         <v>33.965309571531776</v>
       </c>
@@ -21133,44 +21405,44 @@
       <c r="Q23" s="58"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="187">
+      <c r="A24" s="184">
         <v>50</v>
       </c>
-      <c r="B24" s="188">
+      <c r="B24" s="185">
         <v>580.32604560000004</v>
       </c>
-      <c r="C24" s="189">
+      <c r="C24" s="186">
         <v>1.6534766734399999</v>
       </c>
-      <c r="D24" s="190">
+      <c r="D24" s="187">
         <v>0.22295801891519998</v>
       </c>
       <c r="E24" s="50"/>
-      <c r="F24" s="202">
+      <c r="F24" s="199">
         <f t="shared" si="0"/>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G24" s="203">
+      <c r="G24" s="200">
         <f t="shared" si="1"/>
         <v>2.9613708672015474E-2</v>
       </c>
-      <c r="H24" s="203">
+      <c r="H24" s="200">
         <f t="shared" si="2"/>
         <v>0.95279146281342586</v>
       </c>
-      <c r="I24" s="203">
+      <c r="I24" s="200">
         <f t="shared" si="3"/>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J24" s="203">
+      <c r="J24" s="200">
         <f t="shared" si="4"/>
         <v>1.0229432303347727</v>
       </c>
-      <c r="K24" s="203">
+      <c r="K24" s="200">
         <f t="shared" si="5"/>
         <v>32.912175492790979</v>
       </c>
-      <c r="L24" s="204">
+      <c r="L24" s="201">
         <f t="shared" si="6"/>
         <v>33.864966955604402</v>
       </c>
@@ -21181,1015 +21453,1015 @@
       <c r="Q24" s="58"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="187">
+      <c r="A25" s="184">
         <v>50.9</v>
       </c>
-      <c r="B25" s="188">
+      <c r="B25" s="185">
         <v>587.32702986000004</v>
       </c>
-      <c r="C25" s="189">
+      <c r="C25" s="186">
         <v>1.6476576537600001</v>
       </c>
-      <c r="D25" s="190">
+      <c r="D25" s="187">
         <v>0.22638970767359998</v>
       </c>
       <c r="E25" s="50"/>
-      <c r="F25" s="202">
+      <c r="F25" s="199">
         <f t="shared" si="0"/>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G25" s="203">
+      <c r="G25" s="200">
         <f t="shared" si="1"/>
         <v>3.0069512108190335E-2</v>
       </c>
-      <c r="H25" s="203">
+      <c r="H25" s="200">
         <f t="shared" si="2"/>
         <v>0.96745648256891581</v>
       </c>
-      <c r="I25" s="203">
+      <c r="I25" s="200">
         <f t="shared" si="3"/>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J25" s="203">
+      <c r="J25" s="200">
         <f t="shared" si="4"/>
         <v>1.019343223824577</v>
       </c>
-      <c r="K25" s="203">
+      <c r="K25" s="200">
         <f t="shared" si="5"/>
         <v>32.796348883331937</v>
       </c>
-      <c r="L25" s="204">
+      <c r="L25" s="201">
         <f t="shared" si="6"/>
         <v>33.763805365900851</v>
       </c>
       <c r="M25" s="17"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="187">
+      <c r="A26" s="184">
         <v>51.8</v>
       </c>
-      <c r="B26" s="188">
+      <c r="B26" s="185">
         <v>594.39038045999996</v>
       </c>
-      <c r="C26" s="189">
+      <c r="C26" s="186">
         <v>1.6417804244800001</v>
       </c>
-      <c r="D26" s="190">
+      <c r="D26" s="187">
         <v>0.22988470907359998</v>
       </c>
       <c r="E26" s="50"/>
-      <c r="F26" s="202">
+      <c r="F26" s="199">
         <f t="shared" si="0"/>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G26" s="203">
+      <c r="G26" s="200">
         <f t="shared" si="1"/>
         <v>3.0533724849994663E-2</v>
       </c>
-      <c r="H26" s="203">
+      <c r="H26" s="200">
         <f t="shared" si="2"/>
         <v>0.9823920633237283</v>
       </c>
-      <c r="I26" s="203">
+      <c r="I26" s="200">
         <f t="shared" si="3"/>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J26" s="203">
+      <c r="J26" s="200">
         <f t="shared" si="4"/>
         <v>1.0157072052452563</v>
       </c>
-      <c r="K26" s="203">
+      <c r="K26" s="200">
         <f t="shared" si="5"/>
         <v>32.679363621560874</v>
       </c>
-      <c r="L26" s="204">
+      <c r="L26" s="201">
         <f t="shared" si="6"/>
         <v>33.661755684884604</v>
       </c>
       <c r="M26" s="17"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="187">
+      <c r="A27" s="184">
         <v>52.7</v>
       </c>
-      <c r="B27" s="188">
+      <c r="B27" s="185">
         <v>601.51754778000009</v>
       </c>
-      <c r="C27" s="189">
+      <c r="C27" s="186">
         <v>1.6358430452799999</v>
       </c>
-      <c r="D27" s="190">
+      <c r="D27" s="187">
         <v>0.23344498283839998</v>
       </c>
       <c r="E27" s="50"/>
-      <c r="F27" s="202">
+      <c r="F27" s="199">
         <f t="shared" si="0"/>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G27" s="203">
+      <c r="G27" s="200">
         <f t="shared" si="1"/>
         <v>3.1006607191595967E-2</v>
       </c>
-      <c r="H27" s="203">
+      <c r="H27" s="200">
         <f t="shared" si="2"/>
         <v>0.99760657978240863</v>
       </c>
-      <c r="I27" s="203">
+      <c r="I27" s="200">
         <f t="shared" si="3"/>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J27" s="203">
+      <c r="J27" s="200">
         <f t="shared" si="4"/>
         <v>1.0120339741945064</v>
       </c>
-      <c r="K27" s="203">
+      <c r="K27" s="200">
         <f t="shared" si="5"/>
         <v>32.561181085734049</v>
       </c>
-      <c r="L27" s="204">
+      <c r="L27" s="201">
         <f t="shared" si="6"/>
         <v>33.558787665516455</v>
       </c>
       <c r="M27" s="17"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="187">
+      <c r="A28" s="184">
         <v>53.6</v>
       </c>
-      <c r="B28" s="188">
+      <c r="B28" s="185">
         <v>608.70708144000002</v>
       </c>
-      <c r="C28" s="189">
+      <c r="C28" s="186">
         <v>1.6298455161600001</v>
       </c>
-      <c r="D28" s="190">
+      <c r="D28" s="187">
         <v>0.23707262451360001</v>
       </c>
       <c r="E28" s="50"/>
-      <c r="F28" s="202">
+      <c r="F28" s="199">
         <f t="shared" si="0"/>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G28" s="203">
+      <c r="G28" s="200">
         <f t="shared" si="1"/>
         <v>3.1488437467351575E-2</v>
       </c>
-      <c r="H28" s="203">
+      <c r="H28" s="200">
         <f t="shared" si="2"/>
         <v>1.0131089870745695</v>
       </c>
-      <c r="I28" s="203">
+      <c r="I28" s="200">
         <f t="shared" si="3"/>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J28" s="203">
+      <c r="J28" s="200">
         <f t="shared" si="4"/>
         <v>1.0083235306723273</v>
       </c>
-      <c r="K28" s="203">
+      <c r="K28" s="200">
         <f t="shared" si="5"/>
         <v>32.441801275851461</v>
       </c>
-      <c r="L28" s="204">
+      <c r="L28" s="201">
         <f t="shared" si="6"/>
         <v>33.454910262926028</v>
       </c>
       <c r="M28" s="17"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="187">
+      <c r="A29" s="184">
         <v>54.5</v>
       </c>
-      <c r="B29" s="188">
+      <c r="B29" s="185">
         <v>615.96188219999999</v>
       </c>
-      <c r="C29" s="189">
+      <c r="C29" s="186">
         <v>1.6237820161600001</v>
       </c>
-      <c r="D29" s="190">
+      <c r="D29" s="187">
         <v>0.2407698072576</v>
       </c>
       <c r="E29" s="50"/>
-      <c r="F29" s="202">
+      <c r="F29" s="199">
         <f t="shared" si="0"/>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G29" s="203">
+      <c r="G29" s="200">
         <f t="shared" si="1"/>
         <v>3.1979504320298731E-2</v>
       </c>
-      <c r="H29" s="203">
+      <c r="H29" s="200">
         <f t="shared" si="2"/>
         <v>1.0289085720012914</v>
       </c>
-      <c r="I29" s="203">
+      <c r="I29" s="200">
         <f t="shared" si="3"/>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J29" s="203">
+      <c r="J29" s="200">
         <f t="shared" si="4"/>
         <v>1.0045722734718066</v>
       </c>
-      <c r="K29" s="203">
+      <c r="K29" s="200">
         <f t="shared" si="5"/>
         <v>32.321108326681902</v>
       </c>
-      <c r="L29" s="204">
+      <c r="L29" s="201">
         <f t="shared" si="6"/>
         <v>33.350016898683194</v>
       </c>
       <c r="M29" s="17"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="187">
+      <c r="A30" s="184">
         <v>55.4</v>
       </c>
-      <c r="B30" s="188">
+      <c r="B30" s="185">
         <v>623.28049967999993</v>
       </c>
-      <c r="C30" s="189">
+      <c r="C30" s="186">
         <v>1.6176544856000001</v>
       </c>
-      <c r="D30" s="190">
+      <c r="D30" s="187">
         <v>0.24453885945439999</v>
       </c>
       <c r="E30" s="50"/>
-      <c r="F30" s="202">
+      <c r="F30" s="199">
         <f t="shared" si="0"/>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G30" s="203">
+      <c r="G30" s="200">
         <f t="shared" si="1"/>
         <v>3.2480117010834461E-2</v>
       </c>
-      <c r="H30" s="203">
+      <c r="H30" s="200">
         <f t="shared" si="2"/>
         <v>1.0450152847065879</v>
       </c>
-      <c r="I30" s="203">
+      <c r="I30" s="200">
         <f t="shared" si="3"/>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J30" s="203">
+      <c r="J30" s="200">
         <f t="shared" si="4"/>
         <v>1.0007814029952484</v>
       </c>
-      <c r="K30" s="203">
+      <c r="K30" s="200">
         <f t="shared" si="5"/>
         <v>32.19914085996912</v>
       </c>
-      <c r="L30" s="204">
+      <c r="L30" s="201">
         <f t="shared" si="6"/>
         <v>33.244156144675706</v>
       </c>
       <c r="M30" s="17"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="187">
+      <c r="A31" s="184">
         <v>56.3</v>
       </c>
-      <c r="B31" s="188">
+      <c r="B31" s="185">
         <v>630.66438426000002</v>
       </c>
-      <c r="C31" s="189">
+      <c r="C31" s="186">
         <v>1.6114590438399998</v>
       </c>
-      <c r="D31" s="190">
+      <c r="D31" s="187">
         <v>0.24838222590720002</v>
       </c>
       <c r="E31" s="50"/>
-      <c r="F31" s="202">
+      <c r="F31" s="199">
         <f t="shared" si="0"/>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G31" s="203">
+      <c r="G31" s="200">
         <f t="shared" si="1"/>
         <v>3.2990600262375672E-2</v>
       </c>
-      <c r="H31" s="203">
+      <c r="H31" s="200">
         <f t="shared" si="2"/>
         <v>1.0614395728416748</v>
       </c>
-      <c r="I31" s="203">
+      <c r="I31" s="200">
         <f t="shared" si="3"/>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J31" s="203">
+      <c r="J31" s="200">
         <f t="shared" si="4"/>
         <v>0.99694851843804411</v>
       </c>
-      <c r="K31" s="203">
+      <c r="K31" s="200">
         <f t="shared" si="5"/>
         <v>32.075821632225633</v>
       </c>
-      <c r="L31" s="204">
+      <c r="L31" s="201">
         <f t="shared" si="6"/>
         <v>33.137261205067311</v>
       </c>
       <c r="M31" s="17"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="187">
+      <c r="A32" s="184">
         <v>57.2</v>
       </c>
-      <c r="B32" s="188">
+      <c r="B32" s="185">
         <v>638.11353594000002</v>
       </c>
-      <c r="C32" s="189">
+      <c r="C32" s="186">
         <v>1.60519375056</v>
       </c>
-      <c r="D32" s="190">
+      <c r="D32" s="187">
         <v>0.25230250664479997</v>
       </c>
       <c r="E32" s="50"/>
-      <c r="F32" s="202">
+      <c r="F32" s="199">
         <f t="shared" si="0"/>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G32" s="203">
+      <c r="G32" s="200">
         <f t="shared" si="1"/>
         <v>3.3511299415699032E-2</v>
       </c>
-      <c r="H32" s="203">
+      <c r="H32" s="200">
         <f t="shared" si="2"/>
         <v>1.0781925474007006</v>
       </c>
-      <c r="I32" s="203">
+      <c r="I32" s="200">
         <f t="shared" si="3"/>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J32" s="203">
+      <c r="J32" s="200">
         <f t="shared" si="4"/>
         <v>0.99307241939789015</v>
       </c>
-      <c r="K32" s="203">
+      <c r="K32" s="200">
         <f t="shared" si="5"/>
         <v>31.951112021707718</v>
       </c>
-      <c r="L32" s="204">
+      <c r="L32" s="201">
         <f t="shared" si="6"/>
         <v>33.029304569108419</v>
       </c>
       <c r="M32" s="17"/>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="187">
+      <c r="A33" s="184">
         <v>58.1</v>
       </c>
-      <c r="B33" s="188">
+      <c r="B33" s="185">
         <v>645.62795472000005</v>
       </c>
-      <c r="C33" s="189">
+      <c r="C33" s="186">
         <v>1.5988547251199998</v>
       </c>
-      <c r="D33" s="190">
+      <c r="D33" s="187">
         <v>0.25630243751839998</v>
       </c>
       <c r="E33" s="50"/>
-      <c r="F33" s="202">
+      <c r="F33" s="199">
         <f t="shared" si="0"/>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G33" s="203">
+      <c r="G33" s="200">
         <f t="shared" si="1"/>
         <v>3.4042577851771089E-2</v>
       </c>
-      <c r="H33" s="203">
+      <c r="H33" s="200">
         <f t="shared" si="2"/>
         <v>1.0952858998028829</v>
       </c>
-      <c r="I33" s="203">
+      <c r="I33" s="200">
         <f t="shared" si="3"/>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J33" s="203">
+      <c r="J33" s="200">
         <f t="shared" si="4"/>
         <v>0.98915070507017755</v>
       </c>
-      <c r="K33" s="203">
+      <c r="K33" s="200">
         <f t="shared" si="5"/>
         <v>31.824934784927891</v>
       </c>
-      <c r="L33" s="204">
+      <c r="L33" s="201">
         <f t="shared" si="6"/>
         <v>32.920220684730772</v>
       </c>
       <c r="M33" s="17"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="187">
+      <c r="A34" s="184">
         <v>59</v>
       </c>
-      <c r="B34" s="188">
+      <c r="B34" s="185">
         <v>653.21054135999998</v>
       </c>
-      <c r="C34" s="189">
+      <c r="C34" s="186">
         <v>1.5924400272000001</v>
       </c>
-      <c r="D34" s="190">
+      <c r="D34" s="187">
         <v>0.26038490960479999</v>
       </c>
       <c r="E34" s="50"/>
-      <c r="F34" s="202">
+      <c r="F34" s="199">
         <f t="shared" si="0"/>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G34" s="203">
+      <c r="G34" s="200">
         <f t="shared" si="1"/>
         <v>3.4584819568918145E-2</v>
       </c>
-      <c r="H34" s="203">
+      <c r="H34" s="200">
         <f t="shared" si="2"/>
         <v>1.1127319848103723</v>
       </c>
-      <c r="I34" s="203">
+      <c r="I34" s="200">
         <f t="shared" si="3"/>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J34" s="203">
+      <c r="J34" s="200">
         <f t="shared" si="4"/>
         <v>0.98518217505260286</v>
       </c>
-      <c r="K34" s="203">
+      <c r="K34" s="200">
         <f t="shared" si="5"/>
         <v>31.697251300142444</v>
       </c>
-      <c r="L34" s="204">
+      <c r="L34" s="201">
         <f t="shared" si="6"/>
         <v>32.809983284952814</v>
       </c>
       <c r="M34" s="17"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="187">
+      <c r="A35" s="184">
         <v>59.9</v>
       </c>
-      <c r="B35" s="188">
+      <c r="B35" s="185">
         <v>660.85839510000005</v>
       </c>
-      <c r="C35" s="189">
+      <c r="C35" s="186">
         <v>1.58594577616</v>
       </c>
-      <c r="D35" s="190">
+      <c r="D35" s="187">
         <v>0.26455302741599995</v>
       </c>
       <c r="E35" s="50"/>
-      <c r="F35" s="202">
+      <c r="F35" s="199">
         <f t="shared" si="0"/>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G35" s="203">
+      <c r="G35" s="200">
         <f t="shared" si="1"/>
         <v>3.5138436914336262E-2</v>
       </c>
-      <c r="H35" s="203">
+      <c r="H35" s="200">
         <f t="shared" si="2"/>
         <v>1.1305440692818549</v>
       </c>
-      <c r="I35" s="203">
+      <c r="I35" s="200">
         <f t="shared" si="3"/>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J35" s="203">
+      <c r="J35" s="200">
         <f t="shared" si="4"/>
         <v>0.98116442854055697</v>
       </c>
-      <c r="K35" s="203">
+      <c r="K35" s="200">
         <f t="shared" si="5"/>
         <v>31.567984323863879</v>
       </c>
-      <c r="L35" s="204">
+      <c r="L35" s="201">
         <f t="shared" si="6"/>
         <v>32.698528393145736</v>
       </c>
       <c r="M35" s="17"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="187">
+      <c r="A36" s="184">
         <v>60.8</v>
       </c>
-      <c r="B36" s="188">
+      <c r="B36" s="185">
         <v>668.57586708000008</v>
       </c>
-      <c r="C36" s="189">
+      <c r="C36" s="186">
         <v>1.5793700316800001</v>
       </c>
-      <c r="D36" s="190">
+      <c r="D36" s="187">
         <v>0.2688100700928</v>
       </c>
       <c r="E36" s="50"/>
-      <c r="F36" s="202">
+      <c r="F36" s="199">
         <f t="shared" si="0"/>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G36" s="203">
+      <c r="G36" s="200">
         <f t="shared" si="1"/>
         <v>3.5703865429751271E-2</v>
       </c>
-      <c r="H36" s="203">
+      <c r="H36" s="200">
         <f t="shared" si="2"/>
         <v>1.1487361663368174</v>
       </c>
-      <c r="I36" s="203">
+      <c r="I36" s="200">
         <f t="shared" si="3"/>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J36" s="203">
+      <c r="J36" s="200">
         <f t="shared" si="4"/>
         <v>0.97709626513173631</v>
       </c>
-      <c r="K36" s="203">
+      <c r="K36" s="200">
         <f t="shared" si="5"/>
         <v>31.437095234348483</v>
       </c>
-      <c r="L36" s="204">
+      <c r="L36" s="201">
         <f t="shared" si="6"/>
         <v>32.585831400685301</v>
       </c>
       <c r="M36" s="17"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="187">
+      <c r="A37" s="184">
         <v>61.7</v>
       </c>
-      <c r="B37" s="188">
+      <c r="B37" s="185">
         <v>676.36005653999996</v>
       </c>
-      <c r="C37" s="189">
+      <c r="C37" s="186">
         <v>1.5727089131200001</v>
       </c>
-      <c r="D37" s="190">
+      <c r="D37" s="187">
         <v>0.27315953021120004</v>
       </c>
       <c r="E37" s="50"/>
-      <c r="F37" s="202">
+      <c r="F37" s="199">
         <f t="shared" si="0"/>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G37" s="203">
+      <c r="G37" s="200">
         <f t="shared" si="1"/>
         <v>3.6281569005758726E-2</v>
       </c>
-      <c r="H37" s="203">
+      <c r="H37" s="200">
         <f t="shared" si="2"/>
         <v>1.1673232011912813</v>
       </c>
-      <c r="I37" s="203">
+      <c r="I37" s="200">
         <f t="shared" si="3"/>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J37" s="203">
+      <c r="J37" s="200">
         <f t="shared" si="4"/>
         <v>0.97297528402153222</v>
       </c>
-      <c r="K37" s="203">
+      <c r="K37" s="200">
         <f t="shared" si="5"/>
         <v>31.304506788108778</v>
       </c>
-      <c r="L37" s="204">
+      <c r="L37" s="201">
         <f t="shared" si="6"/>
         <v>32.471829989300062</v>
       </c>
       <c r="M37" s="17"/>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="187">
+      <c r="A38" s="184">
         <v>62.6</v>
       </c>
-      <c r="B38" s="188">
+      <c r="B38" s="185">
         <v>684.21241385999997</v>
       </c>
-      <c r="C38" s="189">
+      <c r="C38" s="186">
         <v>1.56595853984</v>
       </c>
-      <c r="D38" s="190">
+      <c r="D38" s="187">
         <v>0.27760515258880003</v>
       </c>
       <c r="E38" s="50"/>
-      <c r="F38" s="202">
+      <c r="F38" s="199">
         <f t="shared" si="0"/>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G38" s="203">
+      <c r="G38" s="200">
         <f t="shared" si="1"/>
         <v>3.6872045036163856E-2</v>
       </c>
-      <c r="H38" s="203">
+      <c r="H38" s="200">
         <f t="shared" si="2"/>
         <v>1.1863211769935358</v>
       </c>
-      <c r="I38" s="203">
+      <c r="I38" s="200">
         <f t="shared" si="3"/>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J38" s="203">
+      <c r="J38" s="200">
         <f t="shared" si="4"/>
         <v>0.96879908440533646</v>
       </c>
-      <c r="K38" s="203">
+      <c r="K38" s="200">
         <f t="shared" si="5"/>
         <v>31.170141741657297</v>
       </c>
-      <c r="L38" s="204">
+      <c r="L38" s="201">
         <f t="shared" si="6"/>
         <v>32.356462918650834</v>
       </c>
       <c r="M38" s="50"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="187">
+      <c r="A39" s="184">
         <v>63.5</v>
       </c>
-      <c r="B39" s="188">
+      <c r="B39" s="185">
         <v>692.13438942000005</v>
       </c>
-      <c r="C39" s="189">
+      <c r="C39" s="186">
         <v>1.5591150311999999</v>
       </c>
-      <c r="D39" s="190">
+      <c r="D39" s="187">
         <v>0.28215091488159999</v>
       </c>
       <c r="E39" s="50"/>
-      <c r="F39" s="202">
+      <c r="F39" s="199">
         <f t="shared" si="0"/>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G39" s="203">
+      <c r="G39" s="200">
         <f t="shared" si="1"/>
         <v>3.74758218408116E-2</v>
       </c>
-      <c r="H39" s="203">
+      <c r="H39" s="200">
         <f t="shared" si="2"/>
         <v>1.2057470919062725</v>
       </c>
-      <c r="I39" s="203">
+      <c r="I39" s="200">
         <f t="shared" si="3"/>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J39" s="203">
+      <c r="J39" s="200">
         <f t="shared" si="4"/>
         <v>0.96456526547854071</v>
       </c>
-      <c r="K39" s="203">
+      <c r="K39" s="200">
         <f t="shared" si="5"/>
         <v>31.033922851506567</v>
       </c>
-      <c r="L39" s="204">
+      <c r="L39" s="201">
         <f t="shared" si="6"/>
         <v>32.239669943412842</v>
       </c>
       <c r="M39" s="50"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="187">
+      <c r="A40" s="184">
         <v>64.400000000000006</v>
       </c>
-      <c r="B40" s="188">
+      <c r="B40" s="185">
         <v>700.12743360000002</v>
       </c>
-      <c r="C40" s="189">
+      <c r="C40" s="186">
         <v>1.5521764468799999</v>
       </c>
-      <c r="D40" s="190">
+      <c r="D40" s="187">
         <v>0.28680106639039998</v>
       </c>
       <c r="E40" s="50"/>
-      <c r="F40" s="202">
+      <c r="F40" s="199">
         <f t="shared" si="0"/>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G40" s="203">
+      <c r="G40" s="200">
         <f t="shared" si="1"/>
         <v>3.8093463819926565E-2</v>
       </c>
-      <c r="H40" s="203">
+      <c r="H40" s="200">
         <f t="shared" si="2"/>
         <v>1.2256191049423173</v>
       </c>
-      <c r="I40" s="203">
+      <c r="I40" s="200">
         <f t="shared" si="3"/>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J40" s="203">
+      <c r="J40" s="200">
         <f t="shared" si="4"/>
         <v>0.96027262683884074</v>
       </c>
-      <c r="K40" s="203">
+      <c r="K40" s="200">
         <f t="shared" si="5"/>
         <v>30.895811495912863</v>
       </c>
-      <c r="L40" s="204">
+      <c r="L40" s="201">
         <f t="shared" si="6"/>
         <v>32.121430600855177</v>
       </c>
       <c r="M40" s="50"/>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="187">
+      <c r="A41" s="184">
         <v>65.3</v>
       </c>
-      <c r="B41" s="188">
+      <c r="B41" s="185">
         <v>708.18864564</v>
       </c>
-      <c r="C41" s="189">
+      <c r="C41" s="186">
         <v>1.5451350256</v>
       </c>
-      <c r="D41" s="190">
+      <c r="D41" s="187">
         <v>0.29156020567359997</v>
       </c>
       <c r="E41" s="50"/>
-      <c r="F41" s="202">
+      <c r="F41" s="199">
         <f t="shared" si="0"/>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G41" s="203">
+      <c r="G41" s="200">
         <f t="shared" si="1"/>
         <v>3.87255817627929E-2</v>
       </c>
-      <c r="H41" s="203">
+      <c r="H41" s="200">
         <f t="shared" si="2"/>
         <v>1.2459568676360988</v>
       </c>
-      <c r="I41" s="203">
+      <c r="I41" s="200">
         <f t="shared" si="3"/>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J41" s="203">
+      <c r="J41" s="200">
         <f t="shared" si="4"/>
         <v>0.95591636687702009</v>
       </c>
-      <c r="K41" s="203">
+      <c r="K41" s="200">
         <f t="shared" si="5"/>
         <v>30.755653187901245</v>
       </c>
-      <c r="L41" s="204">
+      <c r="L41" s="201">
         <f t="shared" si="6"/>
         <v>32.001610055537341</v>
       </c>
       <c r="M41" s="50"/>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="187">
+      <c r="A42" s="184">
         <v>66.2</v>
       </c>
-      <c r="B42" s="188">
+      <c r="B42" s="185">
         <v>716.32237667999993</v>
       </c>
-      <c r="C42" s="189">
+      <c r="C42" s="186">
         <v>1.5379868867199999</v>
       </c>
-      <c r="D42" s="190">
+      <c r="D42" s="187">
         <v>0.29643326114399998</v>
       </c>
       <c r="E42" s="50"/>
-      <c r="F42" s="202">
+      <c r="F42" s="199">
         <f t="shared" si="0"/>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G42" s="203">
+      <c r="G42" s="200">
         <f t="shared" si="1"/>
         <v>3.937283027058433E-2</v>
       </c>
-      <c r="H42" s="203">
+      <c r="H42" s="200">
         <f t="shared" si="2"/>
         <v>1.2667814411257803</v>
       </c>
-      <c r="I42" s="203">
+      <c r="I42" s="200">
         <f t="shared" si="3"/>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J42" s="203">
+      <c r="J42" s="200">
         <f t="shared" si="4"/>
         <v>0.9514940847884702</v>
       </c>
-      <c r="K42" s="203">
+      <c r="K42" s="200">
         <f t="shared" si="5"/>
         <v>30.61337068398424</v>
       </c>
-      <c r="L42" s="204">
+      <c r="L42" s="201">
         <f t="shared" si="6"/>
         <v>31.880152125110019</v>
       </c>
-      <c r="M42" s="180"/>
+      <c r="M42" s="177"/>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="187">
+      <c r="A43" s="184">
         <v>67.099999999999994</v>
       </c>
-      <c r="B43" s="188">
+      <c r="B43" s="185">
         <v>724.52862672000003</v>
       </c>
-      <c r="C43" s="189">
+      <c r="C43" s="186">
         <v>1.5307281495999998</v>
       </c>
-      <c r="D43" s="190">
+      <c r="D43" s="187">
         <v>0.301425510472</v>
       </c>
       <c r="E43" s="50"/>
-      <c r="F43" s="202">
+      <c r="F43" s="199">
         <f t="shared" si="0"/>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G43" s="203">
+      <c r="G43" s="200">
         <f t="shared" si="1"/>
         <v>4.0035910333534153E-2</v>
       </c>
-      <c r="H43" s="203">
+      <c r="H43" s="200">
         <f t="shared" si="2"/>
         <v>1.2881153790711277</v>
       </c>
-      <c r="I43" s="203">
+      <c r="I43" s="200">
         <f t="shared" si="3"/>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J43" s="203">
+      <c r="J43" s="200">
         <f t="shared" si="4"/>
         <v>0.94700337976858262</v>
       </c>
-      <c r="K43" s="203">
+      <c r="K43" s="200">
         <f t="shared" si="5"/>
         <v>30.468886740674378</v>
       </c>
-      <c r="L43" s="204">
+      <c r="L43" s="201">
         <f t="shared" si="6"/>
         <v>31.757002119745508</v>
       </c>
-      <c r="M43" s="180"/>
+      <c r="M43" s="177"/>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="187">
+      <c r="A44" s="184">
         <v>68</v>
       </c>
-      <c r="B44" s="188">
+      <c r="B44" s="185">
         <v>732.80594538000003</v>
       </c>
-      <c r="C44" s="189">
+      <c r="C44" s="186">
         <v>1.5233529932800001</v>
       </c>
-      <c r="D44" s="190">
+      <c r="D44" s="187">
         <v>0.30654265819839999</v>
       </c>
       <c r="E44" s="50"/>
-      <c r="F44" s="202">
+      <c r="F44" s="199">
         <f t="shared" si="0"/>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G44" s="203">
+      <c r="G44" s="200">
         <f t="shared" si="1"/>
         <v>4.0715579639615092E-2</v>
       </c>
-      <c r="H44" s="203">
+      <c r="H44" s="200">
         <f t="shared" si="2"/>
         <v>1.3099830593249759</v>
       </c>
-      <c r="I44" s="203">
+      <c r="I44" s="200">
         <f t="shared" si="3"/>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J44" s="203">
+      <c r="J44" s="200">
         <f t="shared" si="4"/>
         <v>0.94244065061044546</v>
       </c>
-      <c r="K44" s="203">
+      <c r="K44" s="200">
         <f t="shared" si="5"/>
         <v>30.32208549274047</v>
       </c>
-      <c r="L44" s="204">
+      <c r="L44" s="201">
         <f t="shared" si="6"/>
         <v>31.632068552065448</v>
       </c>
       <c r="M44" s="50"/>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="187">
+      <c r="A45" s="184">
         <v>68.900000000000006</v>
       </c>
-      <c r="B45" s="188">
+      <c r="B45" s="185">
         <v>741.15723342000001</v>
       </c>
-      <c r="C45" s="189">
+      <c r="C45" s="186">
         <v>1.51585365648</v>
       </c>
-      <c r="D45" s="190">
+      <c r="D45" s="187">
         <v>0.31179093275039999</v>
       </c>
       <c r="E45" s="50"/>
-      <c r="F45" s="202">
+      <c r="F45" s="199">
         <f t="shared" si="0"/>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G45" s="203">
+      <c r="G45" s="200">
         <f t="shared" si="1"/>
         <v>4.1412665460389242E-2</v>
       </c>
-      <c r="H45" s="203">
+      <c r="H45" s="200">
         <f t="shared" si="2"/>
         <v>1.3324110985225635</v>
       </c>
-      <c r="I45" s="203">
+      <c r="I45" s="200">
         <f t="shared" si="3"/>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J45" s="203">
+      <c r="J45" s="200">
         <f t="shared" si="4"/>
         <v>0.93780109570484138</v>
       </c>
-      <c r="K45" s="203">
+      <c r="K45" s="200">
         <f t="shared" si="5"/>
         <v>30.172812453207566</v>
       </c>
-      <c r="L45" s="204">
+      <c r="L45" s="201">
         <f t="shared" si="6"/>
         <v>31.505223551730129</v>
       </c>
       <c r="M45" s="50"/>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="187">
+      <c r="A46" s="184">
         <v>69.8</v>
       </c>
-      <c r="B46" s="188">
+      <c r="B46" s="185">
         <v>749.58104045999994</v>
       </c>
-      <c r="C46" s="189">
+      <c r="C46" s="186">
         <v>1.5082262585599999</v>
       </c>
-      <c r="D46" s="190">
+      <c r="D46" s="187">
         <v>0.31717698942559996</v>
       </c>
       <c r="E46" s="50"/>
-      <c r="F46" s="202">
+      <c r="F46" s="199">
         <f t="shared" si="0"/>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G46" s="203">
+      <c r="G46" s="200">
         <f t="shared" si="1"/>
         <v>4.2128051765158131E-2</v>
       </c>
-      <c r="H46" s="203">
+      <c r="H46" s="200">
         <f t="shared" si="2"/>
         <v>1.3554279374921976</v>
       </c>
-      <c r="I46" s="203">
+      <c r="I46" s="200">
         <f t="shared" si="3"/>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J46" s="203">
+      <c r="J46" s="200">
         <f t="shared" si="4"/>
         <v>0.93308231424716226</v>
       </c>
-      <c r="K46" s="203">
+      <c r="K46" s="200">
         <f t="shared" si="5"/>
         <v>30.020990378588198</v>
       </c>
-      <c r="L46" s="204">
+      <c r="L46" s="201">
         <f t="shared" si="6"/>
         <v>31.376418316080397</v>
       </c>
       <c r="M46" s="50"/>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="191">
+      <c r="A47" s="188">
         <v>70</v>
       </c>
-      <c r="B47" s="192">
+      <c r="B47" s="189">
         <f>B46+(((B48-B46)/($A$48-$A$46))*($A$47-$A$46))</f>
         <v>751.46975752666663</v>
       </c>
-      <c r="C47" s="193">
+      <c r="C47" s="190">
         <f>C46+(((C48-C46)/($A$48-$A$46))*($A$47-$A$46))</f>
         <v>1.5065010984888887</v>
       </c>
-      <c r="D47" s="194">
+      <c r="D47" s="191">
         <f>D46+(((D48-D46)/($A$48-$A$46))*($A$47-$A$46))</f>
         <v>0.31840613902737774</v>
       </c>
       <c r="E47" s="47"/>
-      <c r="F47" s="202">
+      <c r="F47" s="199">
         <f t="shared" si="0"/>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G47" s="203">
+      <c r="G47" s="200">
         <f t="shared" si="1"/>
         <v>4.2291309756050194E-2</v>
       </c>
-      <c r="H47" s="203">
+      <c r="H47" s="200">
         <f t="shared" si="2"/>
         <v>1.3606806000911589</v>
       </c>
-      <c r="I47" s="203">
+      <c r="I47" s="200">
         <f t="shared" si="3"/>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J47" s="203">
+      <c r="J47" s="200">
         <f t="shared" si="4"/>
         <v>0.93201502322072416</v>
       </c>
-      <c r="K47" s="203">
+      <c r="K47" s="200">
         <f t="shared" si="5"/>
         <v>29.986651357103579</v>
       </c>
-      <c r="L47" s="204">
+      <c r="L47" s="201">
         <f t="shared" si="6"/>
         <v>31.347331957194736</v>
       </c>
@@ -22197,267 +22469,267 @@
       <c r="N47" s="49"/>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="187">
+      <c r="A48" s="184">
         <v>70.7</v>
       </c>
-      <c r="B48" s="188">
+      <c r="B48" s="185">
         <v>758.08026725999991</v>
       </c>
-      <c r="C48" s="189">
+      <c r="C48" s="186">
         <v>1.5004630382399999</v>
       </c>
-      <c r="D48" s="190">
+      <c r="D48" s="187">
         <v>0.32270816263359997</v>
       </c>
       <c r="E48" s="50"/>
-      <c r="F48" s="202">
+      <c r="F48" s="199">
         <f t="shared" si="0"/>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G48" s="203">
+      <c r="G48" s="200">
         <f t="shared" si="1"/>
         <v>4.2862712724172428E-2</v>
       </c>
-      <c r="H48" s="203">
+      <c r="H48" s="200">
         <f t="shared" si="2"/>
         <v>1.3790649191875237</v>
       </c>
-      <c r="I48" s="203">
+      <c r="I48" s="200">
         <f t="shared" si="3"/>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J48" s="203">
+      <c r="J48" s="200">
         <f t="shared" si="4"/>
         <v>0.92827950462819153</v>
       </c>
-      <c r="K48" s="203">
+      <c r="K48" s="200">
         <f t="shared" si="5"/>
         <v>29.866464781907435</v>
       </c>
-      <c r="L48" s="204">
+      <c r="L48" s="201">
         <f t="shared" si="6"/>
         <v>31.245529701094959</v>
       </c>
       <c r="M48" s="50"/>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="187">
+      <c r="A49" s="184">
         <v>71.599999999999994</v>
       </c>
-      <c r="B49" s="188">
+      <c r="B49" s="185">
         <v>766.65491381999993</v>
       </c>
-      <c r="C49" s="189">
+      <c r="C49" s="186">
         <v>1.4925542939199998</v>
       </c>
-      <c r="D49" s="190">
+      <c r="D49" s="187">
         <v>0.32839236888000001</v>
       </c>
       <c r="E49" s="50"/>
-      <c r="F49" s="202">
+      <c r="F49" s="199">
         <f t="shared" si="0"/>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G49" s="203">
+      <c r="G49" s="200">
         <f t="shared" si="1"/>
         <v>4.3617699822782074E-2</v>
       </c>
-      <c r="H49" s="203">
+      <c r="H49" s="200">
         <f t="shared" si="2"/>
         <v>1.4033558740981904</v>
       </c>
-      <c r="I49" s="203">
+      <c r="I49" s="200">
         <f t="shared" si="3"/>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J49" s="203">
+      <c r="J49" s="200">
         <f t="shared" si="4"/>
         <v>0.92338666483640819</v>
       </c>
-      <c r="K49" s="203">
+      <c r="K49" s="200">
         <f t="shared" si="5"/>
         <v>29.709042554446597</v>
       </c>
-      <c r="L49" s="204">
+      <c r="L49" s="201">
         <f t="shared" si="6"/>
         <v>31.112398428544786</v>
       </c>
       <c r="M49" s="50"/>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="187">
+      <c r="A50" s="184">
         <v>72.5</v>
       </c>
-      <c r="B50" s="188">
+      <c r="B50" s="185">
         <v>775.30498014</v>
       </c>
-      <c r="C50" s="189">
+      <c r="C50" s="186">
         <v>1.48449226432</v>
       </c>
-      <c r="D50" s="190">
+      <c r="D50" s="187">
         <v>0.33423830079839995</v>
       </c>
       <c r="E50" s="50"/>
-      <c r="F50" s="202">
+      <c r="F50" s="199">
         <f t="shared" si="0"/>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G50" s="203">
+      <c r="G50" s="200">
         <f t="shared" si="1"/>
         <v>4.4394167633135993E-2</v>
       </c>
-      <c r="H50" s="203">
+      <c r="H50" s="200">
         <f t="shared" si="2"/>
         <v>1.4283379494285173</v>
       </c>
-      <c r="I50" s="203">
+      <c r="I50" s="200">
         <f t="shared" si="3"/>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J50" s="203">
+      <c r="J50" s="200">
         <f t="shared" si="4"/>
         <v>0.918398993262596</v>
       </c>
-      <c r="K50" s="203">
+      <c r="K50" s="200">
         <f t="shared" si="5"/>
         <v>29.548569209230763</v>
       </c>
-      <c r="L50" s="204">
+      <c r="L50" s="201">
         <f t="shared" si="6"/>
         <v>30.97690715865928</v>
       </c>
       <c r="M50" s="50"/>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="187">
+      <c r="A51" s="184">
         <v>73.400000000000006</v>
       </c>
-      <c r="B51" s="188">
+      <c r="B51" s="185">
         <v>784.03191660000005</v>
       </c>
-      <c r="C51" s="189">
+      <c r="C51" s="186">
         <v>1.4762691881599999</v>
       </c>
-      <c r="D51" s="190">
+      <c r="D51" s="187">
         <v>0.34025552416639998</v>
       </c>
       <c r="E51" s="50"/>
-      <c r="F51" s="202">
+      <c r="F51" s="199">
         <f t="shared" si="0"/>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G51" s="203">
+      <c r="G51" s="200">
         <f t="shared" si="1"/>
         <v>4.5193386700032034E-2</v>
       </c>
-      <c r="H51" s="203">
+      <c r="H51" s="200">
         <f t="shared" si="2"/>
         <v>1.4540520236868306</v>
       </c>
-      <c r="I51" s="203">
+      <c r="I51" s="200">
         <f t="shared" si="3"/>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J51" s="203">
+      <c r="J51" s="200">
         <f t="shared" si="4"/>
         <v>0.91331168829753762</v>
       </c>
-      <c r="K51" s="203">
+      <c r="K51" s="200">
         <f t="shared" si="5"/>
         <v>29.384890259284976</v>
       </c>
-      <c r="L51" s="204">
+      <c r="L51" s="201">
         <f t="shared" si="6"/>
         <v>30.838942282971807</v>
       </c>
       <c r="M51" s="50"/>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="187">
+      <c r="A52" s="184">
         <v>74.3</v>
       </c>
-      <c r="B52" s="188">
+      <c r="B52" s="185">
         <v>792.83572320000007</v>
       </c>
-      <c r="C52" s="189">
+      <c r="C52" s="186">
         <v>1.4678734235199999</v>
       </c>
-      <c r="D52" s="190">
+      <c r="D52" s="187">
         <v>0.34645449730880001</v>
       </c>
       <c r="E52" s="50"/>
-      <c r="F52" s="202">
+      <c r="F52" s="199">
         <f t="shared" si="0"/>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G52" s="203">
+      <c r="G52" s="200">
         <f t="shared" si="1"/>
         <v>4.6016746118086892E-2</v>
       </c>
-      <c r="H52" s="203">
+      <c r="H52" s="200">
         <f t="shared" si="2"/>
         <v>1.4805427896033276</v>
       </c>
-      <c r="I52" s="203">
+      <c r="I52" s="200">
         <f t="shared" si="3"/>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J52" s="203">
+      <c r="J52" s="200">
         <f t="shared" si="4"/>
         <v>0.90811754752740859</v>
       </c>
-      <c r="K52" s="203">
+      <c r="K52" s="200">
         <f t="shared" si="5"/>
         <v>29.217773974146844</v>
       </c>
-      <c r="L52" s="204">
+      <c r="L52" s="201">
         <f t="shared" si="6"/>
         <v>30.698316763750171</v>
       </c>
       <c r="M52" s="50"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A53" s="191">
+      <c r="A53" s="188">
         <v>75</v>
       </c>
-      <c r="B53" s="192">
+      <c r="B53" s="189">
         <f>B52+(((B54-B52)/($A$54-$A$52))*($A$53-$A$52))</f>
         <v>799.74517236666668</v>
       </c>
-      <c r="C53" s="193">
+      <c r="C53" s="190">
         <f t="shared" ref="C53:D53" si="7">C52+(((C54-C52)/($A$54-$A$52))*($A$53-$A$52))</f>
         <v>1.4612000162666667</v>
       </c>
-      <c r="D53" s="194">
+      <c r="D53" s="191">
         <f t="shared" si="7"/>
         <v>0.35142632153493331</v>
       </c>
       <c r="E53" s="47"/>
-      <c r="F53" s="205">
+      <c r="F53" s="202">
         <f t="shared" si="0"/>
         <v>0.13282190439303632</v>
       </c>
-      <c r="G53" s="206">
+      <c r="G53" s="203">
         <f t="shared" si="1"/>
         <v>4.6677113280109352E-2</v>
       </c>
-      <c r="H53" s="206">
+      <c r="H53" s="203">
         <f t="shared" si="2"/>
         <v>1.5017894426742382</v>
       </c>
-      <c r="I53" s="206">
+      <c r="I53" s="203">
         <f t="shared" si="3"/>
         <v>0.61866202696804629</v>
       </c>
-      <c r="J53" s="206">
+      <c r="J53" s="203">
         <f t="shared" si="4"/>
         <v>0.90398896386927829</v>
       </c>
-      <c r="K53" s="206">
+      <c r="K53" s="203">
         <f t="shared" si="5"/>
         <v>29.084940923530159</v>
       </c>
-      <c r="L53" s="207">
+      <c r="L53" s="204">
         <f t="shared" si="6"/>
         <v>30.586730366204396</v>
       </c>
@@ -22465,16 +22737,16 @@
       <c r="N53" s="40"/>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="187">
+      <c r="A54" s="184">
         <v>75.2</v>
       </c>
-      <c r="B54" s="188">
+      <c r="B54" s="185">
         <v>801.71930069999996</v>
       </c>
-      <c r="C54" s="189">
+      <c r="C54" s="186">
         <v>1.45929332848</v>
       </c>
-      <c r="D54" s="190">
+      <c r="D54" s="187">
         <v>0.35284684274239997</v>
       </c>
       <c r="E54" s="50"/>
@@ -22488,16 +22760,16 @@
       <c r="M54" s="17"/>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="187">
+      <c r="A55" s="184">
         <v>76.099999999999994</v>
       </c>
-      <c r="B55" s="188">
+      <c r="B55" s="185">
         <v>810.68264910000005</v>
       </c>
-      <c r="C55" s="189">
+      <c r="C55" s="186">
         <v>1.4505153208000001</v>
       </c>
-      <c r="D55" s="190">
+      <c r="D55" s="187">
         <v>0.35944542478879998</v>
       </c>
       <c r="E55" s="50"/>
@@ -22511,16 +22783,16 @@
       <c r="M55" s="17"/>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="187">
+      <c r="A56" s="184">
         <v>77</v>
       </c>
-      <c r="B56" s="188">
+      <c r="B56" s="185">
         <v>819.72576839999999</v>
       </c>
-      <c r="C56" s="189">
+      <c r="C56" s="186">
         <v>1.4415277585599999</v>
       </c>
-      <c r="D56" s="190">
+      <c r="D56" s="187">
         <v>0.36626458241279997</v>
       </c>
       <c r="E56" s="50"/>
@@ -22534,16 +22806,16 @@
       <c r="M56" s="17"/>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="187">
+      <c r="A57" s="184">
         <v>77.900000000000006</v>
       </c>
-      <c r="B57" s="188">
+      <c r="B57" s="185">
         <v>828.85010898000007</v>
       </c>
-      <c r="C57" s="189">
+      <c r="C57" s="186">
         <v>1.4323131788799999</v>
       </c>
-      <c r="D57" s="190">
+      <c r="D57" s="187">
         <v>0.37332036206079999</v>
       </c>
       <c r="E57" s="50"/>
@@ -22557,16 +22829,16 @@
       <c r="M57" s="17"/>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="187">
+      <c r="A58" s="184">
         <v>78.8</v>
       </c>
-      <c r="B58" s="188">
+      <c r="B58" s="185">
         <v>838.05712122</v>
       </c>
-      <c r="C58" s="189">
+      <c r="C58" s="186">
         <v>1.4228541188799999</v>
       </c>
-      <c r="D58" s="190">
+      <c r="D58" s="187">
         <v>0.38063080870880001</v>
       </c>
       <c r="E58" s="50"/>
@@ -22580,16 +22852,16 @@
       <c r="M58" s="17"/>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="187">
+      <c r="A59" s="184">
         <v>79.7</v>
       </c>
-      <c r="B59" s="188">
+      <c r="B59" s="185">
         <v>847.34825549999994</v>
       </c>
-      <c r="C59" s="189">
+      <c r="C59" s="186">
         <v>1.41312923504</v>
       </c>
-      <c r="D59" s="190">
+      <c r="D59" s="187">
         <v>0.38821637332959996</v>
       </c>
       <c r="E59" s="50"/>
@@ -22603,16 +22875,16 @@
       <c r="M59" s="17"/>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="187">
+      <c r="A60" s="184">
         <v>80.599999999999994</v>
       </c>
-      <c r="B60" s="188">
+      <c r="B60" s="185">
         <v>856.72351182</v>
       </c>
-      <c r="C60" s="189">
+      <c r="C60" s="186">
         <v>1.4031171838399998</v>
       </c>
-      <c r="D60" s="190">
+      <c r="D60" s="187">
         <v>0.3961002815536</v>
       </c>
       <c r="E60" s="50"/>
@@ -22626,16 +22898,16 @@
       <c r="M60" s="17"/>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="187">
+      <c r="A61" s="184">
         <v>81.5</v>
       </c>
-      <c r="B61" s="188">
+      <c r="B61" s="185">
         <v>866.18579093999995</v>
       </c>
-      <c r="C61" s="189">
+      <c r="C61" s="186">
         <v>1.3927888604799998</v>
       </c>
-      <c r="D61" s="190">
+      <c r="D61" s="187">
         <v>0.40430919337760002</v>
       </c>
       <c r="E61" s="50"/>
@@ -22649,16 +22921,16 @@
       <c r="M61" s="17"/>
     </row>
     <row r="62" spans="1:14">
-      <c r="A62" s="187">
+      <c r="A62" s="184">
         <v>82.4</v>
       </c>
-      <c r="B62" s="188">
+      <c r="B62" s="185">
         <v>875.73364248000007</v>
       </c>
-      <c r="C62" s="189">
+      <c r="C62" s="186">
         <v>1.3821171004799999</v>
       </c>
-      <c r="D62" s="190">
+      <c r="D62" s="187">
         <v>0.41287390167999999</v>
       </c>
       <c r="E62" s="50"/>
@@ -22672,16 +22944,16 @@
       <c r="M62" s="17"/>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="187">
+      <c r="A63" s="184">
         <v>83.3</v>
       </c>
-      <c r="B63" s="188">
+      <c r="B63" s="185">
         <v>885.37141757999996</v>
       </c>
-      <c r="C63" s="189">
+      <c r="C63" s="186">
         <v>1.37106309744</v>
       </c>
-      <c r="D63" s="190">
+      <c r="D63" s="187">
         <v>0.42183024417120002</v>
       </c>
       <c r="E63" s="50"/>
@@ -22695,16 +22967,16 @@
       <c r="M63" s="17"/>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="187">
+      <c r="A64" s="184">
         <v>84.2</v>
       </c>
-      <c r="B64" s="188">
+      <c r="B64" s="185">
         <v>895.10056662</v>
       </c>
-      <c r="C64" s="189">
+      <c r="C64" s="186">
         <v>1.35958416432</v>
       </c>
-      <c r="D64" s="190">
+      <c r="D64" s="187">
         <v>0.43122034519840002</v>
       </c>
       <c r="E64" s="50"/>
@@ -22718,16 +22990,16 @@
       <c r="M64" s="17"/>
     </row>
     <row r="65" spans="1:14">
-      <c r="A65" s="187">
+      <c r="A65" s="184">
         <v>85.1</v>
       </c>
-      <c r="B65" s="188">
+      <c r="B65" s="185">
         <v>904.91963922000002</v>
       </c>
-      <c r="C65" s="189">
+      <c r="C65" s="186">
         <v>1.3476317931200001</v>
       </c>
-      <c r="D65" s="190">
+      <c r="D65" s="187">
         <v>0.44109424561439997</v>
       </c>
       <c r="E65" s="50"/>
@@ -22741,16 +23013,16 @@
       <c r="M65" s="17"/>
     </row>
     <row r="66" spans="1:14">
-      <c r="A66" s="187">
+      <c r="A66" s="184">
         <v>86</v>
       </c>
-      <c r="B66" s="188">
+      <c r="B66" s="185">
         <v>914.83443690000001</v>
       </c>
-      <c r="C66" s="189">
+      <c r="C66" s="186">
         <v>1.33514583392</v>
       </c>
-      <c r="D66" s="190">
+      <c r="D66" s="187">
         <v>0.45151211474239994</v>
       </c>
       <c r="E66" s="50"/>
@@ -22764,16 +23036,16 @@
       <c r="M66" s="17"/>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67" s="187">
+      <c r="A67" s="184">
         <v>86.9</v>
       </c>
-      <c r="B67" s="188">
+      <c r="B67" s="185">
         <v>924.84350928000003</v>
       </c>
-      <c r="C67" s="189">
+      <c r="C67" s="186">
         <v>1.3220506142399999</v>
       </c>
-      <c r="D67" s="190">
+      <c r="D67" s="187">
         <v>0.4625472966784</v>
       </c>
       <c r="E67" s="50"/>
@@ -22787,16 +23059,16 @@
       <c r="M67" s="17"/>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" s="187">
+      <c r="A68" s="184">
         <v>87.8</v>
       </c>
-      <c r="B68" s="188">
+      <c r="B68" s="185">
         <v>934.95120750000012</v>
       </c>
-      <c r="C68" s="189">
+      <c r="C68" s="186">
         <v>1.30825687936</v>
       </c>
-      <c r="D68" s="190">
+      <c r="D68" s="187">
         <v>0.47429065660800002</v>
       </c>
       <c r="E68" s="50"/>
@@ -22810,16 +23082,16 @@
       <c r="M68" s="17"/>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" s="187">
+      <c r="A69" s="184">
         <v>88.7</v>
       </c>
-      <c r="B69" s="188">
+      <c r="B69" s="185">
         <v>945.16043231999993</v>
       </c>
-      <c r="C69" s="189">
+      <c r="C69" s="186">
         <v>1.29364626976</v>
       </c>
-      <c r="D69" s="190">
+      <c r="D69" s="187">
         <v>0.48685690624959999</v>
       </c>
       <c r="E69" s="50"/>
@@ -22833,16 +23105,16 @@
       <c r="M69" s="17"/>
     </row>
     <row r="70" spans="1:14">
-      <c r="A70" s="187">
+      <c r="A70" s="184">
         <v>89.6</v>
       </c>
-      <c r="B70" s="188">
+      <c r="B70" s="185">
         <v>955.47118374000013</v>
       </c>
-      <c r="C70" s="189">
+      <c r="C70" s="186">
         <v>1.2780693808000001</v>
       </c>
-      <c r="D70" s="190">
+      <c r="D70" s="187">
         <v>0.50039415022879996</v>
       </c>
       <c r="E70" s="50"/>
@@ -22856,16 +23128,16 @@
       <c r="M70" s="17"/>
     </row>
     <row r="71" spans="1:14">
-      <c r="A71" s="187">
+      <c r="A71" s="184">
         <v>90.5</v>
       </c>
-      <c r="B71" s="188">
+      <c r="B71" s="185">
         <v>965.88781289999997</v>
       </c>
-      <c r="C71" s="189">
+      <c r="C71" s="186">
         <v>1.2613302401599999</v>
       </c>
-      <c r="D71" s="190">
+      <c r="D71" s="187">
         <v>0.51509886534880001</v>
       </c>
       <c r="E71" s="50"/>
@@ -22879,16 +23151,16 @@
       <c r="M71" s="17"/>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="187">
+      <c r="A72" s="184">
         <v>91.4</v>
       </c>
-      <c r="B72" s="188">
+      <c r="B72" s="185">
         <v>976.41612132</v>
       </c>
-      <c r="C72" s="189">
+      <c r="C72" s="186">
         <v>1.24315138208</v>
       </c>
-      <c r="D72" s="190">
+      <c r="D72" s="187">
         <v>0.53124065907359996</v>
       </c>
       <c r="E72" s="50"/>
@@ -22902,16 +23174,16 @@
       <c r="M72" s="17"/>
     </row>
     <row r="73" spans="1:14">
-      <c r="A73" s="187">
+      <c r="A73" s="184">
         <v>92.3</v>
       </c>
-      <c r="B73" s="188">
+      <c r="B73" s="185">
         <v>987.05610900000011</v>
       </c>
-      <c r="C73" s="189">
+      <c r="C73" s="186">
         <v>1.2231428022399999</v>
       </c>
-      <c r="D73" s="190">
+      <c r="D73" s="187">
         <v>0.54920555806720006</v>
       </c>
       <c r="E73" s="50"/>
@@ -22925,16 +23197,16 @@
       <c r="M73" s="17"/>
     </row>
     <row r="74" spans="1:14">
-      <c r="A74" s="187">
+      <c r="A74" s="184">
         <v>93.2</v>
       </c>
-      <c r="B74" s="188">
+      <c r="B74" s="185">
         <v>997.81792859999996</v>
       </c>
-      <c r="C74" s="189">
+      <c r="C74" s="186">
         <v>1.20071076272</v>
       </c>
-      <c r="D74" s="190">
+      <c r="D74" s="187">
         <v>0.56957841358399997</v>
       </c>
       <c r="E74" s="50"/>
@@ -22948,16 +23220,16 @@
       <c r="M74" s="17"/>
     </row>
     <row r="75" spans="1:14">
-      <c r="A75" s="187">
+      <c r="A75" s="184">
         <v>94.1</v>
       </c>
-      <c r="B75" s="188">
+      <c r="B75" s="185">
         <v>1008.70448088</v>
       </c>
-      <c r="C75" s="189">
+      <c r="C75" s="186">
         <v>1.1748812228800001</v>
       </c>
-      <c r="D75" s="190">
+      <c r="D75" s="187">
         <v>0.59331624965759999</v>
       </c>
       <c r="E75" s="50"/>
@@ -22971,16 +23243,16 @@
       <c r="M75" s="17"/>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="187">
+      <c r="A76" s="184">
         <v>95</v>
       </c>
-      <c r="B76" s="188">
+      <c r="B76" s="185">
         <v>1019.7259185</v>
       </c>
-      <c r="C76" s="189">
+      <c r="C76" s="186">
         <v>1.143867148</v>
       </c>
-      <c r="D76" s="190">
+      <c r="D76" s="187">
         <v>0.6221741633408</v>
       </c>
       <c r="E76" s="50"/>
@@ -22994,16 +23266,16 @@
       <c r="M76" s="17"/>
     </row>
     <row r="77" spans="1:14">
-      <c r="A77" s="187">
+      <c r="A77" s="184">
         <v>95.9</v>
       </c>
-      <c r="B77" s="188">
+      <c r="B77" s="185">
         <v>1030.8938445000001</v>
       </c>
-      <c r="C77" s="189">
+      <c r="C77" s="186">
         <v>1.1037122256</v>
       </c>
-      <c r="D77" s="190">
+      <c r="D77" s="187">
         <v>0.66003374539039994</v>
       </c>
       <c r="E77" s="50"/>
@@ -23017,16 +23289,16 @@
       <c r="M77" s="17"/>
     </row>
     <row r="78" spans="1:14">
-      <c r="A78" s="187">
+      <c r="A78" s="184">
         <v>96.8</v>
       </c>
-      <c r="B78" s="188">
+      <c r="B78" s="185">
         <v>1042.23146496</v>
       </c>
-      <c r="C78" s="189">
+      <c r="C78" s="186">
         <v>1.04153273088</v>
       </c>
-      <c r="D78" s="190">
+      <c r="D78" s="187">
         <v>0.7195324357888</v>
       </c>
       <c r="E78" s="50"/>
@@ -23040,16 +23312,16 @@
       <c r="M78" s="17"/>
     </row>
     <row r="79" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A79" s="195">
+      <c r="A79" s="192">
         <v>97.47</v>
       </c>
-      <c r="B79" s="196">
+      <c r="B79" s="193">
         <v>1050.8003100000001</v>
       </c>
-      <c r="C79" s="197">
+      <c r="C79" s="194">
         <v>0.87704598352000007</v>
       </c>
-      <c r="D79" s="198">
+      <c r="D79" s="195">
         <v>0.8770468760672</v>
       </c>
       <c r="E79" s="64"/>
@@ -25438,10 +25710,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75">
-      <c r="A10" s="238" t="s">
+      <c r="A10" s="208" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="237">
+      <c r="B10" s="207">
         <f>B9/B8</f>
         <v>56.217635831442159</v>
       </c>
@@ -25513,10 +25785,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A17" s="237" t="s">
+      <c r="A17" s="207" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="237">
+      <c r="B17" s="207">
         <f>B16/B15</f>
         <v>12.396931974293622</v>
       </c>
@@ -25569,10 +25841,10 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75">
-      <c r="A23" s="237" t="s">
+      <c r="A23" s="207" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="237">
+      <c r="B23" s="207">
         <f>B22/B21</f>
         <v>5.5060397732394284</v>
       </c>
@@ -25601,10 +25873,10 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75">
-      <c r="A28" s="237" t="s">
+      <c r="A28" s="207" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="237">
+      <c r="B28" s="207">
         <f>B27/B26</f>
         <v>14.182223658343982</v>
       </c>
@@ -25634,58 +25906,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="214"/>
     </row>
     <row r="2" spans="1:7" ht="15.75">
-      <c r="A2" s="211" t="s">
+      <c r="A2" s="215" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="211"/>
-      <c r="C2" s="211"/>
-      <c r="D2" s="211"/>
-      <c r="E2" s="211"/>
-      <c r="F2" s="211"/>
-      <c r="G2" s="211"/>
+      <c r="B2" s="215"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A3" s="213" t="s">
+      <c r="A3" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="213"/>
-      <c r="C3" s="213"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="213"/>
-      <c r="F3" s="213"/>
-      <c r="G3" s="213"/>
+      <c r="B3" s="217"/>
+      <c r="C3" s="217"/>
+      <c r="D3" s="217"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="217"/>
+      <c r="G3" s="217"/>
     </row>
     <row r="4" spans="1:7" ht="24" thickBot="1">
-      <c r="A4" s="234" t="s">
+      <c r="A4" s="240" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="235"/>
-      <c r="C4" s="235"/>
-      <c r="D4" s="235"/>
-      <c r="E4" s="235"/>
-      <c r="F4" s="236"/>
+      <c r="B4" s="241"/>
+      <c r="C4" s="241"/>
+      <c r="D4" s="241"/>
+      <c r="E4" s="241"/>
+      <c r="F4" s="242"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="212" t="s">
+      <c r="A5" s="216" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="212"/>
-      <c r="C5" s="143"/>
-      <c r="E5" s="212" t="s">
+      <c r="B5" s="216"/>
+      <c r="C5" s="142"/>
+      <c r="E5" s="216" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="212"/>
+      <c r="F5" s="216"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -25753,13 +26025,13 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="29.1" customHeight="1">
-      <c r="A11" s="209" t="s">
+      <c r="A11" s="206" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="161">
+      <c r="B11" s="158">
         <v>27000</v>
       </c>
-      <c r="C11" s="162" t="s">
+      <c r="C11" s="159" t="s">
         <v>109</v>
       </c>
       <c r="E11" s="7"/>
@@ -25772,7 +26044,7 @@
       <c r="B12">
         <v>7</v>
       </c>
-      <c r="C12" s="155"/>
+      <c r="C12" s="152"/>
       <c r="E12" s="106" t="s">
         <v>54</v>
       </c>
@@ -25785,11 +26057,11 @@
       <c r="A13" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="156">
+      <c r="B13" s="153">
         <f>0.25-0.025</f>
         <v>0.22500000000000001</v>
       </c>
-      <c r="C13" s="157">
+      <c r="C13" s="154">
         <f>B13/F10</f>
         <v>0.99987118572130995</v>
       </c>
@@ -25805,10 +26077,10 @@
       <c r="A14" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="158">
+      <c r="B14" s="155">
         <v>0.15</v>
       </c>
-      <c r="C14" s="159">
+      <c r="C14" s="156">
         <f>B14/F13</f>
         <v>1.3793154271155925</v>
       </c>
@@ -25830,7 +26102,7 @@
         <f>'N2O Pressure Calcs'!H53</f>
         <v>807.70698482306932</v>
       </c>
-      <c r="C16" s="146"/>
+      <c r="C16" s="144"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
@@ -25842,7 +26114,7 @@
         <f>B10*B16</f>
         <v>1615.4139696461386</v>
       </c>
-      <c r="C17" s="147"/>
+      <c r="C17" s="145"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
@@ -25862,7 +26134,7 @@
         <f>'N2O Pressure Calcs'!J53</f>
         <v>810.73685002846571</v>
       </c>
-      <c r="C19" s="148"/>
+      <c r="C19" s="146"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
@@ -25937,58 +26209,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="214"/>
     </row>
     <row r="2" spans="1:7" ht="15.75">
-      <c r="A2" s="211" t="s">
+      <c r="A2" s="215" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="211"/>
-      <c r="C2" s="211"/>
-      <c r="D2" s="211"/>
-      <c r="E2" s="211"/>
-      <c r="F2" s="211"/>
-      <c r="G2" s="211"/>
+      <c r="B2" s="215"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A3" s="213" t="s">
+      <c r="A3" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="213"/>
-      <c r="C3" s="213"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="213"/>
-      <c r="F3" s="213"/>
-      <c r="G3" s="213"/>
+      <c r="B3" s="217"/>
+      <c r="C3" s="217"/>
+      <c r="D3" s="217"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="217"/>
+      <c r="G3" s="217"/>
     </row>
     <row r="4" spans="1:7" ht="24" thickBot="1">
-      <c r="A4" s="234" t="s">
+      <c r="A4" s="240" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="235"/>
-      <c r="C4" s="235"/>
-      <c r="D4" s="235"/>
-      <c r="E4" s="235"/>
-      <c r="F4" s="236"/>
+      <c r="B4" s="241"/>
+      <c r="C4" s="241"/>
+      <c r="D4" s="241"/>
+      <c r="E4" s="241"/>
+      <c r="F4" s="242"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="212" t="s">
+      <c r="A5" s="216" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="212"/>
-      <c r="C5" s="143"/>
-      <c r="E5" s="212" t="s">
+      <c r="B5" s="216"/>
+      <c r="C5" s="142"/>
+      <c r="E5" s="216" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="212"/>
+      <c r="F5" s="216"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -26056,13 +26328,13 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="29.1" customHeight="1">
-      <c r="A11" s="160" t="s">
+      <c r="A11" s="157" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="161">
+      <c r="B11" s="158">
         <v>19600</v>
       </c>
-      <c r="C11" s="163" t="s">
+      <c r="C11" s="160" t="s">
         <v>108</v>
       </c>
       <c r="E11" s="7"/>
@@ -26075,7 +26347,7 @@
       <c r="B12">
         <v>7</v>
       </c>
-      <c r="C12" s="155"/>
+      <c r="C12" s="152"/>
       <c r="E12" s="106" t="s">
         <v>54</v>
       </c>
@@ -26088,11 +26360,11 @@
       <c r="A13" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="156">
+      <c r="B13" s="153">
         <f>0.25-0.025</f>
         <v>0.22500000000000001</v>
       </c>
-      <c r="C13" s="157">
+      <c r="C13" s="154">
         <f>B13/F10</f>
         <v>0.71444780091678006</v>
       </c>
@@ -26108,10 +26380,10 @@
       <c r="A14" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="158">
+      <c r="B14" s="155">
         <v>0.15</v>
       </c>
-      <c r="C14" s="159">
+      <c r="C14" s="156">
         <f>B14/F13</f>
         <v>0.99875091404288596</v>
       </c>
@@ -26133,7 +26405,7 @@
         <f>'N2O Pressure Calcs'!H53</f>
         <v>807.70698482306932</v>
       </c>
-      <c r="C16" s="146"/>
+      <c r="C16" s="144"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
@@ -26145,7 +26417,7 @@
         <f>B10*B16</f>
         <v>1615.4139696461386</v>
       </c>
-      <c r="C17" s="147"/>
+      <c r="C17" s="145"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
@@ -26165,7 +26437,7 @@
         <f>'N2O Pressure Calcs'!J53</f>
         <v>810.73685002846571</v>
       </c>
-      <c r="C19" s="148"/>
+      <c r="C19" s="146"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
